--- a/data/new_posteriors/no_elementary_skills/simple_model/leak/constrained/results_model1a_leak_constrained.xlsx
+++ b/data/new_posteriors/no_elementary_skills/simple_model/leak/constrained/results_model1a_leak_constrained.xlsx
@@ -622,31 +622,31 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n" s="25">
-        <v>0.9988639504366098</v>
+        <v>0.9985642136364413</v>
       </c>
       <c r="F3" t="n" s="25">
-        <v>0.9999217332665077</v>
+        <v>0.9997250906908114</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>0.9999825180410691</v>
+        <v>0.9996586968934374</v>
       </c>
       <c r="H3" t="n" s="25">
-        <v>0.9970698439175792</v>
+        <v>0.9947985819779521</v>
       </c>
       <c r="I3" t="n" s="25">
-        <v>0.9992866611469318</v>
+        <v>0.9932778661322443</v>
       </c>
       <c r="J3" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9993358794873476</v>
       </c>
       <c r="K3" t="n" s="25">
-        <v>0.8989148535057891</v>
+        <v>0.847542786329294</v>
       </c>
       <c r="L3" t="n" s="25">
-        <v>1.0</v>
+        <v>0.7514990047955201</v>
       </c>
       <c r="M3" t="n" s="25">
-        <v>1.0</v>
+        <v>1.4352560452270126E-6</v>
       </c>
       <c r="N3" t="n" s="25">
         <v>0.5</v>
@@ -657,31 +657,31 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F4" t="n" s="25">
-        <v>0.9999981652120649</v>
+        <v>0.9999922256613836</v>
       </c>
       <c r="G4" t="n" s="25">
-        <v>0.9999999995758917</v>
+        <v>0.9999999734167588</v>
       </c>
       <c r="H4" t="n" s="25">
-        <v>0.9997133626502709</v>
+        <v>0.999384719134074</v>
       </c>
       <c r="I4" t="n" s="25">
-        <v>0.9999999996269755</v>
+        <v>0.99999998152072</v>
       </c>
       <c r="J4" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999413226388</v>
       </c>
       <c r="K4" t="n" s="25">
-        <v>0.9997361565408506</v>
+        <v>0.9989970627283152</v>
       </c>
       <c r="L4" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9996993369961962</v>
       </c>
       <c r="M4" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9943809334060114</v>
       </c>
       <c r="N4" t="n" s="25">
         <v>0.5</v>
@@ -692,31 +692,31 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F5" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999966568747249</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>0.9999999999610925</v>
       </c>
       <c r="H5" t="n" s="25">
-        <v>0.9999634386555672</v>
+        <v>0.9998993539645364</v>
       </c>
       <c r="I5" t="n" s="25">
-        <v>0.9999999999999951</v>
+        <v>0.9999999999992676</v>
       </c>
       <c r="J5" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="K5" t="n" s="25">
-        <v>0.9999907736430119</v>
+        <v>0.9999458540709291</v>
       </c>
       <c r="L5" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999994287722</v>
       </c>
       <c r="M5" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999853828552</v>
       </c>
       <c r="N5" t="n" s="25">
         <v>0.5</v>
@@ -727,31 +727,31 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F6" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999966568747249</v>
       </c>
       <c r="G6" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>0.9999999999610925</v>
       </c>
       <c r="H6" t="n" s="25">
-        <v>0.9999744279750036</v>
+        <v>0.9999260358356878</v>
       </c>
       <c r="I6" t="n" s="25">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999997267</v>
       </c>
       <c r="J6" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K6" t="n" s="25">
-        <v>0.9999987328523009</v>
+        <v>0.999989874084595</v>
       </c>
       <c r="L6" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999991527</v>
       </c>
       <c r="M6" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999088022</v>
       </c>
       <c r="N6" t="n" s="25">
         <v>0.5</v>
@@ -762,31 +762,31 @@
         <v>5.0</v>
       </c>
       <c r="E7" t="n" s="25">
-        <v>0.9991274378874396</v>
+        <v>0.9988640951565367</v>
       </c>
       <c r="F7" t="n" s="25">
-        <v>0.9999984732404491</v>
+        <v>0.9999934300938721</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.9999999999024841</v>
+        <v>0.9999999938708332</v>
       </c>
       <c r="H7" t="n" s="25">
-        <v>0.9999264291745467</v>
+        <v>0.9998144978182121</v>
       </c>
       <c r="I7" t="n" s="25">
-        <v>0.9999999999927577</v>
+        <v>0.9999999993887142</v>
       </c>
       <c r="J7" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999476077</v>
       </c>
       <c r="K7" t="n" s="25">
-        <v>0.9999346317783462</v>
+        <v>0.9996435357746989</v>
       </c>
       <c r="L7" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999987685401089</v>
       </c>
       <c r="M7" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999904150033451</v>
       </c>
       <c r="N7" t="n" s="25">
         <v>0.5</v>
@@ -797,31 +797,31 @@
         <v>6.0</v>
       </c>
       <c r="E8" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F8" t="n" s="25">
-        <v>0.9999981652120649</v>
+        <v>0.9999922256613836</v>
       </c>
       <c r="G8" t="n" s="25">
-        <v>0.9999999995758917</v>
+        <v>0.9999999734167588</v>
       </c>
       <c r="H8" t="n" s="25">
-        <v>0.9993744113189219</v>
+        <v>0.9988165983446476</v>
       </c>
       <c r="I8" t="n" s="25">
-        <v>0.9999999951354414</v>
+        <v>0.9999998508171132</v>
       </c>
       <c r="J8" t="n" s="25">
-        <v>0.9999999995857503</v>
+        <v>0.9999999247156488</v>
       </c>
       <c r="K8" t="n" s="25">
-        <v>0.9804205571019377</v>
+        <v>0.9675467946773469</v>
       </c>
       <c r="L8" t="n" s="25">
-        <v>0.9918645376684081</v>
+        <v>0.9830768206113363</v>
       </c>
       <c r="M8" t="n" s="25">
-        <v>0.44683149221674895</v>
+        <v>0.025032081732726877</v>
       </c>
       <c r="N8" t="n" s="25">
         <v>0.5</v>
@@ -832,31 +832,31 @@
         <v>7.0</v>
       </c>
       <c r="E9" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F9" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999966568747249</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>0.9999999999610925</v>
       </c>
       <c r="H9" t="n" s="25">
-        <v>0.9999845703437606</v>
+        <v>0.9999514165798032</v>
       </c>
       <c r="I9" t="n" s="25">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999154</v>
       </c>
       <c r="J9" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K9" t="n" s="25">
-        <v>0.9999998841222452</v>
+        <v>0.9999984895868012</v>
       </c>
       <c r="L9" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999942</v>
       </c>
       <c r="M9" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999972089</v>
       </c>
       <c r="N9" t="n" s="25">
         <v>0.5</v>
@@ -867,31 +867,31 @@
         <v>8.0</v>
       </c>
       <c r="E10" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9988024893306368</v>
       </c>
       <c r="F10" t="n" s="25">
-        <v>0.9999986664649917</v>
+        <v>0.9999941251072504</v>
       </c>
       <c r="G10" t="n" s="25">
-        <v>0.999999999959948</v>
+        <v>0.9999999969808784</v>
       </c>
       <c r="H10" t="n" s="25">
-        <v>0.9998904968932578</v>
+        <v>0.9997328968678366</v>
       </c>
       <c r="I10" t="n" s="25">
-        <v>0.9999999999963215</v>
+        <v>0.9999999996921799</v>
       </c>
       <c r="J10" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999764267</v>
       </c>
       <c r="K10" t="n" s="25">
-        <v>0.9999799237824233</v>
+        <v>0.9998846195948158</v>
       </c>
       <c r="L10" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999997894985063</v>
       </c>
       <c r="M10" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999956163700148</v>
       </c>
       <c r="N10" t="n" s="25">
         <v>0.5</v>
@@ -902,31 +902,31 @@
         <v>9.0</v>
       </c>
       <c r="E11" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F11" t="n" s="25">
-        <v>0.9999962581098016</v>
+        <v>0.9999859078529846</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>0.999999922498761</v>
+        <v>0.9999980056431838</v>
       </c>
       <c r="H11" t="n" s="25">
-        <v>0.9999733663354602</v>
+        <v>0.9999235655807238</v>
       </c>
       <c r="I11" t="n" s="25">
-        <v>0.9999999994625067</v>
+        <v>0.9999999597229805</v>
       </c>
       <c r="J11" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999997479295325</v>
       </c>
       <c r="K11" t="n" s="25">
-        <v>0.9999325280534376</v>
+        <v>0.9994921860951327</v>
       </c>
       <c r="L11" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999583049155232</v>
       </c>
       <c r="M11" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9993300140815174</v>
       </c>
       <c r="N11" t="n" s="25">
         <v>0.5</v>
@@ -937,31 +937,31 @@
         <v>10.0</v>
       </c>
       <c r="E12" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F12" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999966568747249</v>
       </c>
       <c r="G12" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>0.9999999999610925</v>
       </c>
       <c r="H12" t="n" s="25">
-        <v>0.9999845703437606</v>
+        <v>0.9999514165798032</v>
       </c>
       <c r="I12" t="n" s="25">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999154</v>
       </c>
       <c r="J12" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K12" t="n" s="25">
-        <v>0.9999998841222452</v>
+        <v>0.9999984895868012</v>
       </c>
       <c r="L12" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999942</v>
       </c>
       <c r="M12" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999972089</v>
       </c>
       <c r="N12" t="n" s="25">
         <v>0.5</v>
@@ -972,31 +972,31 @@
         <v>11.0</v>
       </c>
       <c r="E13" t="n" s="25">
-        <v>0.9991493793904361</v>
+        <v>0.9988889442131283</v>
       </c>
       <c r="F13" t="n" s="25">
-        <v>0.9969794481525968</v>
+        <v>0.9933722443075313</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>0.5669187101124126</v>
+        <v>0.4827434627012112</v>
       </c>
       <c r="H13" t="n" s="25">
-        <v>0.9998959364107073</v>
+        <v>0.999678466735762</v>
       </c>
       <c r="I13" t="n" s="25">
-        <v>0.9999310123561127</v>
+        <v>0.9988512711928006</v>
       </c>
       <c r="J13" t="n" s="25">
-        <v>1.0</v>
+        <v>0.007423706780420047</v>
       </c>
       <c r="K13" t="n" s="25">
-        <v>0.9999798278939418</v>
+        <v>0.9996360762503463</v>
       </c>
       <c r="L13" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999029517132275</v>
       </c>
       <c r="M13" t="n" s="25">
-        <v>1.0</v>
+        <v>1.0576940616342382E-9</v>
       </c>
       <c r="N13" t="n" s="25">
         <v>0.5</v>
@@ -1007,31 +1007,31 @@
         <v>12.0</v>
       </c>
       <c r="E14" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9990766231441008</v>
       </c>
       <c r="F14" t="n" s="25">
-        <v>0.9999710701574831</v>
+        <v>0.9999195183756306</v>
       </c>
       <c r="G14" t="n" s="25">
-        <v>0.9633828822826286</v>
+        <v>0.9427079712335755</v>
       </c>
       <c r="H14" t="n" s="25">
-        <v>0.99996299736163</v>
+        <v>0.9998998938088746</v>
       </c>
       <c r="I14" t="n" s="25">
-        <v>0.9999228270695063</v>
+        <v>0.9997028385314298</v>
       </c>
       <c r="J14" t="n" s="25">
-        <v>0.6652442937456171</v>
+        <v>0.22136990994654565</v>
       </c>
       <c r="K14" t="n" s="25">
-        <v>0.9253116744831718</v>
+        <v>0.895272242816028</v>
       </c>
       <c r="L14" t="n" s="25">
-        <v>0.18649633698327567</v>
+        <v>0.044759430687848864</v>
       </c>
       <c r="M14" t="n" s="25">
-        <v>4.527253923894539E-18</v>
+        <v>1.633572306766296E-19</v>
       </c>
       <c r="N14" t="n" s="25">
         <v>0.5</v>
@@ -1042,31 +1042,31 @@
         <v>13.0</v>
       </c>
       <c r="E15" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F15" t="n" s="25">
-        <v>0.9999919193686365</v>
+        <v>0.9999717144785565</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.9998555831295834</v>
+        <v>0.9992654116326886</v>
       </c>
       <c r="H15" t="n" s="25">
-        <v>0.9997133626502709</v>
+        <v>0.999384719134074</v>
       </c>
       <c r="I15" t="n" s="25">
-        <v>0.9991712963818669</v>
+        <v>0.9971264881552716</v>
       </c>
       <c r="J15" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9455072894684409</v>
       </c>
       <c r="K15" t="n" s="25">
-        <v>0.9552683743192182</v>
+        <v>0.9177213854837287</v>
       </c>
       <c r="L15" t="n" s="25">
-        <v>1.0</v>
+        <v>0.7953705108683573</v>
       </c>
       <c r="M15" t="n" s="25">
-        <v>1.0</v>
+        <v>7.009110050289176E-10</v>
       </c>
       <c r="N15" t="n" s="25">
         <v>0.5</v>
@@ -1077,31 +1077,31 @@
         <v>14.0</v>
       </c>
       <c r="E16" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9990766231441008</v>
       </c>
       <c r="F16" t="n" s="25">
-        <v>0.9999933737059371</v>
+        <v>0.9999773704000315</v>
       </c>
       <c r="G16" t="n" s="25">
-        <v>0.9999999570501501</v>
+        <v>0.9999994123264836</v>
       </c>
       <c r="H16" t="n" s="25">
-        <v>0.9999928437010657</v>
+        <v>0.9999751251929931</v>
       </c>
       <c r="I16" t="n" s="25">
-        <v>0.9999999999998656</v>
+        <v>0.9999999999870349</v>
       </c>
       <c r="J16" t="n" s="25">
-        <v>0.999999998939674</v>
+        <v>0.9999999235393497</v>
       </c>
       <c r="K16" t="n" s="25">
-        <v>0.999999862195202</v>
+        <v>0.9999980596158857</v>
       </c>
       <c r="L16" t="n" s="25">
-        <v>0.9999999933647311</v>
+        <v>0.9999995587758355</v>
       </c>
       <c r="M16" t="n" s="25">
-        <v>0.9996144106340238</v>
+        <v>0.9726707646862737</v>
       </c>
       <c r="N16" t="n" s="25">
         <v>0.5</v>
@@ -1112,31 +1112,31 @@
         <v>15.0</v>
       </c>
       <c r="E17" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9988024893306368</v>
       </c>
       <c r="F17" t="n" s="25">
-        <v>0.9999986664649917</v>
+        <v>0.9999941251072504</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>0.999999999959948</v>
+        <v>0.9999999969808784</v>
       </c>
       <c r="H17" t="n" s="25">
-        <v>0.9998860506821844</v>
+        <v>0.9997246082774528</v>
       </c>
       <c r="I17" t="n" s="25">
-        <v>0.9999999999959899</v>
+        <v>0.9999999996741713</v>
       </c>
       <c r="J17" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999851569</v>
       </c>
       <c r="K17" t="n" s="25">
-        <v>0.9999774288148149</v>
+        <v>0.9998762630796362</v>
       </c>
       <c r="L17" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998661148413</v>
       </c>
       <c r="M17" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999997314746694</v>
       </c>
       <c r="N17" t="n" s="25">
         <v>0.5</v>
@@ -1147,31 +1147,31 @@
         <v>16.0</v>
       </c>
       <c r="E18" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9990766231441008</v>
       </c>
       <c r="F18" t="n" s="25">
-        <v>0.9999995379719052</v>
+        <v>0.9999976764745981</v>
       </c>
       <c r="G18" t="n" s="25">
-        <v>0.9999999999999568</v>
+        <v>0.9999999999940302</v>
       </c>
       <c r="H18" t="n" s="25">
-        <v>0.999992230858993</v>
+        <v>0.9999735524160116</v>
       </c>
       <c r="I18" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999949</v>
       </c>
       <c r="J18" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K18" t="n" s="25">
-        <v>0.9999999218192753</v>
+        <v>0.9999990098633355</v>
       </c>
       <c r="L18" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M18" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999998739</v>
       </c>
       <c r="N18" t="n" s="25">
         <v>0.5</v>
@@ -1182,31 +1182,31 @@
         <v>17.0</v>
       </c>
       <c r="E19" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F19" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999966568747249</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>0.9999999999610925</v>
       </c>
       <c r="H19" t="n" s="25">
-        <v>0.9999744279750036</v>
+        <v>0.9999260358356878</v>
       </c>
       <c r="I19" t="n" s="25">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999997267</v>
       </c>
       <c r="J19" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K19" t="n" s="25">
-        <v>0.9999987328523009</v>
+        <v>0.999989874084595</v>
       </c>
       <c r="L19" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999991527</v>
       </c>
       <c r="M19" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999088022</v>
       </c>
       <c r="N19" t="n" s="25">
         <v>0.5</v>
@@ -1217,31 +1217,31 @@
         <v>18.0</v>
       </c>
       <c r="E20" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F20" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999966568747249</v>
       </c>
       <c r="G20" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>0.9999999999610925</v>
       </c>
       <c r="H20" t="n" s="25">
-        <v>0.9999634386555672</v>
+        <v>0.9998993539645364</v>
       </c>
       <c r="I20" t="n" s="25">
-        <v>0.9999999999999951</v>
+        <v>0.9999999999992676</v>
       </c>
       <c r="J20" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="K20" t="n" s="25">
-        <v>0.9999907736430119</v>
+        <v>0.9999458540709291</v>
       </c>
       <c r="L20" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999994287722</v>
       </c>
       <c r="M20" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999853828552</v>
       </c>
       <c r="N20" t="n" s="25">
         <v>0.5</v>
@@ -1252,31 +1252,31 @@
         <v>19.0</v>
       </c>
       <c r="E21" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9990766231441008</v>
       </c>
       <c r="F21" t="n" s="25">
-        <v>0.9999995379719052</v>
+        <v>0.9999976764745981</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>0.9999999999999568</v>
+        <v>0.9999999999940302</v>
       </c>
       <c r="H21" t="n" s="25">
-        <v>0.9999950388597546</v>
+        <v>0.9999818912819994</v>
       </c>
       <c r="I21" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="J21" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K21" t="n" s="25">
-        <v>0.9999999914859279</v>
+        <v>0.9999998368367954</v>
       </c>
       <c r="L21" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="M21" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999981</v>
       </c>
       <c r="N21" t="n" s="25">
         <v>0.5</v>
@@ -1287,31 +1287,31 @@
         <v>20.0</v>
       </c>
       <c r="E22" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F22" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999966568747249</v>
       </c>
       <c r="G22" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>0.9999999999610925</v>
       </c>
       <c r="H22" t="n" s="25">
-        <v>0.9999764198929206</v>
+        <v>0.9999303648009452</v>
       </c>
       <c r="I22" t="n" s="25">
-        <v>0.9999999999999987</v>
+        <v>0.9999999999997539</v>
       </c>
       <c r="J22" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K22" t="n" s="25">
-        <v>0.99999899485984</v>
+        <v>0.9999910684559729</v>
       </c>
       <c r="L22" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999980453</v>
       </c>
       <c r="M22" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999997778517</v>
       </c>
       <c r="N22" t="n" s="25">
         <v>0.5</v>
@@ -1322,31 +1322,31 @@
         <v>21.0</v>
       </c>
       <c r="E23" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9990766231441008</v>
       </c>
       <c r="F23" t="n" s="25">
-        <v>0.9999995379719052</v>
+        <v>0.9999976764745981</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>0.9999999999999568</v>
+        <v>0.9999999999940302</v>
       </c>
       <c r="H23" t="n" s="25">
-        <v>0.9999881215995371</v>
+        <v>0.9999620685605709</v>
       </c>
       <c r="I23" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999851</v>
       </c>
       <c r="J23" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K23" t="n" s="25">
-        <v>0.9999993218342604</v>
+        <v>0.9999941445292149</v>
       </c>
       <c r="L23" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999266</v>
       </c>
       <c r="M23" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999999999989973</v>
       </c>
       <c r="N23" t="n" s="25">
         <v>0.5</v>
@@ -1357,31 +1357,31 @@
         <v>22.0</v>
       </c>
       <c r="E24" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F24" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999966568747249</v>
       </c>
       <c r="G24" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>0.9999999999610925</v>
       </c>
       <c r="H24" t="n" s="25">
-        <v>0.9999764198929206</v>
+        <v>0.9999303648009452</v>
       </c>
       <c r="I24" t="n" s="25">
-        <v>0.9999999999999987</v>
+        <v>0.9999999999997539</v>
       </c>
       <c r="J24" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K24" t="n" s="25">
-        <v>0.99999899485984</v>
+        <v>0.9999910684559729</v>
       </c>
       <c r="L24" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999980453</v>
       </c>
       <c r="M24" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999997778517</v>
       </c>
       <c r="N24" t="n" s="25">
         <v>0.5</v>
@@ -1392,31 +1392,31 @@
         <v>23.0</v>
       </c>
       <c r="E25" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F25" t="n" s="25">
-        <v>0.9999989604594058</v>
+        <v>0.999995302031617</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>0.9999999999889619</v>
+        <v>0.9999999991358914</v>
       </c>
       <c r="H25" t="n" s="25">
-        <v>0.9999634386555672</v>
+        <v>0.9998993539645364</v>
       </c>
       <c r="I25" t="n" s="25">
-        <v>0.9999999999997394</v>
+        <v>0.9999999999677743</v>
       </c>
       <c r="J25" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999994664</v>
       </c>
       <c r="K25" t="n" s="25">
-        <v>0.9999631525032587</v>
+        <v>0.9997844699485896</v>
       </c>
       <c r="L25" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998991732796</v>
       </c>
       <c r="M25" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999990548286821</v>
       </c>
       <c r="N25" t="n" s="25">
         <v>0.5</v>
@@ -1427,31 +1427,31 @@
         <v>24.0</v>
       </c>
       <c r="E26" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F26" t="n" s="25">
-        <v>0.9522935044601201</v>
+        <v>0.9239198655947276</v>
       </c>
       <c r="G26" t="n" s="25">
-        <v>0.6892102215584675</v>
+        <v>0.47979312077340885</v>
       </c>
       <c r="H26" t="n" s="25">
-        <v>0.9827805113493441</v>
+        <v>0.9731288644452671</v>
       </c>
       <c r="I26" t="n" s="25">
-        <v>0.8981339055710925</v>
+        <v>0.7764145530879089</v>
       </c>
       <c r="J26" t="n" s="25">
-        <v>1.0</v>
+        <v>3.0440735966317714E-4</v>
       </c>
       <c r="K26" t="n" s="25">
-        <v>0.8606849747810309</v>
+        <v>0.8234804044545062</v>
       </c>
       <c r="L26" t="n" s="25">
-        <v>1.0</v>
+        <v>2.717742008202422E-4</v>
       </c>
       <c r="M26" t="n" s="25">
-        <v>1.0</v>
+        <v>2.509341696279028E-20</v>
       </c>
       <c r="N26" t="n" s="25">
         <v>0.5</v>
@@ -1462,31 +1462,31 @@
         <v>25.0</v>
       </c>
       <c r="E27" t="n" s="25">
-        <v>0.9992488414630909</v>
+        <v>0.9990041798783298</v>
       </c>
       <c r="F27" t="n" s="25">
-        <v>0.9994328908555525</v>
+        <v>0.9986110169732494</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>0.7436227406192696</v>
+        <v>0.6743415239762514</v>
       </c>
       <c r="H27" t="n" s="25">
-        <v>0.9998547666653038</v>
+        <v>0.9996122562457007</v>
       </c>
       <c r="I27" t="n" s="25">
-        <v>0.999481752945598</v>
+        <v>0.9981987345090014</v>
       </c>
       <c r="J27" t="n" s="25">
-        <v>0.002266401580341779</v>
+        <v>5.062837173915605E-4</v>
       </c>
       <c r="K27" t="n" s="25">
-        <v>0.96216885034987</v>
+        <v>0.9381161380382296</v>
       </c>
       <c r="L27" t="n" s="25">
-        <v>0.15512066893808718</v>
+        <v>0.021435468401624393</v>
       </c>
       <c r="M27" t="n" s="25">
-        <v>1.6844611136281664E-22</v>
+        <v>6.029800675723673E-24</v>
       </c>
       <c r="N27" t="n" s="25">
         <v>0.5</v>
@@ -1497,31 +1497,31 @@
         <v>26.0</v>
       </c>
       <c r="E28" t="n" s="25">
-        <v>0.999039066803416</v>
+        <v>0.9987626801665062</v>
       </c>
       <c r="F28" t="n" s="25">
-        <v>0.9999978313666398</v>
+        <v>0.9999910670396569</v>
       </c>
       <c r="G28" t="n" s="25">
-        <v>0.9999999990669062</v>
+        <v>0.9999999520362184</v>
       </c>
       <c r="H28" t="n" s="25">
-        <v>0.9998610326545109</v>
+        <v>0.9996758804230857</v>
       </c>
       <c r="I28" t="n" s="25">
-        <v>0.9999999997959595</v>
+        <v>0.9999999878565137</v>
       </c>
       <c r="J28" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999940046378</v>
       </c>
       <c r="K28" t="n" s="25">
-        <v>0.9998896685160733</v>
+        <v>0.9994349410231544</v>
       </c>
       <c r="L28" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999849562241168</v>
       </c>
       <c r="M28" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9998908779955921</v>
       </c>
       <c r="N28" t="n" s="25">
         <v>0.5</v>
@@ -1532,31 +1532,31 @@
         <v>27.0</v>
       </c>
       <c r="E29" t="n" s="25">
-        <v>0.9987654520600814</v>
+        <v>0.9984540813360937</v>
       </c>
       <c r="F29" t="n" s="25">
-        <v>0.9999962083360194</v>
+        <v>0.9999853754217962</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>0.9999999643406988</v>
+        <v>0.999998566253841</v>
       </c>
       <c r="H29" t="n" s="25">
-        <v>0.9982868062978894</v>
+        <v>0.997138249655535</v>
       </c>
       <c r="I29" t="n" s="25">
-        <v>0.9999987242562152</v>
+        <v>0.9999782791101255</v>
       </c>
       <c r="J29" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999825640500996</v>
       </c>
       <c r="K29" t="n" s="25">
-        <v>0.9911231210102833</v>
+        <v>0.9826339176244163</v>
       </c>
       <c r="L29" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9917103921974175</v>
       </c>
       <c r="M29" t="n" s="25">
-        <v>1.0</v>
+        <v>0.04570336537043305</v>
       </c>
       <c r="N29" t="n" s="25">
         <v>0.5</v>
@@ -1567,31 +1567,31 @@
         <v>28.0</v>
       </c>
       <c r="E30" t="n" s="25">
-        <v>0.9987654520600814</v>
+        <v>0.9984540813360937</v>
       </c>
       <c r="F30" t="n" s="25">
-        <v>0.9074129222781414</v>
+        <v>0.8786406450199926</v>
       </c>
       <c r="G30" t="n" s="25">
-        <v>0.12661493886450953</v>
+        <v>0.06914712839229646</v>
       </c>
       <c r="H30" t="n" s="25">
-        <v>0.9347469238292465</v>
+        <v>0.9209095808729062</v>
       </c>
       <c r="I30" t="n" s="25">
-        <v>0.3806329364591275</v>
+        <v>0.23147873850371364</v>
       </c>
       <c r="J30" t="n" s="25">
-        <v>1.7643255916747912E-10</v>
+        <v>1.9795240235461263E-11</v>
       </c>
       <c r="K30" t="n" s="25">
-        <v>0.6523062942436713</v>
+        <v>0.6279027180181203</v>
       </c>
       <c r="L30" t="n" s="25">
-        <v>2.3468131431798405E-8</v>
+        <v>1.0088766037411149E-8</v>
       </c>
       <c r="M30" t="n" s="25">
-        <v>2.3021300241567363E-36</v>
+        <v>2.7578074885712545E-37</v>
       </c>
       <c r="N30" t="n" s="25">
         <v>0.5</v>
@@ -1602,31 +1602,31 @@
         <v>29.0</v>
       </c>
       <c r="E31" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F31" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999966568747249</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>0.9999999999610925</v>
       </c>
       <c r="H31" t="n" s="25">
-        <v>0.9999832523071457</v>
+        <v>0.99994835488775</v>
       </c>
       <c r="I31" t="n" s="25">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999062</v>
       </c>
       <c r="J31" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K31" t="n" s="25">
-        <v>0.9999998539139474</v>
+        <v>0.999998287539329</v>
       </c>
       <c r="L31" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999976</v>
       </c>
       <c r="M31" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999988544</v>
       </c>
       <c r="N31" t="n" s="25">
         <v>0.5</v>
@@ -1637,31 +1637,31 @@
         <v>30.0</v>
       </c>
       <c r="E32" t="n" s="25">
-        <v>0.9987654520600814</v>
+        <v>0.9984540813360937</v>
       </c>
       <c r="F32" t="n" s="25">
-        <v>0.8987325046910183</v>
+        <v>0.8705736447029357</v>
       </c>
       <c r="G32" t="n" s="25">
-        <v>0.025412569209433557</v>
+        <v>0.016007631787006132</v>
       </c>
       <c r="H32" t="n" s="25">
-        <v>0.9307584856780335</v>
+        <v>0.9173584456127691</v>
       </c>
       <c r="I32" t="n" s="25">
-        <v>0.2166374433559105</v>
+        <v>0.11936176394481535</v>
       </c>
       <c r="J32" t="n" s="25">
-        <v>2.740372403274988E-12</v>
+        <v>3.853608430580677E-13</v>
       </c>
       <c r="K32" t="n" s="25">
-        <v>0.6523062639462035</v>
+        <v>0.6279026950877656</v>
       </c>
       <c r="L32" t="n" s="25">
-        <v>2.7188961678192453E-9</v>
+        <v>1.1636703601160319E-9</v>
       </c>
       <c r="M32" t="n" s="25">
-        <v>6.704201331547735E-39</v>
+        <v>9.881864396697516E-40</v>
       </c>
       <c r="N32" t="n" s="25">
         <v>0.5</v>
@@ -1672,31 +1672,31 @@
         <v>31.0</v>
       </c>
       <c r="E33" t="n" s="25">
-        <v>0.04843355558257199</v>
+        <v>0.04738683253164222</v>
       </c>
       <c r="F33" t="n" s="25">
-        <v>3.931603284448882E-4</v>
+        <v>3.30844979195777E-4</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>4.910400324556555E-8</v>
+        <v>3.555851908234392E-8</v>
       </c>
       <c r="H33" t="n" s="25">
-        <v>3.931681463926664E-4</v>
+        <v>3.3085047863058367E-4</v>
       </c>
       <c r="I33" t="n" s="25">
-        <v>1.6533560888539155E-10</v>
+        <v>6.19387684496451E-11</v>
       </c>
       <c r="J33" t="n" s="25">
-        <v>6.79983655788901E-24</v>
+        <v>1.4943806754892585E-24</v>
       </c>
       <c r="K33" t="n" s="25">
-        <v>9.307164610952819E-8</v>
+        <v>6.381741674669818E-8</v>
       </c>
       <c r="L33" t="n" s="25">
-        <v>1.5916883915914207E-23</v>
+        <v>2.860106695284933E-24</v>
       </c>
       <c r="M33" t="n" s="25">
-        <v>9.354268571041864E-55</v>
+        <v>1.010506497334636E-55</v>
       </c>
       <c r="N33" t="n" s="25">
         <v>0.5</v>
@@ -1707,31 +1707,31 @@
         <v>32.0</v>
       </c>
       <c r="E34" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F34" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9138689388043615</v>
       </c>
       <c r="G34" t="n" s="25">
-        <v>0.07541813561346608</v>
+        <v>0.05503127337840693</v>
       </c>
       <c r="H34" t="n" s="25">
-        <v>0.9836875112577306</v>
+        <v>0.9741918699523779</v>
       </c>
       <c r="I34" t="n" s="25">
-        <v>0.8980772299438537</v>
+        <v>0.7763697439989857</v>
       </c>
       <c r="J34" t="n" s="25">
-        <v>1.6725824871100036E-9</v>
+        <v>3.30223901467975E-10</v>
       </c>
       <c r="K34" t="n" s="25">
-        <v>0.8660762251141307</v>
+        <v>0.8260253885099672</v>
       </c>
       <c r="L34" t="n" s="25">
-        <v>6.145054538843331E-6</v>
+        <v>1.186299767044097E-6</v>
       </c>
       <c r="M34" t="n" s="25">
-        <v>2.0533755640502E-34</v>
+        <v>1.975788930307482E-35</v>
       </c>
       <c r="N34" t="n" s="25">
         <v>0.5</v>
@@ -1742,31 +1742,31 @@
         <v>33.0</v>
       </c>
       <c r="E35" t="n" s="25">
-        <v>0.006423132281581189</v>
+        <v>0.0063389906234352115</v>
       </c>
       <c r="F35" t="n" s="25">
-        <v>3.0337426139974005E-6</v>
+        <v>2.652173125152841E-6</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>1.7375705353018397E-10</v>
+        <v>1.1549121025919699E-10</v>
       </c>
       <c r="H35" t="n" s="25">
-        <v>3.0337402534277805E-6</v>
+        <v>2.6521713694314947E-6</v>
       </c>
       <c r="I35" t="n" s="25">
-        <v>2.987117817928189E-16</v>
+        <v>1.4518539938724925E-16</v>
       </c>
       <c r="J35" t="n" s="25">
-        <v>1.0586306129482693E-31</v>
+        <v>2.703295289703091E-32</v>
       </c>
       <c r="K35" t="n" s="25">
-        <v>9.904847155330973E-12</v>
+        <v>8.497062251456303E-12</v>
       </c>
       <c r="L35" t="n" s="25">
-        <v>9.404226824339175E-34</v>
+        <v>4.431624314964262E-34</v>
       </c>
       <c r="M35" t="n" s="25">
-        <v>9.244857456832347E-67</v>
+        <v>2.3117000492367292E-67</v>
       </c>
       <c r="N35" t="n" s="25">
         <v>0.5</v>
@@ -1777,31 +1777,31 @@
         <v>34.0</v>
       </c>
       <c r="E36" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F36" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9138689388043615</v>
       </c>
       <c r="G36" t="n" s="25">
-        <v>0.0754181349899714</v>
+        <v>0.055031273109482616</v>
       </c>
       <c r="H36" t="n" s="25">
-        <v>0.9765372268261889</v>
+        <v>0.9650587751889511</v>
       </c>
       <c r="I36" t="n" s="25">
-        <v>0.8980771127548363</v>
+        <v>0.7763696273114512</v>
       </c>
       <c r="J36" t="n" s="25">
-        <v>5.854038711249399E-10</v>
+        <v>1.1557836553859963E-10</v>
       </c>
       <c r="K36" t="n" s="25">
-        <v>0.7300873886108452</v>
+        <v>0.7003855584742733</v>
       </c>
       <c r="L36" t="n" s="25">
-        <v>1.7509015977300392E-7</v>
+        <v>6.104003080024046E-8</v>
       </c>
       <c r="M36" t="n" s="25">
-        <v>1.4658832734971673E-37</v>
+        <v>2.5072752572951195E-38</v>
       </c>
       <c r="N36" t="n" s="25">
         <v>0.5</v>
@@ -1812,31 +1812,31 @@
         <v>35.0</v>
       </c>
       <c r="E37" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F37" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9138689388043615</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>0.07541813561346608</v>
+        <v>0.05503127337840693</v>
       </c>
       <c r="H37" t="n" s="25">
-        <v>0.9836875112577306</v>
+        <v>0.9741918699523779</v>
       </c>
       <c r="I37" t="n" s="25">
-        <v>0.8980772299438537</v>
+        <v>0.7763697439989857</v>
       </c>
       <c r="J37" t="n" s="25">
-        <v>1.6725824871100036E-9</v>
+        <v>3.30223901467975E-10</v>
       </c>
       <c r="K37" t="n" s="25">
-        <v>0.8660762251141307</v>
+        <v>0.8260253885099672</v>
       </c>
       <c r="L37" t="n" s="25">
-        <v>6.145054538843331E-6</v>
+        <v>1.186299767044097E-6</v>
       </c>
       <c r="M37" t="n" s="25">
-        <v>2.0533755640502E-34</v>
+        <v>1.975788930307482E-35</v>
       </c>
       <c r="N37" t="n" s="25">
         <v>0.5</v>
@@ -1847,31 +1847,31 @@
         <v>36.0</v>
       </c>
       <c r="E38" t="n" s="25">
-        <v>0.9991103295372367</v>
+        <v>0.9988426146034837</v>
       </c>
       <c r="F38" t="n" s="25">
-        <v>0.9793089166228728</v>
+        <v>0.9604625088049538</v>
       </c>
       <c r="G38" t="n" s="25">
-        <v>0.6876417740620906</v>
+        <v>0.5088289409338639</v>
       </c>
       <c r="H38" t="n" s="25">
-        <v>0.9973771382926307</v>
+        <v>0.994291035994942</v>
       </c>
       <c r="I38" t="n" s="25">
-        <v>0.9791929167429633</v>
+        <v>0.9395900849160412</v>
       </c>
       <c r="J38" t="n" s="25">
-        <v>0.21291836821245083</v>
+        <v>0.010116065110367889</v>
       </c>
       <c r="K38" t="n" s="25">
-        <v>0.9793994234682715</v>
+        <v>0.9597221497386069</v>
       </c>
       <c r="L38" t="n" s="25">
-        <v>0.9132381103977213</v>
+        <v>0.3933290906379218</v>
       </c>
       <c r="M38" t="n" s="25">
-        <v>2.631844059530539E-13</v>
+        <v>1.7135456252655357E-15</v>
       </c>
       <c r="N38" t="n" s="25">
         <v>0.5</v>
@@ -1882,31 +1882,31 @@
         <v>37.0</v>
       </c>
       <c r="E39" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F39" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9138689388043615</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>0.07541813549356326</v>
+        <v>0.055031273326690715</v>
       </c>
       <c r="H39" t="n" s="25">
-        <v>0.9839786572894015</v>
+        <v>0.9745094251624421</v>
       </c>
       <c r="I39" t="n" s="25">
-        <v>0.8980772185031288</v>
+        <v>0.776369729990725</v>
       </c>
       <c r="J39" t="n" s="25">
-        <v>1.4635096765272338E-9</v>
+        <v>2.8894591379640524E-10</v>
       </c>
       <c r="K39" t="n" s="25">
-        <v>0.867810193633498</v>
+        <v>0.8264803756350878</v>
       </c>
       <c r="L39" t="n" s="25">
-        <v>5.574133662959207E-6</v>
+        <v>1.035580438733577E-6</v>
       </c>
       <c r="M39" t="n" s="25">
-        <v>1.2991054020890683E-34</v>
+        <v>1.1940629154406975E-35</v>
       </c>
       <c r="N39" t="n" s="25">
         <v>0.5</v>
@@ -1917,31 +1917,31 @@
         <v>38.0</v>
       </c>
       <c r="E40" t="n" s="25">
-        <v>0.9989177443749853</v>
+        <v>0.9986236715918837</v>
       </c>
       <c r="F40" t="n" s="25">
-        <v>0.9070789731786727</v>
+        <v>0.8779180108599453</v>
       </c>
       <c r="G40" t="n" s="25">
-        <v>0.019984954677613714</v>
+        <v>0.014350096296126272</v>
       </c>
       <c r="H40" t="n" s="25">
-        <v>0.9678731231818247</v>
+        <v>0.9562305269850724</v>
       </c>
       <c r="I40" t="n" s="25">
-        <v>0.5322606046754733</v>
+        <v>0.32873556514434976</v>
       </c>
       <c r="J40" t="n" s="25">
-        <v>3.476212878469919E-12</v>
+        <v>7.198771244311359E-13</v>
       </c>
       <c r="K40" t="n" s="25">
-        <v>0.8493105854605634</v>
+        <v>0.8075730942909247</v>
       </c>
       <c r="L40" t="n" s="25">
-        <v>1.9627213916082556E-7</v>
+        <v>3.984387071074932E-8</v>
       </c>
       <c r="M40" t="n" s="25">
-        <v>7.261544626463818E-38</v>
+        <v>7.873044029974049E-39</v>
       </c>
       <c r="N40" t="n" s="25">
         <v>0.5</v>
@@ -1952,31 +1952,31 @@
         <v>39.0</v>
       </c>
       <c r="E41" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F41" t="n" s="25">
-        <v>0.9999866121484826</v>
+        <v>0.9999485712193302</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>0.9999999987621196</v>
+        <v>0.9999999532860384</v>
       </c>
       <c r="H41" t="n" s="25">
-        <v>0.9999659368345347</v>
+        <v>0.9998932120370034</v>
       </c>
       <c r="I41" t="n" s="25">
-        <v>0.999999999999573</v>
+        <v>0.9999999999406745</v>
       </c>
       <c r="J41" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999972954</v>
       </c>
       <c r="K41" t="n" s="25">
-        <v>0.9999994278489777</v>
+        <v>0.9999925465523909</v>
       </c>
       <c r="L41" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999987029065</v>
       </c>
       <c r="M41" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999999739684404</v>
       </c>
       <c r="N41" t="n" s="25">
         <v>0.5</v>
@@ -1987,31 +1987,31 @@
         <v>40.0</v>
       </c>
       <c r="E42" t="n" s="25">
-        <v>0.7615850757590413</v>
+        <v>0.7428846044097607</v>
       </c>
       <c r="F42" t="n" s="25">
-        <v>0.10113948525936915</v>
+        <v>0.08412504867907002</v>
       </c>
       <c r="G42" t="n" s="25">
-        <v>7.107617348924314E-4</v>
+        <v>3.413548727509122E-4</v>
       </c>
       <c r="H42" t="n" s="25">
-        <v>0.0850011765623238</v>
+        <v>0.07200541293669065</v>
       </c>
       <c r="I42" t="n" s="25">
-        <v>1.8033128666795828E-6</v>
+        <v>7.559685087682084E-7</v>
       </c>
       <c r="J42" t="n" s="25">
-        <v>3.34950693638483E-20</v>
+        <v>5.528884887846695E-21</v>
       </c>
       <c r="K42" t="n" s="25">
-        <v>3.118114002136432E-5</v>
+        <v>2.49400521539926E-5</v>
       </c>
       <c r="L42" t="n" s="25">
-        <v>5.21928487260433E-22</v>
+        <v>2.070412462361927E-22</v>
       </c>
       <c r="M42" t="n" s="25">
-        <v>1.121735973981497E-53</v>
+        <v>1.8561492702554322E-54</v>
       </c>
       <c r="N42" t="n" s="25">
         <v>0.5</v>
@@ -2022,31 +2022,31 @@
         <v>41.0</v>
       </c>
       <c r="E43" t="n" s="25">
-        <v>0.999006305936356</v>
+        <v>0.9987237929506684</v>
       </c>
       <c r="F43" t="n" s="25">
-        <v>0.9576767689906205</v>
+        <v>0.9319737001497843</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>0.13086264263775027</v>
+        <v>0.09885133434715776</v>
       </c>
       <c r="H43" t="n" s="25">
-        <v>0.9927763656290799</v>
+        <v>0.986884132703757</v>
       </c>
       <c r="I43" t="n" s="25">
-        <v>0.9532176085820759</v>
+        <v>0.888102607536917</v>
       </c>
       <c r="J43" t="n" s="25">
-        <v>2.73171090239185E-8</v>
+        <v>5.7048944540549724E-9</v>
       </c>
       <c r="K43" t="n" s="25">
-        <v>0.889977094332537</v>
+        <v>0.8514334284614669</v>
       </c>
       <c r="L43" t="n" s="25">
-        <v>1.857345239153092E-6</v>
+        <v>5.907327622391935E-7</v>
       </c>
       <c r="M43" t="n" s="25">
-        <v>1.5284192415899508E-34</v>
+        <v>2.1850284807679114E-35</v>
       </c>
       <c r="N43" t="n" s="25">
         <v>0.5</v>
@@ -2057,31 +2057,31 @@
         <v>42.0</v>
       </c>
       <c r="E44" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F44" t="n" s="25">
-        <v>0.9439814381568089</v>
+        <v>0.9154776277657815</v>
       </c>
       <c r="G44" t="n" s="25">
-        <v>0.15700845696071744</v>
+        <v>0.104103473242626</v>
       </c>
       <c r="H44" t="n" s="25">
-        <v>0.9836875112577306</v>
+        <v>0.9741918699523779</v>
       </c>
       <c r="I44" t="n" s="25">
-        <v>0.8980777639408846</v>
+        <v>0.7763702875656608</v>
       </c>
       <c r="J44" t="n" s="25">
-        <v>1.13458042525168E-7</v>
+        <v>1.3151882963444533E-8</v>
       </c>
       <c r="K44" t="n" s="25">
-        <v>0.8660768779164872</v>
+        <v>0.8260258242350889</v>
       </c>
       <c r="L44" t="n" s="25">
-        <v>3.072451747887432E-5</v>
+        <v>5.931470689211293E-6</v>
       </c>
       <c r="M44" t="n" s="25">
-        <v>2.1335131130027344E-30</v>
+        <v>1.2893008474600438E-31</v>
       </c>
       <c r="N44" t="n" s="25">
         <v>0.5</v>
@@ -2092,31 +2092,31 @@
         <v>43.0</v>
       </c>
       <c r="E45" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9988024893306368</v>
       </c>
       <c r="F45" t="n" s="25">
-        <v>0.9810858555481092</v>
+        <v>0.9652100634835354</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>0.24601142606806406</v>
+        <v>0.18893338268698057</v>
       </c>
       <c r="H45" t="n" s="25">
-        <v>0.9950814895289244</v>
+        <v>0.9905265371805991</v>
       </c>
       <c r="I45" t="n" s="25">
-        <v>0.9832626213731477</v>
+        <v>0.9546187021213274</v>
       </c>
       <c r="J45" t="n" s="25">
-        <v>3.9854147252889284E-7</v>
+        <v>8.128552211974683E-8</v>
       </c>
       <c r="K45" t="n" s="25">
-        <v>0.8813222180208912</v>
+        <v>0.8442907767012655</v>
       </c>
       <c r="L45" t="n" s="25">
-        <v>1.1466677666372354E-4</v>
+        <v>2.3476602571354914E-5</v>
       </c>
       <c r="M45" t="n" s="25">
-        <v>4.384460207367395E-31</v>
+        <v>3.84498492215904E-32</v>
       </c>
       <c r="N45" t="n" s="25">
         <v>0.5</v>
@@ -2127,31 +2127,31 @@
         <v>45.0</v>
       </c>
       <c r="E46" t="n" s="25">
-        <v>0.5825967006375604</v>
+        <v>0.5743563598392081</v>
       </c>
       <c r="F46" t="n" s="25">
-        <v>0.0012288133025817065</v>
+        <v>0.0010714789974375885</v>
       </c>
       <c r="G46" t="n" s="25">
-        <v>1.7013998220604048E-12</v>
+        <v>1.1958369259375086E-12</v>
       </c>
       <c r="H46" t="n" s="25">
-        <v>6.895480552771871E-4</v>
+        <v>6.407324854748146E-4</v>
       </c>
       <c r="I46" t="n" s="25">
-        <v>6.206338205636857E-19</v>
+        <v>4.449432883959748E-19</v>
       </c>
       <c r="J46" t="n" s="25">
-        <v>2.7496353285099376E-49</v>
+        <v>1.59463865381159E-49</v>
       </c>
       <c r="K46" t="n" s="25">
-        <v>1.6026776057873426E-10</v>
+        <v>1.445776226150129E-10</v>
       </c>
       <c r="L46" t="n" s="25">
-        <v>2.1007579836039155E-44</v>
+        <v>1.5055411581355326E-44</v>
       </c>
       <c r="M46" t="n" s="25">
-        <v>4.7521354302334254E-95</v>
+        <v>2.764812584014E-95</v>
       </c>
       <c r="N46" t="n" s="25">
         <v>0.5</v>
@@ -2162,31 +2162,31 @@
         <v>46.0</v>
       </c>
       <c r="E47" t="n" s="25">
-        <v>0.852288690535177</v>
+        <v>0.834525872534576</v>
       </c>
       <c r="F47" t="n" s="25">
-        <v>0.18772624292656712</v>
+        <v>0.15827777607815766</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>5.49185166983688E-4</v>
+        <v>2.2498414523905566E-4</v>
       </c>
       <c r="H47" t="n" s="25">
-        <v>0.1458037799758463</v>
+        <v>0.12560535994707384</v>
       </c>
       <c r="I47" t="n" s="25">
-        <v>1.4925993507164658E-7</v>
+        <v>7.881006393577734E-8</v>
       </c>
       <c r="J47" t="n" s="25">
-        <v>1.1882299935719774E-23</v>
+        <v>2.0633765711419873E-24</v>
       </c>
       <c r="K47" t="n" s="25">
-        <v>1.7466472156874076E-4</v>
+        <v>1.2149433098930877E-4</v>
       </c>
       <c r="L47" t="n" s="25">
-        <v>9.753248493557808E-24</v>
+        <v>4.1418132692051514E-24</v>
       </c>
       <c r="M47" t="n" s="25">
-        <v>1.3423374759254552E-56</v>
+        <v>2.1868731207460094E-57</v>
       </c>
       <c r="N47" t="n" s="25">
         <v>0.5</v>
@@ -2197,31 +2197,31 @@
         <v>47.0</v>
       </c>
       <c r="E48" t="n" s="25">
-        <v>0.6853705750715989</v>
+        <v>0.6703538715548021</v>
       </c>
       <c r="F48" t="n" s="25">
-        <v>0.04566793876626741</v>
+        <v>0.0387174161107925</v>
       </c>
       <c r="G48" t="n" s="25">
-        <v>1.94862807915544E-4</v>
+        <v>9.936006520064528E-5</v>
       </c>
       <c r="H48" t="n" s="25">
-        <v>0.04561282882394601</v>
+        <v>0.03868159978130373</v>
       </c>
       <c r="I48" t="n" s="25">
-        <v>1.3104507840047902E-7</v>
+        <v>5.764686758880369E-8</v>
       </c>
       <c r="J48" t="n" s="25">
-        <v>2.271048997650491E-21</v>
+        <v>4.1642918490064476E-22</v>
       </c>
       <c r="K48" t="n" s="25">
-        <v>3.6723588261288262E-6</v>
+        <v>2.9609157035347736E-6</v>
       </c>
       <c r="L48" t="n" s="25">
-        <v>4.8464849813789295E-24</v>
+        <v>2.044788431663006E-24</v>
       </c>
       <c r="M48" t="n" s="25">
-        <v>4.7349917575790704E-55</v>
+        <v>8.713909463003155E-56</v>
       </c>
       <c r="N48" t="n" s="25">
         <v>0.5</v>
@@ -2232,31 +2232,31 @@
         <v>49.0</v>
       </c>
       <c r="E49" t="n" s="25">
-        <v>0.9987654520600814</v>
+        <v>0.9984540813360937</v>
       </c>
       <c r="F49" t="n" s="25">
-        <v>0.8983448208260167</v>
+        <v>0.8702291546722154</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>0.011290859431024298</v>
+        <v>0.008087116318086403</v>
       </c>
       <c r="H49" t="n" s="25">
-        <v>0.9307584856780335</v>
+        <v>0.9173584456127691</v>
       </c>
       <c r="I49" t="n" s="25">
-        <v>0.21663743709526972</v>
+        <v>0.11936176111060826</v>
       </c>
       <c r="J49" t="n" s="25">
-        <v>4.013833580737733E-14</v>
+        <v>9.630996743212197E-15</v>
       </c>
       <c r="K49" t="n" s="25">
-        <v>0.652306255731659</v>
+        <v>0.6279026888706648</v>
       </c>
       <c r="L49" t="n" s="25">
-        <v>5.437792347466324E-10</v>
+        <v>2.3273407223986716E-10</v>
       </c>
       <c r="M49" t="n" s="25">
-        <v>6.452374430176985E-43</v>
+        <v>1.5143451474057516E-43</v>
       </c>
       <c r="N49" t="n" s="25">
         <v>0.5</v>
@@ -2267,31 +2267,31 @@
         <v>50.0</v>
       </c>
       <c r="E50" t="n" s="25">
-        <v>0.8500986151475927</v>
+        <v>0.8353272186334045</v>
       </c>
       <c r="F50" t="n" s="25">
-        <v>0.19669251020622816</v>
+        <v>0.16881725163126704</v>
       </c>
       <c r="G50" t="n" s="25">
-        <v>2.2858615414079994E-5</v>
+        <v>1.6311255026393948E-5</v>
       </c>
       <c r="H50" t="n" s="25">
-        <v>0.10971293329950056</v>
+        <v>0.09965676468351936</v>
       </c>
       <c r="I50" t="n" s="25">
-        <v>3.161710058599298E-6</v>
+        <v>1.632215146131966E-6</v>
       </c>
       <c r="J50" t="n" s="25">
-        <v>1.1135406103047937E-23</v>
+        <v>3.317041559000409E-24</v>
       </c>
       <c r="K50" t="n" s="25">
-        <v>9.752668013316614E-4</v>
+        <v>8.584721849915387E-4</v>
       </c>
       <c r="L50" t="n" s="25">
-        <v>1.7637965076207936E-20</v>
+        <v>8.821239183018452E-21</v>
       </c>
       <c r="M50" t="n" s="25">
-        <v>5.829589821522494E-57</v>
+        <v>1.733360601136717E-57</v>
       </c>
       <c r="N50" t="n" s="25">
         <v>0.5</v>
@@ -2302,31 +2302,31 @@
         <v>51.0</v>
       </c>
       <c r="E51" t="n" s="25">
-        <v>0.2882627855115602</v>
+        <v>0.28201827225699266</v>
       </c>
       <c r="F51" t="n" s="25">
-        <v>5.209876489757429E-4</v>
+        <v>4.5618120361561683E-4</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>5.44204949390989E-8</v>
+        <v>2.0082278105583464E-8</v>
       </c>
       <c r="H51" t="n" s="25">
-        <v>5.209846572908317E-4</v>
+        <v>4.561793814403069E-4</v>
       </c>
       <c r="I51" t="n" s="25">
-        <v>6.409424180301219E-20</v>
+        <v>4.719678224454052E-20</v>
       </c>
       <c r="J51" t="n" s="25">
-        <v>2.7956813586418178E-42</v>
+        <v>9.00584428632497E-43</v>
       </c>
       <c r="K51" t="n" s="25">
-        <v>3.864539082047357E-14</v>
+        <v>3.2829617051158864E-14</v>
       </c>
       <c r="L51" t="n" s="25">
-        <v>8.572727088116605E-49</v>
+        <v>6.2429110108720345E-49</v>
       </c>
       <c r="M51" t="n" s="25">
-        <v>2.4987425982977394E-84</v>
+        <v>8.884076327942722E-85</v>
       </c>
       <c r="N51" t="n" s="25">
         <v>0.5</v>
@@ -2337,31 +2337,31 @@
         <v>52.0</v>
       </c>
       <c r="E52" t="n" s="25">
-        <v>0.9990073756964236</v>
+        <v>0.9987250006289774</v>
       </c>
       <c r="F52" t="n" s="25">
-        <v>0.9399809940375758</v>
+        <v>0.9108378459675325</v>
       </c>
       <c r="G52" t="n" s="25">
-        <v>0.06760485684941663</v>
+        <v>0.04921763262665359</v>
       </c>
       <c r="H52" t="n" s="25">
-        <v>0.976332310092944</v>
+        <v>0.9647889418322178</v>
       </c>
       <c r="I52" t="n" s="25">
-        <v>0.8903429888887523</v>
+        <v>0.7598691020433107</v>
       </c>
       <c r="J52" t="n" s="25">
-        <v>3.9779241902467383E-10</v>
+        <v>7.706453698627562E-11</v>
       </c>
       <c r="K52" t="n" s="25">
-        <v>0.7338953988795989</v>
+        <v>0.703824090141066</v>
       </c>
       <c r="L52" t="n" s="25">
-        <v>1.5130911810335925E-7</v>
+        <v>5.1741353003986564E-8</v>
       </c>
       <c r="M52" t="n" s="25">
-        <v>9.006738616644905E-38</v>
+        <v>1.509501970732256E-38</v>
       </c>
       <c r="N52" t="n" s="25">
         <v>0.5</v>
@@ -2372,31 +2372,31 @@
         <v>53.0</v>
       </c>
       <c r="E53" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9990766231441008</v>
       </c>
       <c r="F53" t="n" s="25">
-        <v>0.9999827953445111</v>
+        <v>0.9999401510034661</v>
       </c>
       <c r="G53" t="n" s="25">
-        <v>0.9999364654944327</v>
+        <v>0.999211953659387</v>
       </c>
       <c r="H53" t="n" s="25">
-        <v>0.9998717594429295</v>
+        <v>0.9996307085777077</v>
       </c>
       <c r="I53" t="n" s="25">
-        <v>0.9999910560071051</v>
+        <v>0.9998044781197172</v>
       </c>
       <c r="J53" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9996134306102589</v>
       </c>
       <c r="K53" t="n" s="25">
-        <v>0.9833753180847122</v>
+        <v>0.9499839312734816</v>
       </c>
       <c r="L53" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9698374943129512</v>
       </c>
       <c r="M53" t="n" s="25">
-        <v>1.0</v>
+        <v>3.1092069441893995E-6</v>
       </c>
       <c r="N53" t="n" s="25">
         <v>0.5</v>
@@ -2407,31 +2407,31 @@
         <v>54.0</v>
       </c>
       <c r="E54" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9990766231441008</v>
       </c>
       <c r="F54" t="n" s="25">
-        <v>0.9999936600525205</v>
+        <v>0.999978181552425</v>
       </c>
       <c r="G54" t="n" s="25">
-        <v>0.99999867490031</v>
+        <v>0.9999814688211498</v>
       </c>
       <c r="H54" t="n" s="25">
-        <v>0.9999883603959002</v>
+        <v>0.9999626294333114</v>
       </c>
       <c r="I54" t="n" s="25">
-        <v>0.9999999994020954</v>
+        <v>0.9999999564784785</v>
       </c>
       <c r="J54" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999973173552216</v>
       </c>
       <c r="K54" t="n" s="25">
-        <v>0.999952927336288</v>
+        <v>0.9995910626384662</v>
       </c>
       <c r="L54" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999909159166538</v>
       </c>
       <c r="M54" t="n" s="25">
-        <v>1.0</v>
+        <v>0.8662586315749555</v>
       </c>
       <c r="N54" t="n" s="25">
         <v>0.5</v>
@@ -2442,31 +2442,31 @@
         <v>55.0</v>
       </c>
       <c r="E55" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F55" t="n" s="25">
-        <v>0.9998007380944234</v>
+        <v>0.9994864264738523</v>
       </c>
       <c r="G55" t="n" s="25">
-        <v>0.9224148947433747</v>
+        <v>0.8812319271976262</v>
       </c>
       <c r="H55" t="n" s="25">
-        <v>0.999919287680545</v>
+        <v>0.9997787904863876</v>
       </c>
       <c r="I55" t="n" s="25">
-        <v>0.9996668041500031</v>
+        <v>0.9987661781226269</v>
       </c>
       <c r="J55" t="n" s="25">
-        <v>0.641606968771728</v>
+        <v>0.20999341344237607</v>
       </c>
       <c r="K55" t="n" s="25">
-        <v>0.9844909292284908</v>
+        <v>0.968155653424629</v>
       </c>
       <c r="L55" t="n" s="25">
-        <v>0.9854879932509297</v>
+        <v>0.8349741740788507</v>
       </c>
       <c r="M55" t="n" s="25">
-        <v>1.1502840223021237E-13</v>
+        <v>1.7538907272211056E-15</v>
       </c>
       <c r="N55" t="n" s="25">
         <v>0.5</v>
@@ -2477,31 +2477,31 @@
         <v>56.0</v>
       </c>
       <c r="E56" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F56" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999966568747249</v>
       </c>
       <c r="G56" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>0.9999999999610925</v>
       </c>
       <c r="H56" t="n" s="25">
-        <v>0.9999744279750036</v>
+        <v>0.9999260358356878</v>
       </c>
       <c r="I56" t="n" s="25">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999997267</v>
       </c>
       <c r="J56" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K56" t="n" s="25">
-        <v>0.9999987328523009</v>
+        <v>0.999989874084595</v>
       </c>
       <c r="L56" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999991527</v>
       </c>
       <c r="M56" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999088022</v>
       </c>
       <c r="N56" t="n" s="25">
         <v>0.5</v>
@@ -2512,31 +2512,31 @@
         <v>57.0</v>
       </c>
       <c r="E57" t="n" s="25">
-        <v>0.9992488414630909</v>
+        <v>0.9990041798783298</v>
       </c>
       <c r="F57" t="n" s="25">
-        <v>0.9997685417919141</v>
+        <v>0.9993397886914228</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>0.9748531198585203</v>
+        <v>0.9445782690689154</v>
       </c>
       <c r="H57" t="n" s="25">
-        <v>0.9997831729327564</v>
+        <v>0.9994564549662047</v>
       </c>
       <c r="I57" t="n" s="25">
-        <v>0.9995447572708445</v>
+        <v>0.9982747206384762</v>
       </c>
       <c r="J57" t="n" s="25">
-        <v>0.9934884952557151</v>
+        <v>0.8860540971380785</v>
       </c>
       <c r="K57" t="n" s="25">
-        <v>0.9151491758886678</v>
+        <v>0.8825500116567505</v>
       </c>
       <c r="L57" t="n" s="25">
-        <v>0.4273539190241322</v>
+        <v>0.13684781141892532</v>
       </c>
       <c r="M57" t="n" s="25">
-        <v>1.692933039143313E-13</v>
+        <v>2.7151643358002017E-15</v>
       </c>
       <c r="N57" t="n" s="25">
         <v>0.5</v>
@@ -2547,31 +2547,31 @@
         <v>58.0</v>
       </c>
       <c r="E58" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F58" t="n" s="25">
-        <v>0.9999981652120649</v>
+        <v>0.9999922256613836</v>
       </c>
       <c r="G58" t="n" s="25">
-        <v>0.9999999995758917</v>
+        <v>0.9999999734167588</v>
       </c>
       <c r="H58" t="n" s="25">
-        <v>0.9993744113189219</v>
+        <v>0.9988165983446476</v>
       </c>
       <c r="I58" t="n" s="25">
-        <v>0.9999999951354414</v>
+        <v>0.9999998508171132</v>
       </c>
       <c r="J58" t="n" s="25">
-        <v>0.9999999995857503</v>
+        <v>0.9999999247156488</v>
       </c>
       <c r="K58" t="n" s="25">
-        <v>0.9804205571019377</v>
+        <v>0.9675467946773469</v>
       </c>
       <c r="L58" t="n" s="25">
-        <v>0.9918645376684081</v>
+        <v>0.9830768206113363</v>
       </c>
       <c r="M58" t="n" s="25">
-        <v>0.44683149221674895</v>
+        <v>0.025032081732726877</v>
       </c>
       <c r="N58" t="n" s="25">
         <v>0.5</v>
@@ -2582,31 +2582,31 @@
         <v>59.0</v>
       </c>
       <c r="E59" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9988024893306368</v>
       </c>
       <c r="F59" t="n" s="25">
-        <v>0.9988790077598008</v>
+        <v>0.9965313004184085</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>0.999796995679348</v>
+        <v>0.9962414064580304</v>
       </c>
       <c r="H59" t="n" s="25">
-        <v>0.9975019536322183</v>
+        <v>0.9949284485654089</v>
       </c>
       <c r="I59" t="n" s="25">
-        <v>0.9996570117348362</v>
+        <v>0.9951148262678969</v>
       </c>
       <c r="J59" t="n" s="25">
-        <v>0.9999969766519622</v>
+        <v>0.9996537093481339</v>
       </c>
       <c r="K59" t="n" s="25">
-        <v>0.9019341658613231</v>
+        <v>0.859249585710112</v>
       </c>
       <c r="L59" t="n" s="25">
-        <v>0.8394330623753135</v>
+        <v>0.5381819741276499</v>
       </c>
       <c r="M59" t="n" s="25">
-        <v>4.148562433703532E-6</v>
+        <v>4.6308519465295E-8</v>
       </c>
       <c r="N59" t="n" s="25">
         <v>0.5</v>
@@ -2617,31 +2617,31 @@
         <v>60.0</v>
       </c>
       <c r="E60" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F60" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999966568747249</v>
       </c>
       <c r="G60" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>0.9999999999610925</v>
       </c>
       <c r="H60" t="n" s="25">
-        <v>0.9999209791348291</v>
+        <v>0.9998062975446276</v>
       </c>
       <c r="I60" t="n" s="25">
-        <v>0.9999999999999412</v>
+        <v>0.9999999999941577</v>
       </c>
       <c r="J60" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999979409</v>
       </c>
       <c r="K60" t="n" s="25">
-        <v>0.9993850664496642</v>
+        <v>0.9982378246205363</v>
       </c>
       <c r="L60" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999907578612198</v>
       </c>
       <c r="M60" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9998536027172079</v>
       </c>
       <c r="N60" t="n" s="25">
         <v>0.5</v>
@@ -2652,31 +2652,31 @@
         <v>61.0</v>
       </c>
       <c r="E61" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F61" t="n" s="25">
-        <v>0.9999514996552895</v>
+        <v>0.9998453606824725</v>
       </c>
       <c r="G61" t="n" s="25">
-        <v>0.9999948809293138</v>
+        <v>0.9999340522730557</v>
       </c>
       <c r="H61" t="n" s="25">
-        <v>0.999919287680545</v>
+        <v>0.9997787904863876</v>
       </c>
       <c r="I61" t="n" s="25">
-        <v>0.9999999884542137</v>
+        <v>0.999999464528437</v>
       </c>
       <c r="J61" t="n" s="25">
-        <v>0.9999998845609451</v>
+        <v>0.9999943983272631</v>
       </c>
       <c r="K61" t="n" s="25">
-        <v>0.9996802976111755</v>
+        <v>0.9981911183600067</v>
       </c>
       <c r="L61" t="n" s="25">
-        <v>0.9999631903679704</v>
+        <v>0.9995061445603606</v>
       </c>
       <c r="M61" t="n" s="25">
-        <v>0.13427694845683455</v>
+        <v>0.0040452265586101354</v>
       </c>
       <c r="N61" t="n" s="25">
         <v>0.5</v>
@@ -2687,31 +2687,31 @@
         <v>62.0</v>
       </c>
       <c r="E62" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F62" t="n" s="25">
-        <v>0.999994791587739</v>
+        <v>0.9999810332769418</v>
       </c>
       <c r="G62" t="n" s="25">
-        <v>0.9999989172418282</v>
+        <v>0.999977832599829</v>
       </c>
       <c r="H62" t="n" s="25">
-        <v>0.9999634386555672</v>
+        <v>0.9998993539645364</v>
       </c>
       <c r="I62" t="n" s="25">
-        <v>0.999999979338035</v>
+        <v>0.999998911834405</v>
       </c>
       <c r="J62" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999916506443198</v>
       </c>
       <c r="K62" t="n" s="25">
-        <v>0.9990674936986128</v>
+        <v>0.9950728474582342</v>
       </c>
       <c r="L62" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9985690149605223</v>
       </c>
       <c r="M62" t="n" s="25">
-        <v>1.0</v>
+        <v>0.005955730506568434</v>
       </c>
       <c r="N62" t="n" s="25">
         <v>0.5</v>
@@ -2722,31 +2722,31 @@
         <v>63.0</v>
       </c>
       <c r="E63" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F63" t="n" s="25">
-        <v>0.9999809481281149</v>
+        <v>0.9999295293926682</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>0.9999998688465175</v>
+        <v>0.9999960483586743</v>
       </c>
       <c r="H63" t="n" s="25">
-        <v>0.9998807063141945</v>
+        <v>0.9996916364234476</v>
       </c>
       <c r="I63" t="n" s="25">
-        <v>0.9999999867296046</v>
+        <v>0.9999992876795968</v>
       </c>
       <c r="J63" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999996340201479</v>
       </c>
       <c r="K63" t="n" s="25">
-        <v>0.9946065349453047</v>
+        <v>0.9816218327420864</v>
       </c>
       <c r="L63" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9927836251195782</v>
       </c>
       <c r="M63" t="n" s="25">
-        <v>1.0</v>
+        <v>0.03519228721478584</v>
       </c>
       <c r="N63" t="n" s="25">
         <v>0.5</v>
@@ -2757,31 +2757,31 @@
         <v>64.0</v>
       </c>
       <c r="E64" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9988024893306368</v>
       </c>
       <c r="F64" t="n" s="25">
-        <v>0.9999986664649917</v>
+        <v>0.9999941251072504</v>
       </c>
       <c r="G64" t="n" s="25">
-        <v>0.999999999959948</v>
+        <v>0.9999999969808784</v>
       </c>
       <c r="H64" t="n" s="25">
-        <v>0.9998322282003985</v>
+        <v>0.9996183567965429</v>
       </c>
       <c r="I64" t="n" s="25">
-        <v>0.9999999999861159</v>
+        <v>0.9999999990878167</v>
       </c>
       <c r="J64" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999991147885</v>
       </c>
       <c r="K64" t="n" s="25">
-        <v>0.9998161185504492</v>
+        <v>0.9993037358816126</v>
       </c>
       <c r="L64" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999949951970038</v>
       </c>
       <c r="M64" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9997064378809413</v>
       </c>
       <c r="N64" t="n" s="25">
         <v>0.5</v>
@@ -2792,31 +2792,31 @@
         <v>65.0</v>
       </c>
       <c r="E65" t="n" s="25">
-        <v>0.9991384966975401</v>
+        <v>0.9988765507028821</v>
       </c>
       <c r="F65" t="n" s="25">
-        <v>0.9999492529692122</v>
+        <v>0.9998347161873221</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>0.9999968520250963</v>
+        <v>0.9999354915532783</v>
       </c>
       <c r="H65" t="n" s="25">
-        <v>0.9999246801859794</v>
+        <v>0.9997894942637214</v>
       </c>
       <c r="I65" t="n" s="25">
-        <v>0.9999996395454436</v>
+        <v>0.9999851985382222</v>
       </c>
       <c r="J65" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999924173279517</v>
       </c>
       <c r="K65" t="n" s="25">
-        <v>0.9986320290636603</v>
+        <v>0.9930907697043937</v>
       </c>
       <c r="L65" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9940272769267517</v>
       </c>
       <c r="M65" t="n" s="25">
-        <v>1.0</v>
+        <v>0.04711292441853163</v>
       </c>
       <c r="N65" t="n" s="25">
         <v>0.5</v>
@@ -2827,31 +2827,31 @@
         <v>66.0</v>
       </c>
       <c r="E66" t="n" s="25">
-        <v>0.987863816656439</v>
+        <v>0.9852287292977128</v>
       </c>
       <c r="F66" t="n" s="25">
-        <v>0.6780030012415458</v>
+        <v>0.623062245226035</v>
       </c>
       <c r="G66" t="n" s="25">
-        <v>0.00501335539017693</v>
+        <v>0.0031227648565544906</v>
       </c>
       <c r="H66" t="n" s="25">
-        <v>0.5172128488402249</v>
+        <v>0.48162719550222344</v>
       </c>
       <c r="I66" t="n" s="25">
-        <v>0.010841615567494897</v>
+        <v>0.0051935826661157255</v>
       </c>
       <c r="J66" t="n" s="25">
-        <v>6.403447438979856E-15</v>
+        <v>9.524009179365563E-16</v>
       </c>
       <c r="K66" t="n" s="25">
-        <v>0.10204939668665697</v>
+        <v>0.09128266080738145</v>
       </c>
       <c r="L66" t="n" s="25">
-        <v>1.1780146133478306E-12</v>
+        <v>5.000685252873874E-13</v>
       </c>
       <c r="M66" t="n" s="25">
-        <v>9.723919110083518E-43</v>
+        <v>1.5216933357826885E-43</v>
       </c>
       <c r="N66" t="n" s="25">
         <v>0.5</v>
@@ -2862,31 +2862,31 @@
         <v>67.0</v>
       </c>
       <c r="E67" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F67" t="n" s="25">
-        <v>0.9996535416535808</v>
+        <v>0.9991786068133305</v>
       </c>
       <c r="G67" t="n" s="25">
-        <v>0.7024552726329008</v>
+        <v>0.6552375748409738</v>
       </c>
       <c r="H67" t="n" s="25">
-        <v>0.9999614742744677</v>
+        <v>0.9998826379713865</v>
       </c>
       <c r="I67" t="n" s="25">
-        <v>0.9997637676789621</v>
+        <v>0.9988639206407889</v>
       </c>
       <c r="J67" t="n" s="25">
-        <v>0.0067971222466370294</v>
+        <v>0.0025360649380194475</v>
       </c>
       <c r="K67" t="n" s="25">
-        <v>0.9979192652488539</v>
+        <v>0.9924975187965156</v>
       </c>
       <c r="L67" t="n" s="25">
-        <v>0.9996558290240879</v>
+        <v>0.9875476485844393</v>
       </c>
       <c r="M67" t="n" s="25">
-        <v>4.823955781714656E-15</v>
+        <v>6.908440092514735E-17</v>
       </c>
       <c r="N67" t="n" s="25">
         <v>0.5</v>
@@ -2897,31 +2897,31 @@
         <v>68.0</v>
       </c>
       <c r="E68" t="n" s="25">
-        <v>0.9990739168110178</v>
+        <v>0.9988017943098251</v>
       </c>
       <c r="F68" t="n" s="25">
-        <v>0.9986485615680448</v>
+        <v>0.9964143245241214</v>
       </c>
       <c r="G68" t="n" s="25">
-        <v>0.998497598568461</v>
+        <v>0.987026754183205</v>
       </c>
       <c r="H68" t="n" s="25">
-        <v>0.9993241597667982</v>
+        <v>0.9984111929208171</v>
       </c>
       <c r="I68" t="n" s="25">
-        <v>0.999577635108817</v>
+        <v>0.9956980581710327</v>
       </c>
       <c r="J68" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9988633694978665</v>
       </c>
       <c r="K68" t="n" s="25">
-        <v>0.9830151353096767</v>
+        <v>0.9651142789960027</v>
       </c>
       <c r="L68" t="n" s="25">
-        <v>1.0</v>
+        <v>0.815440379938834</v>
       </c>
       <c r="M68" t="n" s="25">
-        <v>1.0</v>
+        <v>1.5049974300120867E-6</v>
       </c>
       <c r="N68" t="n" s="25">
         <v>0.5</v>
@@ -2932,31 +2932,31 @@
         <v>69.0</v>
       </c>
       <c r="E69" t="n" s="25">
-        <v>0.857288604307878</v>
+        <v>0.8393400692058324</v>
       </c>
       <c r="F69" t="n" s="25">
-        <v>0.21023971237932426</v>
+        <v>0.1759764139219725</v>
       </c>
       <c r="G69" t="n" s="25">
-        <v>0.003456367110745484</v>
+        <v>0.0015362373416670627</v>
       </c>
       <c r="H69" t="n" s="25">
-        <v>0.15777797779971173</v>
+        <v>0.13535966985936004</v>
       </c>
       <c r="I69" t="n" s="25">
-        <v>6.81834203851803E-7</v>
+        <v>2.9352618704024226E-7</v>
       </c>
       <c r="J69" t="n" s="25">
-        <v>4.43307225113981E-22</v>
+        <v>6.851268567264324E-23</v>
       </c>
       <c r="K69" t="n" s="25">
-        <v>1.5245303784674667E-5</v>
+        <v>1.229790812626971E-5</v>
       </c>
       <c r="L69" t="n" s="25">
-        <v>3.149954108872318E-24</v>
+        <v>1.246050990916028E-24</v>
       </c>
       <c r="M69" t="n" s="25">
-        <v>3.542205550905562E-55</v>
+        <v>5.53634026689597E-56</v>
       </c>
       <c r="N69" t="n" s="25">
         <v>0.5</v>
@@ -2967,31 +2967,31 @@
         <v>70.0</v>
       </c>
       <c r="E70" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F70" t="n" s="25">
-        <v>0.9460462837663478</v>
+        <v>0.9176035494786698</v>
       </c>
       <c r="G70" t="n" s="25">
-        <v>0.29835030713849514</v>
+        <v>0.18807231043383965</v>
       </c>
       <c r="H70" t="n" s="25">
-        <v>0.9891148631934997</v>
+        <v>0.9815335342203776</v>
       </c>
       <c r="I70" t="n" s="25">
-        <v>0.8981104294839193</v>
+        <v>0.7763964023159632</v>
       </c>
       <c r="J70" t="n" s="25">
-        <v>2.0447315774484637E-5</v>
+        <v>1.389574646441715E-6</v>
       </c>
       <c r="K70" t="n" s="25">
-        <v>0.9401232461098255</v>
+        <v>0.9063292126507646</v>
       </c>
       <c r="L70" t="n" s="25">
-        <v>0.004963421363094724</v>
+        <v>5.184179529753717E-4</v>
       </c>
       <c r="M70" t="n" s="25">
-        <v>2.5406151664885096E-23</v>
+        <v>5.166397745033202E-25</v>
       </c>
       <c r="N70" t="n" s="25">
         <v>0.5</v>
@@ -3002,31 +3002,31 @@
         <v>71.0</v>
       </c>
       <c r="E71" t="n" s="25">
-        <v>0.08127374270277339</v>
+        <v>0.07900024355009898</v>
       </c>
       <c r="F71" t="n" s="25">
-        <v>0.004869244301800392</v>
+        <v>0.004068683231289598</v>
       </c>
       <c r="G71" t="n" s="25">
-        <v>7.012043216501096E-5</v>
+        <v>4.436160729483939E-5</v>
       </c>
       <c r="H71" t="n" s="25">
-        <v>0.004861434210622306</v>
+        <v>0.004062986142265618</v>
       </c>
       <c r="I71" t="n" s="25">
-        <v>4.2369542529474744E-7</v>
+        <v>1.5661543119139234E-7</v>
       </c>
       <c r="J71" t="n" s="25">
-        <v>1.2641237759468642E-16</v>
+        <v>2.4210283462771376E-17</v>
       </c>
       <c r="K71" t="n" s="25">
-        <v>2.7613288225810218E-5</v>
+        <v>1.415848520340253E-5</v>
       </c>
       <c r="L71" t="n" s="25">
-        <v>2.1106172710242275E-15</v>
+        <v>1.219683805800956E-16</v>
       </c>
       <c r="M71" t="n" s="25">
-        <v>7.070061179311512E-39</v>
+        <v>2.5359148318370736E-40</v>
       </c>
       <c r="N71" t="n" s="25">
         <v>0.5</v>
@@ -3037,31 +3037,31 @@
         <v>72.0</v>
       </c>
       <c r="E72" t="n" s="25">
-        <v>0.9889693696564325</v>
+        <v>0.9864134810558989</v>
       </c>
       <c r="F72" t="n" s="25">
-        <v>0.6889866610348987</v>
+        <v>0.6309955864313644</v>
       </c>
       <c r="G72" t="n" s="25">
-        <v>0.26100730577686265</v>
+        <v>0.11183084785394534</v>
       </c>
       <c r="H72" t="n" s="25">
-        <v>0.6144408452513583</v>
+        <v>0.564240199331764</v>
       </c>
       <c r="I72" t="n" s="25">
-        <v>0.05723059047459066</v>
+        <v>0.025083233993470292</v>
       </c>
       <c r="J72" t="n" s="25">
-        <v>2.5726607692474518E-5</v>
+        <v>3.723669886503748E-7</v>
       </c>
       <c r="K72" t="n" s="25">
-        <v>0.2562298528097373</v>
+        <v>0.1997153003594432</v>
       </c>
       <c r="L72" t="n" s="25">
-        <v>3.4947897300629204E-7</v>
+        <v>6.577205610620723E-8</v>
       </c>
       <c r="M72" t="n" s="25">
-        <v>7.07896826165851E-22</v>
+        <v>7.336798748936418E-24</v>
       </c>
       <c r="N72" t="n" s="25">
         <v>0.5</v>
@@ -3072,31 +3072,31 @@
         <v>73.0</v>
       </c>
       <c r="E73" t="n" s="25">
-        <v>0.9909409056580948</v>
+        <v>0.9885609250215225</v>
       </c>
       <c r="F73" t="n" s="25">
-        <v>0.6893314396618564</v>
+        <v>0.6327261791550085</v>
       </c>
       <c r="G73" t="n" s="25">
-        <v>0.03435659210687108</v>
+        <v>0.024505458595369855</v>
       </c>
       <c r="H73" t="n" s="25">
-        <v>0.6118851399169912</v>
+        <v>0.5605913063526525</v>
       </c>
       <c r="I73" t="n" s="25">
-        <v>0.10461911627174451</v>
+        <v>0.040029342786162006</v>
       </c>
       <c r="J73" t="n" s="25">
-        <v>1.0681485302547637E-14</v>
+        <v>2.7097947477854814E-15</v>
       </c>
       <c r="K73" t="n" s="25">
-        <v>0.02147935150111481</v>
+        <v>0.017757012887395396</v>
       </c>
       <c r="L73" t="n" s="25">
-        <v>7.890955815137945E-14</v>
+        <v>2.284559451044166E-14</v>
       </c>
       <c r="M73" t="n" s="25">
-        <v>1.3308299052652243E-46</v>
+        <v>2.8471626825845265E-47</v>
       </c>
       <c r="N73" t="n" s="25">
         <v>0.5</v>
@@ -3107,31 +3107,31 @@
         <v>74.0</v>
       </c>
       <c r="E74" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F74" t="n" s="25">
-        <v>0.9999981652120649</v>
+        <v>0.9999922256613836</v>
       </c>
       <c r="G74" t="n" s="25">
-        <v>0.9999999995758917</v>
+        <v>0.9999999734167588</v>
       </c>
       <c r="H74" t="n" s="25">
-        <v>0.9995759674880899</v>
+        <v>0.9991447677582072</v>
       </c>
       <c r="I74" t="n" s="25">
-        <v>0.9999999986610698</v>
+        <v>0.9999999471622083</v>
       </c>
       <c r="J74" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999250799776</v>
       </c>
       <c r="K74" t="n" s="25">
-        <v>0.997740328479794</v>
+        <v>0.9942033484144366</v>
       </c>
       <c r="L74" t="n" s="25">
-        <v>1.0</v>
+        <v>0.997481956502075</v>
       </c>
       <c r="M74" t="n" s="25">
-        <v>1.0</v>
+        <v>0.6732435320986974</v>
       </c>
       <c r="N74" t="n" s="25">
         <v>0.5</v>
@@ -3142,31 +3142,31 @@
         <v>75.0</v>
       </c>
       <c r="E75" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F75" t="n" s="25">
-        <v>0.9999293312809899</v>
+        <v>0.9997868415399952</v>
       </c>
       <c r="G75" t="n" s="25">
-        <v>0.9998450377698266</v>
+        <v>0.9986438608305072</v>
       </c>
       <c r="H75" t="n" s="25">
-        <v>0.9999435468012974</v>
+        <v>0.9998374292662725</v>
       </c>
       <c r="I75" t="n" s="25">
-        <v>0.999999811836745</v>
+        <v>0.9999920256140736</v>
       </c>
       <c r="J75" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9998606949693849</v>
       </c>
       <c r="K75" t="n" s="25">
-        <v>0.9998251984152177</v>
+        <v>0.9986817373623521</v>
       </c>
       <c r="L75" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9996776986555364</v>
       </c>
       <c r="M75" t="n" s="25">
-        <v>1.0</v>
+        <v>0.006883937842667006</v>
       </c>
       <c r="N75" t="n" s="25">
         <v>0.5</v>
@@ -3177,31 +3177,31 @@
         <v>76.0</v>
       </c>
       <c r="E76" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9988024893306368</v>
       </c>
       <c r="F76" t="n" s="25">
-        <v>0.9826216537898897</v>
+        <v>0.9673312168015141</v>
       </c>
       <c r="G76" t="n" s="25">
-        <v>0.42311545036740844</v>
+        <v>0.3155727545597389</v>
       </c>
       <c r="H76" t="n" s="25">
-        <v>0.9964104585967679</v>
+        <v>0.9927689424315335</v>
       </c>
       <c r="I76" t="n" s="25">
-        <v>0.9832650065379421</v>
+        <v>0.9546215046350779</v>
       </c>
       <c r="J76" t="n" s="25">
-        <v>1.0</v>
+        <v>4.16081614772279E-6</v>
       </c>
       <c r="K76" t="n" s="25">
-        <v>0.9434889654949449</v>
+        <v>0.9147708021929902</v>
       </c>
       <c r="L76" t="n" s="25">
-        <v>1.0</v>
+        <v>9.992222686046016E-4</v>
       </c>
       <c r="M76" t="n" s="25">
-        <v>1.0</v>
+        <v>4.318779468916009E-25</v>
       </c>
       <c r="N76" t="n" s="25">
         <v>0.5</v>
@@ -3212,31 +3212,31 @@
         <v>77.0</v>
       </c>
       <c r="E77" t="n" s="25">
-        <v>0.9892944798163523</v>
+        <v>0.9867618522360835</v>
       </c>
       <c r="F77" t="n" s="25">
-        <v>0.6775141859303936</v>
+        <v>0.6226872047794724</v>
       </c>
       <c r="G77" t="n" s="25">
-        <v>0.0033447005608139542</v>
+        <v>0.0023105380637928772</v>
       </c>
       <c r="H77" t="n" s="25">
-        <v>0.5294652643686812</v>
+        <v>0.488482029383375</v>
       </c>
       <c r="I77" t="n" s="25">
-        <v>0.005705215175073295</v>
+        <v>0.00255199761401136</v>
       </c>
       <c r="J77" t="n" s="25">
-        <v>7.483537915620657E-19</v>
+        <v>2.3701857169725516E-19</v>
       </c>
       <c r="K77" t="n" s="25">
-        <v>0.036312023993304604</v>
+        <v>0.031274128143945194</v>
       </c>
       <c r="L77" t="n" s="25">
-        <v>1.2133391533410356E-15</v>
+        <v>4.627976526143898E-16</v>
       </c>
       <c r="M77" t="n" s="25">
-        <v>4.615360360735812E-52</v>
+        <v>1.3218350299926233E-52</v>
       </c>
       <c r="N77" t="n" s="25">
         <v>0.5</v>
@@ -3247,31 +3247,31 @@
         <v>78.0</v>
       </c>
       <c r="E78" t="n" s="25">
-        <v>0.9987654520600814</v>
+        <v>0.9984540813360937</v>
       </c>
       <c r="F78" t="n" s="25">
-        <v>0.9997715537549691</v>
+        <v>0.9993110131394257</v>
       </c>
       <c r="G78" t="n" s="25">
-        <v>0.9992217052764925</v>
+        <v>0.9967141026317727</v>
       </c>
       <c r="H78" t="n" s="25">
-        <v>0.9929128379224529</v>
+        <v>0.9888956903558358</v>
       </c>
       <c r="I78" t="n" s="25">
-        <v>0.9801679226674843</v>
+        <v>0.9601607014143744</v>
       </c>
       <c r="J78" t="n" s="25">
-        <v>0.6376233022628182</v>
+        <v>0.11637231434980945</v>
       </c>
       <c r="K78" t="n" s="25">
-        <v>0.654422589599803</v>
+        <v>0.6295072759368852</v>
       </c>
       <c r="L78" t="n" s="25">
-        <v>0.02797954624641204</v>
+        <v>0.014919379438919075</v>
       </c>
       <c r="M78" t="n" s="25">
-        <v>1.3659996997507443E-16</v>
+        <v>6.308806363248298E-18</v>
       </c>
       <c r="N78" t="n" s="25">
         <v>0.5</v>
@@ -3282,31 +3282,31 @@
         <v>79.0</v>
       </c>
       <c r="E79" t="n" s="25">
-        <v>0.9991824003214459</v>
+        <v>0.9989262997466999</v>
       </c>
       <c r="F79" t="n" s="25">
-        <v>0.9944766855023411</v>
+        <v>0.9862766297425449</v>
       </c>
       <c r="G79" t="n" s="25">
-        <v>0.980242871999348</v>
+        <v>0.9454796263657579</v>
       </c>
       <c r="H79" t="n" s="25">
-        <v>0.985263336532908</v>
+        <v>0.9729066534544152</v>
       </c>
       <c r="I79" t="n" s="25">
-        <v>0.9808540447791779</v>
+        <v>0.9456505105615061</v>
       </c>
       <c r="J79" t="n" s="25">
-        <v>0.9254246162426071</v>
+        <v>0.21674589581370765</v>
       </c>
       <c r="K79" t="n" s="25">
-        <v>0.5379506748611051</v>
+        <v>0.49163254891674985</v>
       </c>
       <c r="L79" t="n" s="25">
-        <v>6.245299521519128E-4</v>
+        <v>1.98935353440972E-4</v>
       </c>
       <c r="M79" t="n" s="25">
-        <v>2.5583413570822093E-17</v>
+        <v>4.678196750452624E-19</v>
       </c>
       <c r="N79" t="n" s="25">
         <v>0.5</v>
@@ -3317,31 +3317,31 @@
         <v>80.0</v>
       </c>
       <c r="E80" t="n" s="25">
-        <v>0.9952910222995766</v>
+        <v>0.994060945465872</v>
       </c>
       <c r="F80" t="n" s="25">
-        <v>0.8487394507844647</v>
+        <v>0.7901870579364598</v>
       </c>
       <c r="G80" t="n" s="25">
-        <v>0.09270952351297695</v>
+        <v>0.06847970589696706</v>
       </c>
       <c r="H80" t="n" s="25">
-        <v>0.902092485997909</v>
+        <v>0.8561484908002142</v>
       </c>
       <c r="I80" t="n" s="25">
-        <v>0.8735212108376265</v>
+        <v>0.7107144023122066</v>
       </c>
       <c r="J80" t="n" s="25">
-        <v>8.474082729869633E-9</v>
+        <v>1.5681474540654403E-9</v>
       </c>
       <c r="K80" t="n" s="25">
-        <v>0.5564388794185607</v>
+        <v>0.47451412961514655</v>
       </c>
       <c r="L80" t="n" s="25">
-        <v>1.1415346329082678E-6</v>
+        <v>1.982547638937266E-7</v>
       </c>
       <c r="M80" t="n" s="25">
-        <v>4.922609772217173E-34</v>
+        <v>4.5240312470359353E-35</v>
       </c>
       <c r="N80" t="n" s="25">
         <v>0.5</v>
@@ -3352,31 +3352,31 @@
         <v>81.0</v>
       </c>
       <c r="E81" t="n" s="25">
-        <v>0.08035260961334564</v>
+        <v>0.0782552763619761</v>
       </c>
       <c r="F81" t="n" s="25">
-        <v>0.004095903684446027</v>
+        <v>0.0034893742981569704</v>
       </c>
       <c r="G81" t="n" s="25">
-        <v>4.2118729663470465E-4</v>
+        <v>1.531639429114768E-4</v>
       </c>
       <c r="H81" t="n" s="25">
-        <v>0.0040953102027770595</v>
+        <v>0.003490117563865086</v>
       </c>
       <c r="I81" t="n" s="25">
-        <v>2.994879705006327E-7</v>
+        <v>1.278114339338414E-7</v>
       </c>
       <c r="J81" t="n" s="25">
-        <v>1.0</v>
+        <v>5.954011603759667E-12</v>
       </c>
       <c r="K81" t="n" s="25">
-        <v>6.2416491454732E-5</v>
+        <v>3.821018353052388E-5</v>
       </c>
       <c r="L81" t="n" s="25">
-        <v>1.0</v>
+        <v>1.8414396459626717E-15</v>
       </c>
       <c r="M81" t="n" s="25">
-        <v>1.0</v>
+        <v>1.1593352637532862E-29</v>
       </c>
       <c r="N81" t="n" s="25">
         <v>0.5</v>
@@ -3387,31 +3387,31 @@
         <v>82.0</v>
       </c>
       <c r="E82" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F82" t="n" s="25">
-        <v>0.9438821658525599</v>
+        <v>0.9153813422940253</v>
       </c>
       <c r="G82" t="n" s="25">
-        <v>0.15494960091791873</v>
+        <v>0.10335505290155332</v>
       </c>
       <c r="H82" t="n" s="25">
-        <v>0.9765372268261889</v>
+        <v>0.9650587751889511</v>
       </c>
       <c r="I82" t="n" s="25">
-        <v>0.8980771916822218</v>
+        <v>0.7763697248304354</v>
       </c>
       <c r="J82" t="n" s="25">
-        <v>5.0327847210546497E-8</v>
+        <v>6.001329145169084E-9</v>
       </c>
       <c r="K82" t="n" s="25">
-        <v>0.7300875401694253</v>
+        <v>0.7003856667965955</v>
       </c>
       <c r="L82" t="n" s="25">
-        <v>1.167266573684311E-6</v>
+        <v>4.0693339791264925E-7</v>
       </c>
       <c r="M82" t="n" s="25">
-        <v>4.443211119983516E-33</v>
+        <v>4.91805446153247E-34</v>
       </c>
       <c r="N82" t="n" s="25">
         <v>0.5</v>
@@ -3422,31 +3422,31 @@
         <v>83.0</v>
       </c>
       <c r="E83" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F83" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9138689388043615</v>
       </c>
       <c r="G83" t="n" s="25">
-        <v>0.0754181349899714</v>
+        <v>0.055031273109482616</v>
       </c>
       <c r="H83" t="n" s="25">
-        <v>0.9765372268261889</v>
+        <v>0.9650587751889511</v>
       </c>
       <c r="I83" t="n" s="25">
-        <v>0.8980771127548363</v>
+        <v>0.7763696273114512</v>
       </c>
       <c r="J83" t="n" s="25">
-        <v>5.854038711249399E-10</v>
+        <v>1.1557836553859963E-10</v>
       </c>
       <c r="K83" t="n" s="25">
-        <v>0.7300873886108452</v>
+        <v>0.7003855584742733</v>
       </c>
       <c r="L83" t="n" s="25">
-        <v>1.7509015977300392E-7</v>
+        <v>6.104003080024046E-8</v>
       </c>
       <c r="M83" t="n" s="25">
-        <v>1.4658832734971673E-37</v>
+        <v>2.5072752572951195E-38</v>
       </c>
       <c r="N83" t="n" s="25">
         <v>0.5</v>
@@ -3457,31 +3457,31 @@
         <v>84.0</v>
       </c>
       <c r="E84" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9990766231441008</v>
       </c>
       <c r="F84" t="n" s="25">
-        <v>0.9999975898290161</v>
+        <v>0.9999903772870422</v>
       </c>
       <c r="G84" t="n" s="25">
-        <v>0.9999999634678386</v>
+        <v>0.999998782639589</v>
       </c>
       <c r="H84" t="n" s="25">
-        <v>0.9999752815281016</v>
+        <v>0.9999287684726809</v>
       </c>
       <c r="I84" t="n" s="25">
-        <v>0.9999999974569452</v>
+        <v>0.9999998361573075</v>
       </c>
       <c r="J84" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999997880140341</v>
       </c>
       <c r="K84" t="n" s="25">
-        <v>0.9938673165781534</v>
+        <v>0.9788620584865807</v>
       </c>
       <c r="L84" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9907700268821302</v>
       </c>
       <c r="M84" t="n" s="25">
-        <v>1.0</v>
+        <v>0.12878120276459648</v>
       </c>
       <c r="N84" t="n" s="25">
         <v>0.5</v>
@@ -3492,31 +3492,31 @@
         <v>85.0</v>
       </c>
       <c r="E85" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F85" t="n" s="25">
-        <v>0.9999981652120649</v>
+        <v>0.9999922256613836</v>
       </c>
       <c r="G85" t="n" s="25">
-        <v>0.9999999995758917</v>
+        <v>0.9999999734167588</v>
       </c>
       <c r="H85" t="n" s="25">
-        <v>0.9997133626502709</v>
+        <v>0.999384719134074</v>
       </c>
       <c r="I85" t="n" s="25">
-        <v>0.9999999996269755</v>
+        <v>0.99999998152072</v>
       </c>
       <c r="J85" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999413226388</v>
       </c>
       <c r="K85" t="n" s="25">
-        <v>0.9997361565408506</v>
+        <v>0.9989970627283152</v>
       </c>
       <c r="L85" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9996993369961962</v>
       </c>
       <c r="M85" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9943809334060114</v>
       </c>
       <c r="N85" t="n" s="25">
         <v>0.5</v>
@@ -3527,31 +3527,31 @@
         <v>86.0</v>
       </c>
       <c r="E86" t="n" s="25">
-        <v>0.9991493793904361</v>
+        <v>0.9988889442131283</v>
       </c>
       <c r="F86" t="n" s="25">
-        <v>0.9999564172535871</v>
+        <v>0.9998577847314508</v>
       </c>
       <c r="G86" t="n" s="25">
-        <v>0.999978668958296</v>
+        <v>0.9996915051510824</v>
       </c>
       <c r="H86" t="n" s="25">
-        <v>0.9996911263729946</v>
+        <v>0.9992968531416008</v>
       </c>
       <c r="I86" t="n" s="25">
-        <v>0.9999933646528452</v>
+        <v>0.9998797989072935</v>
       </c>
       <c r="J86" t="n" s="25">
-        <v>0.9999988218862566</v>
+        <v>0.999941954147341</v>
       </c>
       <c r="K86" t="n" s="25">
-        <v>0.9450441794318463</v>
+        <v>0.9032719563059898</v>
       </c>
       <c r="L86" t="n" s="25">
-        <v>0.9742297570877685</v>
+        <v>0.898679142254797</v>
       </c>
       <c r="M86" t="n" s="25">
-        <v>2.523351031784369E-5</v>
+        <v>6.590492479057479E-7</v>
       </c>
       <c r="N86" t="n" s="25">
         <v>0.5</v>
@@ -3562,31 +3562,31 @@
         <v>87.0</v>
       </c>
       <c r="E87" t="n" s="25">
-        <v>0.9988921685964943</v>
+        <v>0.9985952471986091</v>
       </c>
       <c r="F87" t="n" s="25">
-        <v>0.9999489994710343</v>
+        <v>0.999809733786342</v>
       </c>
       <c r="G87" t="n" s="25">
-        <v>0.9999993526258949</v>
+        <v>0.9999744897299762</v>
       </c>
       <c r="H87" t="n" s="25">
-        <v>0.9974788371540041</v>
+        <v>0.9953883547026549</v>
       </c>
       <c r="I87" t="n" s="25">
-        <v>0.9999813157765584</v>
+        <v>0.9995898296671394</v>
       </c>
       <c r="J87" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999971004060976</v>
       </c>
       <c r="K87" t="n" s="25">
-        <v>0.966259423372731</v>
+        <v>0.9310386732863163</v>
       </c>
       <c r="L87" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9423612880923626</v>
       </c>
       <c r="M87" t="n" s="25">
-        <v>1.0</v>
+        <v>9.562969967223623E-4</v>
       </c>
       <c r="N87" t="n" s="25">
         <v>0.5</v>
@@ -3597,31 +3597,31 @@
         <v>88.0</v>
       </c>
       <c r="E88" t="n" s="25">
-        <v>0.02193790848064457</v>
+        <v>0.021576176013797486</v>
       </c>
       <c r="F88" t="n" s="25">
-        <v>1.30455673434251E-4</v>
+        <v>1.1136536562058114E-4</v>
       </c>
       <c r="G88" t="n" s="25">
-        <v>3.0934256829314437E-6</v>
+        <v>1.1539826829210648E-6</v>
       </c>
       <c r="H88" t="n" s="25">
-        <v>1.3043263977574092E-4</v>
+        <v>1.1135219845870326E-4</v>
       </c>
       <c r="I88" t="n" s="25">
-        <v>1.0845358816631109E-10</v>
+        <v>4.293546352202243E-11</v>
       </c>
       <c r="J88" t="n" s="25">
-        <v>1.8345947701943343E-14</v>
+        <v>2.8718195690100027E-16</v>
       </c>
       <c r="K88" t="n" s="25">
-        <v>2.6619494533157742E-8</v>
+        <v>2.218118850519949E-8</v>
       </c>
       <c r="L88" t="n" s="25">
-        <v>3.556694372933297E-21</v>
+        <v>1.3484559367108346E-21</v>
       </c>
       <c r="M88" t="n" s="25">
-        <v>1.3766224372112725E-36</v>
+        <v>2.8167411744826825E-38</v>
       </c>
       <c r="N88" t="n" s="25">
         <v>0.5</v>
@@ -3632,31 +3632,31 @@
         <v>89.0</v>
       </c>
       <c r="E89" t="n" s="25">
-        <v>0.9991493793904361</v>
+        <v>0.9988889442131283</v>
       </c>
       <c r="F89" t="n" s="25">
-        <v>0.9984880937445636</v>
+        <v>0.9956955638512698</v>
       </c>
       <c r="G89" t="n" s="25">
-        <v>0.9992373943664389</v>
+        <v>0.9925214296328839</v>
       </c>
       <c r="H89" t="n" s="25">
-        <v>0.9955211947885253</v>
+        <v>0.99054969980164</v>
       </c>
       <c r="I89" t="n" s="25">
-        <v>0.9986877539208423</v>
+        <v>0.9874297389678615</v>
       </c>
       <c r="J89" t="n" s="25">
-        <v>0.9999710897199614</v>
+        <v>0.9982104703906812</v>
       </c>
       <c r="K89" t="n" s="25">
-        <v>0.9145678148050416</v>
+        <v>0.850857190960456</v>
       </c>
       <c r="L89" t="n" s="25">
-        <v>0.9360406813716898</v>
+        <v>0.6316355445292673</v>
       </c>
       <c r="M89" t="n" s="25">
-        <v>6.602339858242662E-6</v>
+        <v>4.9709142452658534E-8</v>
       </c>
       <c r="N89" t="n" s="25">
         <v>0.5</v>
@@ -3667,31 +3667,31 @@
         <v>90.0</v>
       </c>
       <c r="E90" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9990766231441008</v>
       </c>
       <c r="F90" t="n" s="25">
-        <v>0.999990260531745</v>
+        <v>0.9999684665889605</v>
       </c>
       <c r="G90" t="n" s="25">
-        <v>0.9998980484414121</v>
+        <v>0.9990887437701843</v>
       </c>
       <c r="H90" t="n" s="25">
-        <v>0.999973776860007</v>
+        <v>0.9999255169788202</v>
       </c>
       <c r="I90" t="n" s="25">
-        <v>0.9999988069468096</v>
+        <v>0.9999750198556794</v>
       </c>
       <c r="J90" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9998493359116511</v>
       </c>
       <c r="K90" t="n" s="25">
-        <v>0.9834302895978223</v>
+        <v>0.960584520970434</v>
       </c>
       <c r="L90" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9674390922748342</v>
       </c>
       <c r="M90" t="n" s="25">
-        <v>1.0</v>
+        <v>2.889837635830081E-6</v>
       </c>
       <c r="N90" t="n" s="25">
         <v>0.5</v>
@@ -3702,31 +3702,31 @@
         <v>91.0</v>
       </c>
       <c r="E91" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F91" t="n" s="25">
-        <v>0.9185211081540053</v>
+        <v>0.8892111011458897</v>
       </c>
       <c r="G91" t="n" s="25">
-        <v>0.16319312820189275</v>
+        <v>0.10577253625128756</v>
       </c>
       <c r="H91" t="n" s="25">
-        <v>0.9277251810828356</v>
+        <v>0.9059659710446537</v>
       </c>
       <c r="I91" t="n" s="25">
-        <v>0.6387217051209041</v>
+        <v>0.43146429013846094</v>
       </c>
       <c r="J91" t="n" s="25">
-        <v>1.2093222653696724E-10</v>
+        <v>2.129030741221423E-11</v>
       </c>
       <c r="K91" t="n" s="25">
-        <v>0.4863143614760386</v>
+        <v>0.44999580078500856</v>
       </c>
       <c r="L91" t="n" s="25">
-        <v>6.6306966024826015E-9</v>
+        <v>2.38047999078864E-9</v>
       </c>
       <c r="M91" t="n" s="25">
-        <v>1.978067544289216E-38</v>
+        <v>3.279934098996405E-39</v>
       </c>
       <c r="N91" t="n" s="25">
         <v>0.5</v>
@@ -3737,31 +3737,31 @@
         <v>92.0</v>
       </c>
       <c r="E92" t="n" s="25">
-        <v>0.9898732271897709</v>
+        <v>0.987395175638213</v>
       </c>
       <c r="F92" t="n" s="25">
-        <v>0.9936830095453267</v>
+        <v>0.981285121367328</v>
       </c>
       <c r="G92" t="n" s="25">
-        <v>0.9999077542233377</v>
+        <v>0.9980365164556827</v>
       </c>
       <c r="H92" t="n" s="25">
-        <v>0.8432899707777651</v>
+        <v>0.7723632246462275</v>
       </c>
       <c r="I92" t="n" s="25">
-        <v>0.9877212256617067</v>
+        <v>0.8858908986794274</v>
       </c>
       <c r="J92" t="n" s="25">
-        <v>1.0</v>
+        <v>0.998536730136875</v>
       </c>
       <c r="K92" t="n" s="25">
-        <v>0.3061504850955707</v>
+        <v>0.2342898178072376</v>
       </c>
       <c r="L92" t="n" s="25">
-        <v>1.0</v>
+        <v>0.014945289130335606</v>
       </c>
       <c r="M92" t="n" s="25">
-        <v>1.0</v>
+        <v>3.861380735630969E-8</v>
       </c>
       <c r="N92" t="n" s="25">
         <v>0.5</v>
@@ -3772,31 +3772,31 @@
         <v>93.0</v>
       </c>
       <c r="E93" t="n" s="25">
-        <v>0.9992488414630909</v>
+        <v>0.9990041798783298</v>
       </c>
       <c r="F93" t="n" s="25">
-        <v>0.9987713433937837</v>
+        <v>0.9968440674006563</v>
       </c>
       <c r="G93" t="n" s="25">
-        <v>0.9411210241008752</v>
+        <v>0.895666725349598</v>
       </c>
       <c r="H93" t="n" s="25">
-        <v>0.9968310697512207</v>
+        <v>0.993119403403634</v>
       </c>
       <c r="I93" t="n" s="25">
-        <v>0.997040187358653</v>
+        <v>0.9905562434793311</v>
       </c>
       <c r="J93" t="n" s="25">
-        <v>0.0065136521381850025</v>
+        <v>8.002829909411093E-4</v>
       </c>
       <c r="K93" t="n" s="25">
-        <v>0.575137054745964</v>
+        <v>0.5254109707965239</v>
       </c>
       <c r="L93" t="n" s="25">
-        <v>8.423446777054117E-5</v>
+        <v>2.9005133018936914E-5</v>
       </c>
       <c r="M93" t="n" s="25">
-        <v>1.4485121489102912E-25</v>
+        <v>9.974898797896028E-27</v>
       </c>
       <c r="N93" t="n" s="25">
         <v>0.5</v>
@@ -3807,31 +3807,31 @@
         <v>94.0</v>
       </c>
       <c r="E94" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F94" t="n" s="25">
-        <v>0.9999981652120649</v>
+        <v>0.9999922256613836</v>
       </c>
       <c r="G94" t="n" s="25">
-        <v>0.9999999995758917</v>
+        <v>0.9999999734167588</v>
       </c>
       <c r="H94" t="n" s="25">
-        <v>0.9995759674880899</v>
+        <v>0.9991447677582072</v>
       </c>
       <c r="I94" t="n" s="25">
-        <v>0.9999999986610698</v>
+        <v>0.9999999471622083</v>
       </c>
       <c r="J94" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999250799776</v>
       </c>
       <c r="K94" t="n" s="25">
-        <v>0.997740328479794</v>
+        <v>0.9942033484144366</v>
       </c>
       <c r="L94" t="n" s="25">
-        <v>1.0</v>
+        <v>0.997481956502075</v>
       </c>
       <c r="M94" t="n" s="25">
-        <v>1.0</v>
+        <v>0.6732435320986974</v>
       </c>
       <c r="N94" t="n" s="25">
         <v>0.5</v>
@@ -3842,31 +3842,31 @@
         <v>95.0</v>
       </c>
       <c r="E95" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F95" t="n" s="25">
-        <v>0.999418580292348</v>
+        <v>0.9985414553518474</v>
       </c>
       <c r="G95" t="n" s="25">
-        <v>0.9268547150633971</v>
+        <v>0.8836470688855957</v>
       </c>
       <c r="H95" t="n" s="25">
-        <v>0.9991338567646012</v>
+        <v>0.9979178788940529</v>
       </c>
       <c r="I95" t="n" s="25">
-        <v>0.998300664578392</v>
+        <v>0.9947813332883245</v>
       </c>
       <c r="J95" t="n" s="25">
-        <v>0.004096519572143614</v>
+        <v>8.748520424784675E-4</v>
       </c>
       <c r="K95" t="n" s="25">
-        <v>0.9046145571022751</v>
+        <v>0.8520342005731569</v>
       </c>
       <c r="L95" t="n" s="25">
-        <v>0.046250193639643</v>
+        <v>0.00598937165322078</v>
       </c>
       <c r="M95" t="n" s="25">
-        <v>2.8321426895025983E-22</v>
+        <v>1.0789307780179214E-23</v>
       </c>
       <c r="N95" t="n" s="25">
         <v>0.5</v>
@@ -3877,31 +3877,31 @@
         <v>96.0</v>
       </c>
       <c r="E96" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F96" t="n" s="25">
-        <v>0.9998166382468096</v>
+        <v>0.9994410784929397</v>
       </c>
       <c r="G96" t="n" s="25">
-        <v>0.9999385338362781</v>
+        <v>0.9996171425786989</v>
       </c>
       <c r="H96" t="n" s="25">
-        <v>0.9570677610641116</v>
+        <v>0.9289176392060162</v>
       </c>
       <c r="I96" t="n" s="25">
-        <v>0.9653101214980978</v>
+        <v>0.8860452241626232</v>
       </c>
       <c r="J96" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9442552075811658</v>
       </c>
       <c r="K96" t="n" s="25">
-        <v>0.4771678534257438</v>
+        <v>0.31935580330178276</v>
       </c>
       <c r="L96" t="n" s="25">
-        <v>1.0</v>
+        <v>0.00873798188613765</v>
       </c>
       <c r="M96" t="n" s="25">
-        <v>1.0</v>
+        <v>7.469343307299001E-8</v>
       </c>
       <c r="N96" t="n" s="25">
         <v>0.5</v>
@@ -3912,31 +3912,31 @@
         <v>97.0</v>
       </c>
       <c r="E97" t="n" s="25">
-        <v>0.9987654520600814</v>
+        <v>0.9984540813360937</v>
       </c>
       <c r="F97" t="n" s="25">
-        <v>0.9999962083360194</v>
+        <v>0.9999853754217962</v>
       </c>
       <c r="G97" t="n" s="25">
-        <v>0.9999999643406988</v>
+        <v>0.999998566253841</v>
       </c>
       <c r="H97" t="n" s="25">
-        <v>0.998316919507106</v>
+        <v>0.9971782994970283</v>
       </c>
       <c r="I97" t="n" s="25">
-        <v>0.9999987771930935</v>
+        <v>0.9999789100356192</v>
       </c>
       <c r="J97" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999825627431054</v>
       </c>
       <c r="K97" t="n" s="25">
-        <v>0.9916193030061612</v>
+        <v>0.9832628479422613</v>
       </c>
       <c r="L97" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9918193301657977</v>
       </c>
       <c r="M97" t="n" s="25">
-        <v>1.0</v>
+        <v>0.03375604650942815</v>
       </c>
       <c r="N97" t="n" s="25">
         <v>0.5</v>
@@ -3947,31 +3947,31 @@
         <v>98.0</v>
       </c>
       <c r="E98" t="n" s="25">
-        <v>0.9993100600201867</v>
+        <v>0.9990766231441008</v>
       </c>
       <c r="F98" t="n" s="25">
-        <v>0.9995622568786408</v>
+        <v>0.9987934002373395</v>
       </c>
       <c r="G98" t="n" s="25">
-        <v>0.9973396688874512</v>
+        <v>0.9932022987272733</v>
       </c>
       <c r="H98" t="n" s="25">
-        <v>0.983178186914151</v>
+        <v>0.967560793740566</v>
       </c>
       <c r="I98" t="n" s="25">
-        <v>0.9874322742443433</v>
+        <v>0.9632843137926933</v>
       </c>
       <c r="J98" t="n" s="25">
-        <v>0.0644556843311822</v>
+        <v>0.006957969754484562</v>
       </c>
       <c r="K98" t="n" s="25">
-        <v>0.2800190607165498</v>
+        <v>0.2118879258497844</v>
       </c>
       <c r="L98" t="n" s="25">
-        <v>1.1110172746290665E-4</v>
+        <v>1.8763541999447778E-5</v>
       </c>
       <c r="M98" t="n" s="25">
-        <v>5.5790597905780674E-21</v>
+        <v>1.871555871111767E-22</v>
       </c>
       <c r="N98" t="n" s="25">
         <v>0.5</v>
@@ -3982,31 +3982,31 @@
         <v>99.0</v>
       </c>
       <c r="E99" t="n" s="25">
-        <v>0.9989549874540834</v>
+        <v>0.9986669336899349</v>
       </c>
       <c r="F99" t="n" s="25">
-        <v>0.9999760644030731</v>
+        <v>0.9999138878475622</v>
       </c>
       <c r="G99" t="n" s="25">
-        <v>0.9999839994633144</v>
+        <v>0.9998421408513138</v>
       </c>
       <c r="H99" t="n" s="25">
-        <v>0.9924721329027262</v>
+        <v>0.9861319866381631</v>
       </c>
       <c r="I99" t="n" s="25">
-        <v>0.9951702680350052</v>
+        <v>0.9790295902764925</v>
       </c>
       <c r="J99" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9922714986136909</v>
       </c>
       <c r="K99" t="n" s="25">
-        <v>0.7784321171080184</v>
+        <v>0.6692167499497924</v>
       </c>
       <c r="L99" t="n" s="25">
-        <v>1.0</v>
+        <v>0.43866661151542014</v>
       </c>
       <c r="M99" t="n" s="25">
-        <v>1.0</v>
+        <v>6.317763910844854E-7</v>
       </c>
       <c r="N99" t="n" s="25">
         <v>0.5</v>
@@ -4017,31 +4017,31 @@
         <v>100.0</v>
       </c>
       <c r="E100" t="n" s="25">
-        <v>0.9669058030551283</v>
+        <v>0.960424993065954</v>
       </c>
       <c r="F100" t="n" s="25">
-        <v>0.4691257518335273</v>
+        <v>0.4163113388966747</v>
       </c>
       <c r="G100" t="n" s="25">
-        <v>0.016435233804547537</v>
+        <v>0.010083232990466762</v>
       </c>
       <c r="H100" t="n" s="25">
-        <v>0.3924808401228671</v>
+        <v>0.3508338775206189</v>
       </c>
       <c r="I100" t="n" s="25">
-        <v>0.008321122330634983</v>
+        <v>0.003468276980634322</v>
       </c>
       <c r="J100" t="n" s="25">
-        <v>2.240902153851465E-14</v>
+        <v>4.305232073479183E-15</v>
       </c>
       <c r="K100" t="n" s="25">
-        <v>0.024072202035054738</v>
+        <v>0.017009176546976625</v>
       </c>
       <c r="L100" t="n" s="25">
-        <v>4.791996263937024E-13</v>
+        <v>8.920127818507448E-14</v>
       </c>
       <c r="M100" t="n" s="25">
-        <v>4.4879958901500624E-42</v>
+        <v>4.4566687975859415E-43</v>
       </c>
       <c r="N100" t="n" s="25">
         <v>0.5</v>
@@ -4052,31 +4052,31 @@
         <v>101.0</v>
       </c>
       <c r="E101" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F101" t="n" s="25">
-        <v>0.9999514996552895</v>
+        <v>0.9998453606824725</v>
       </c>
       <c r="G101" t="n" s="25">
-        <v>0.9999948809293138</v>
+        <v>0.9999340522730557</v>
       </c>
       <c r="H101" t="n" s="25">
-        <v>0.999919287680545</v>
+        <v>0.9997787904863876</v>
       </c>
       <c r="I101" t="n" s="25">
-        <v>0.9999999884542137</v>
+        <v>0.999999464528437</v>
       </c>
       <c r="J101" t="n" s="25">
-        <v>0.9999998845609451</v>
+        <v>0.9999943983272631</v>
       </c>
       <c r="K101" t="n" s="25">
-        <v>0.9996802976111755</v>
+        <v>0.9981911183600067</v>
       </c>
       <c r="L101" t="n" s="25">
-        <v>0.9999631903679704</v>
+        <v>0.9995061445603606</v>
       </c>
       <c r="M101" t="n" s="25">
-        <v>0.13427694845683455</v>
+        <v>0.0040452265586101354</v>
       </c>
       <c r="N101" t="n" s="25">
         <v>0.5</v>
@@ -4087,31 +4087,31 @@
         <v>102.0</v>
       </c>
       <c r="E102" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F102" t="n" s="25">
-        <v>0.9438821658525599</v>
+        <v>0.9153813422940253</v>
       </c>
       <c r="G102" t="n" s="25">
-        <v>0.15494962016290326</v>
+        <v>0.10335505961092879</v>
       </c>
       <c r="H102" t="n" s="25">
-        <v>0.9839786572894015</v>
+        <v>0.9745094251624421</v>
       </c>
       <c r="I102" t="n" s="25">
-        <v>0.8980779057118817</v>
+        <v>0.7763704170918422</v>
       </c>
       <c r="J102" t="n" s="25">
-        <v>1.258196085280212E-7</v>
+        <v>1.5003322727862898E-8</v>
       </c>
       <c r="K102" t="n" s="25">
-        <v>0.8678110281584852</v>
+        <v>0.8264809268768548</v>
       </c>
       <c r="L102" t="n" s="25">
-        <v>3.7159717331417445E-5</v>
+        <v>6.9038290778918895E-6</v>
       </c>
       <c r="M102" t="n" s="25">
-        <v>3.9376880470615084E-30</v>
+        <v>2.3421688544201695E-31</v>
       </c>
       <c r="N102" t="n" s="25">
         <v>0.5</v>
@@ -4122,31 +4122,31 @@
         <v>103.0</v>
       </c>
       <c r="E103" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9988024893306368</v>
       </c>
       <c r="F103" t="n" s="25">
-        <v>0.9810858555481092</v>
+        <v>0.9652100634835354</v>
       </c>
       <c r="G103" t="n" s="25">
-        <v>0.2460113940870183</v>
+        <v>0.18893336797156227</v>
       </c>
       <c r="H103" t="n" s="25">
-        <v>0.9929869822369769</v>
+        <v>0.9872194802846268</v>
       </c>
       <c r="I103" t="n" s="25">
-        <v>0.9832625095978323</v>
+        <v>0.9546185498086213</v>
       </c>
       <c r="J103" t="n" s="25">
-        <v>1.1956247511409129E-7</v>
+        <v>2.438565802346471E-8</v>
       </c>
       <c r="K103" t="n" s="25">
-        <v>0.759246170580793</v>
+        <v>0.7284192107965604</v>
       </c>
       <c r="L103" t="n" s="25">
-        <v>2.930227462600291E-6</v>
+        <v>1.0448838510493313E-6</v>
       </c>
       <c r="M103" t="n" s="25">
-        <v>1.8252163599519083E-34</v>
+        <v>2.7318009720492876E-35</v>
       </c>
       <c r="N103" t="n" s="25">
         <v>0.5</v>
@@ -4157,31 +4157,31 @@
         <v>104.0</v>
       </c>
       <c r="E104" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F104" t="n" s="25">
-        <v>0.9438821658525599</v>
+        <v>0.9153813422940253</v>
       </c>
       <c r="G104" t="n" s="25">
-        <v>0.15494960091791873</v>
+        <v>0.10335505290155332</v>
       </c>
       <c r="H104" t="n" s="25">
-        <v>0.9765372268261889</v>
+        <v>0.9650587751889511</v>
       </c>
       <c r="I104" t="n" s="25">
-        <v>0.8980771916822218</v>
+        <v>0.7763697248304354</v>
       </c>
       <c r="J104" t="n" s="25">
-        <v>5.0327847210546497E-8</v>
+        <v>6.001329145169084E-9</v>
       </c>
       <c r="K104" t="n" s="25">
-        <v>0.7300875401694253</v>
+        <v>0.7003856667965955</v>
       </c>
       <c r="L104" t="n" s="25">
-        <v>1.167266573684311E-6</v>
+        <v>4.0693339791264925E-7</v>
       </c>
       <c r="M104" t="n" s="25">
-        <v>4.443211119983516E-33</v>
+        <v>4.91805446153247E-34</v>
       </c>
       <c r="N104" t="n" s="25">
         <v>0.5</v>
@@ -4192,31 +4192,31 @@
         <v>105.0</v>
       </c>
       <c r="E105" t="n" s="25">
-        <v>0.9992488414630909</v>
+        <v>0.9990041798783298</v>
       </c>
       <c r="F105" t="n" s="25">
-        <v>0.9966683408720581</v>
+        <v>0.9920504695386109</v>
       </c>
       <c r="G105" t="n" s="25">
-        <v>0.9896438177136028</v>
+        <v>0.9727427027515837</v>
       </c>
       <c r="H105" t="n" s="25">
-        <v>0.9587633215577118</v>
+        <v>0.9336247824434447</v>
       </c>
       <c r="I105" t="n" s="25">
-        <v>0.9498922738953064</v>
+        <v>0.8774595407439799</v>
       </c>
       <c r="J105" t="n" s="25">
-        <v>8.451661617052273E-4</v>
+        <v>7.806233460908408E-5</v>
       </c>
       <c r="K105" t="n" s="25">
-        <v>0.19592344064100556</v>
+        <v>0.1661620992956086</v>
       </c>
       <c r="L105" t="n" s="25">
-        <v>5.026728532879398E-7</v>
+        <v>1.5951448263827057E-7</v>
       </c>
       <c r="M105" t="n" s="25">
-        <v>2.4412135260595546E-27</v>
+        <v>1.5734451022707178E-28</v>
       </c>
       <c r="N105" t="n" s="25">
         <v>0.5</v>
@@ -4227,31 +4227,31 @@
         <v>106.0</v>
       </c>
       <c r="E106" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F106" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9138689388043615</v>
       </c>
       <c r="G106" t="n" s="25">
-        <v>0.07541813549356326</v>
+        <v>0.055031273326690715</v>
       </c>
       <c r="H106" t="n" s="25">
-        <v>0.9839786572894015</v>
+        <v>0.9745094251624421</v>
       </c>
       <c r="I106" t="n" s="25">
-        <v>0.8980772185031288</v>
+        <v>0.776369729990725</v>
       </c>
       <c r="J106" t="n" s="25">
-        <v>1.4635096765272338E-9</v>
+        <v>2.8894591379640524E-10</v>
       </c>
       <c r="K106" t="n" s="25">
-        <v>0.867810193633498</v>
+        <v>0.8264803756350878</v>
       </c>
       <c r="L106" t="n" s="25">
-        <v>5.574133662959207E-6</v>
+        <v>1.035580438733577E-6</v>
       </c>
       <c r="M106" t="n" s="25">
-        <v>1.2991054020890683E-34</v>
+        <v>1.1940629154406975E-35</v>
       </c>
       <c r="N106" t="n" s="25">
         <v>0.5</v>
@@ -4262,31 +4262,31 @@
         <v>107.0</v>
       </c>
       <c r="E107" t="n" s="25">
-        <v>0.9956537070981696</v>
+        <v>0.9944668700272876</v>
       </c>
       <c r="F107" t="n" s="25">
-        <v>0.9869768529357147</v>
+        <v>0.973834977851435</v>
       </c>
       <c r="G107" t="n" s="25">
-        <v>0.5814919676193349</v>
+        <v>0.5039569143304454</v>
       </c>
       <c r="H107" t="n" s="25">
-        <v>0.9946239660952453</v>
+        <v>0.9872747509144396</v>
       </c>
       <c r="I107" t="n" s="25">
-        <v>0.9935979677597592</v>
+        <v>0.9804466247797757</v>
       </c>
       <c r="J107" t="n" s="25">
-        <v>0.0010504820834869135</v>
+        <v>2.369598870920764E-4</v>
       </c>
       <c r="K107" t="n" s="25">
-        <v>0.9060992991137248</v>
+        <v>0.8320407735779118</v>
       </c>
       <c r="L107" t="n" s="25">
-        <v>0.012119292155827192</v>
+        <v>0.0012571403642315637</v>
       </c>
       <c r="M107" t="n" s="25">
-        <v>1.7257851884373666E-23</v>
+        <v>7.116007016298052E-25</v>
       </c>
       <c r="N107" t="n" s="25">
         <v>0.5</v>
@@ -4297,31 +4297,31 @@
         <v>108.0</v>
       </c>
       <c r="E108" t="n" s="25">
-        <v>0.9992184044676108</v>
+        <v>0.9989694203481638</v>
       </c>
       <c r="F108" t="n" s="25">
-        <v>0.9999992976079031</v>
+        <v>0.9999966568747249</v>
       </c>
       <c r="G108" t="n" s="25">
-        <v>0.999999999999643</v>
+        <v>0.9999999999610925</v>
       </c>
       <c r="H108" t="n" s="25">
-        <v>0.9999459607947965</v>
+        <v>0.9998596938912766</v>
       </c>
       <c r="I108" t="n" s="25">
-        <v>0.999999999999983</v>
+        <v>0.999999999997926</v>
       </c>
       <c r="J108" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999643</v>
       </c>
       <c r="K108" t="n" s="25">
-        <v>0.9999245402669993</v>
+        <v>0.9996901051293803</v>
       </c>
       <c r="L108" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999997517948314</v>
       </c>
       <c r="M108" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999998553662166</v>
       </c>
       <c r="N108" t="n" s="25">
         <v>0.5</v>
@@ -4332,31 +4332,31 @@
         <v>109.0</v>
       </c>
       <c r="E109" t="n" s="25">
-        <v>0.9924786881518278</v>
+        <v>0.9908161152792774</v>
       </c>
       <c r="F109" t="n" s="25">
-        <v>0.7317380900187286</v>
+        <v>0.6826235075103717</v>
       </c>
       <c r="G109" t="n" s="25">
-        <v>0.003132520601195771</v>
+        <v>0.002242302972350548</v>
       </c>
       <c r="H109" t="n" s="25">
-        <v>0.6320251269303754</v>
+        <v>0.5961703735263811</v>
       </c>
       <c r="I109" t="n" s="25">
-        <v>0.022670037462673567</v>
+        <v>0.011119188632614402</v>
       </c>
       <c r="J109" t="n" s="25">
-        <v>2.865556147062459E-16</v>
+        <v>7.148943738888402E-17</v>
       </c>
       <c r="K109" t="n" s="25">
-        <v>0.18616334583406166</v>
+        <v>0.16884565986862615</v>
       </c>
       <c r="L109" t="n" s="25">
-        <v>1.1774710088211215E-12</v>
+        <v>5.054606819134201E-13</v>
       </c>
       <c r="M109" t="n" s="25">
-        <v>2.9530768064434952E-46</v>
+        <v>7.216811278499144E-47</v>
       </c>
       <c r="N109" t="n" s="25">
         <v>0.5</v>
@@ -4367,31 +4367,31 @@
         <v>110.0</v>
       </c>
       <c r="E110" t="n" s="25">
-        <v>0.999074525592067</v>
+        <v>0.9988024893306368</v>
       </c>
       <c r="F110" t="n" s="25">
-        <v>0.9867845180016819</v>
+        <v>0.9731751641048376</v>
       </c>
       <c r="G110" t="n" s="25">
-        <v>0.7952839058475079</v>
+        <v>0.648994432609321</v>
       </c>
       <c r="H110" t="n" s="25">
-        <v>0.9929869822369769</v>
+        <v>0.9872194802846268</v>
       </c>
       <c r="I110" t="n" s="25">
-        <v>0.9832691277016412</v>
+        <v>0.9546254442127134</v>
       </c>
       <c r="J110" t="n" s="25">
-        <v>0.034737052874623434</v>
+        <v>0.0015258428338783105</v>
       </c>
       <c r="K110" t="n" s="25">
-        <v>0.7592612854208179</v>
+        <v>0.7284297842608821</v>
       </c>
       <c r="L110" t="n" s="25">
-        <v>3.9054555442615154E-4</v>
+        <v>1.3929858557841407E-4</v>
       </c>
       <c r="M110" t="n" s="25">
-        <v>2.6476673564123678E-22</v>
+        <v>9.787788463355423E-24</v>
       </c>
       <c r="N110" t="n" s="25">
         <v>0.5</v>
@@ -4402,31 +4402,31 @@
         <v>111.0</v>
       </c>
       <c r="E111" t="n" s="25">
-        <v>0.9989933996778886</v>
+        <v>0.9987096606479622</v>
       </c>
       <c r="F111" t="n" s="25">
-        <v>0.9424627242890665</v>
+        <v>0.9138689388043615</v>
       </c>
       <c r="G111" t="n" s="25">
-        <v>0.0754181349899714</v>
+        <v>0.055031273109482616</v>
       </c>
       <c r="H111" t="n" s="25">
-        <v>0.9765372268261889</v>
+        <v>0.9650587751889511</v>
       </c>
       <c r="I111" t="n" s="25">
-        <v>0.8980771127548363</v>
+        <v>0.7763696273114512</v>
       </c>
       <c r="J111" t="n" s="25">
-        <v>5.854038711249399E-10</v>
+        <v>1.1557836553859963E-10</v>
       </c>
       <c r="K111" t="n" s="25">
-        <v>0.7300873886108452</v>
+        <v>0.7003855584742733</v>
       </c>
       <c r="L111" t="n" s="25">
-        <v>1.7509015977300392E-7</v>
+        <v>6.104003080024046E-8</v>
       </c>
       <c r="M111" t="n" s="25">
-        <v>1.4658832734971673E-37</v>
+        <v>2.5072752572951195E-38</v>
       </c>
       <c r="N111" t="n" s="25">
         <v>0.5</v>

--- a/data/new_posteriors/no_elementary_skills/simple_model/leak/constrained/results_model1a_leak_constrained.xlsx
+++ b/data/new_posteriors/no_elementary_skills/simple_model/leak/constrained/results_model1a_leak_constrained.xlsx
@@ -625,32 +625,30 @@
         <v>0.9985642136364413</v>
       </c>
       <c r="F3" t="n" s="25">
-        <v>0.9997250906908114</v>
+        <v>0.9997603696717305</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>0.9996586968934374</v>
+        <v>0.9997011816075454</v>
       </c>
       <c r="H3" t="n" s="25">
         <v>0.9947985819779521</v>
       </c>
       <c r="I3" t="n" s="25">
-        <v>0.9932778661322443</v>
+        <v>0.9934203991876785</v>
       </c>
       <c r="J3" t="n" s="25">
-        <v>0.9993358794873476</v>
+        <v>0.9993820971619168</v>
       </c>
       <c r="K3" t="n" s="25">
         <v>0.847542786329294</v>
       </c>
       <c r="L3" t="n" s="25">
-        <v>0.7514990047955201</v>
+        <v>0.7514990070881213</v>
       </c>
       <c r="M3" t="n" s="25">
-        <v>1.4352560452270126E-6</v>
-      </c>
-      <c r="N3" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>1.551102008502631E-6</v>
+      </c>
+      <c r="N3" s="25"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -660,32 +658,30 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F4" t="n" s="25">
-        <v>0.9999922256613836</v>
+        <v>0.9999917156197048</v>
       </c>
       <c r="G4" t="n" s="25">
-        <v>0.9999999734167588</v>
+        <v>0.9999999720186754</v>
       </c>
       <c r="H4" t="n" s="25">
         <v>0.999384719134074</v>
       </c>
       <c r="I4" t="n" s="25">
-        <v>0.99999998152072</v>
+        <v>0.9999999825117769</v>
       </c>
       <c r="J4" t="n" s="25">
-        <v>0.9999999413226388</v>
+        <v>0.9999999472229868</v>
       </c>
       <c r="K4" t="n" s="25">
         <v>0.9989970627283152</v>
       </c>
       <c r="L4" t="n" s="25">
-        <v>0.9996993369961962</v>
+        <v>0.999703051373055</v>
       </c>
       <c r="M4" t="n" s="25">
-        <v>0.9943809334060114</v>
-      </c>
-      <c r="N4" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9947829787422025</v>
+      </c>
+      <c r="N4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -695,16 +691,16 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F5" t="n" s="25">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>0.9999999999610925</v>
+        <v>0.9999999999590474</v>
       </c>
       <c r="H5" t="n" s="25">
         <v>0.9998993539645364</v>
       </c>
       <c r="I5" t="n" s="25">
-        <v>0.9999999999992676</v>
+        <v>0.9999999999993069</v>
       </c>
       <c r="J5" t="n" s="25">
         <v>0.9999999999999994</v>
@@ -713,14 +709,12 @@
         <v>0.9999458540709291</v>
       </c>
       <c r="L5" t="n" s="25">
-        <v>0.9999999994287722</v>
+        <v>0.999999999459422</v>
       </c>
       <c r="M5" t="n" s="25">
-        <v>0.9999999853828552</v>
-      </c>
-      <c r="N5" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999864324247</v>
+      </c>
+      <c r="N5" s="25"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -730,16 +724,16 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F6" t="n" s="25">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="G6" t="n" s="25">
-        <v>0.9999999999610925</v>
+        <v>0.9999999999590474</v>
       </c>
       <c r="H6" t="n" s="25">
         <v>0.9999260358356878</v>
       </c>
       <c r="I6" t="n" s="25">
-        <v>0.9999999999997267</v>
+        <v>0.9999999999997414</v>
       </c>
       <c r="J6" t="n" s="25">
         <v>1.0</v>
@@ -748,14 +742,12 @@
         <v>0.999989874084595</v>
       </c>
       <c r="L6" t="n" s="25">
-        <v>0.9999999999991527</v>
+        <v>0.9999999999991982</v>
       </c>
       <c r="M6" t="n" s="25">
-        <v>0.9999999999088022</v>
-      </c>
-      <c r="N6" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999153506</v>
+      </c>
+      <c r="N6" s="25"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -765,32 +757,30 @@
         <v>0.9988640951565367</v>
       </c>
       <c r="F7" t="n" s="25">
-        <v>0.9999934300938721</v>
+        <v>0.9999929995141481</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.9999999938708332</v>
+        <v>0.9999999935486505</v>
       </c>
       <c r="H7" t="n" s="25">
         <v>0.9998144978182121</v>
       </c>
       <c r="I7" t="n" s="25">
-        <v>0.9999999993887142</v>
+        <v>0.9999999994215129</v>
       </c>
       <c r="J7" t="n" s="25">
-        <v>0.9999999999476077</v>
+        <v>0.9999999999548036</v>
       </c>
       <c r="K7" t="n" s="25">
         <v>0.9996435357746989</v>
       </c>
       <c r="L7" t="n" s="25">
-        <v>0.9999987685401089</v>
+        <v>0.9999988337947043</v>
       </c>
       <c r="M7" t="n" s="25">
-        <v>0.9999904150033451</v>
-      </c>
-      <c r="N7" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999911033705832</v>
+      </c>
+      <c r="N7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -800,32 +790,30 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F8" t="n" s="25">
-        <v>0.9999922256613836</v>
+        <v>0.9999917156197048</v>
       </c>
       <c r="G8" t="n" s="25">
-        <v>0.9999999734167588</v>
+        <v>0.9999999720186754</v>
       </c>
       <c r="H8" t="n" s="25">
         <v>0.9988165983446476</v>
       </c>
       <c r="I8" t="n" s="25">
-        <v>0.9999998508171132</v>
+        <v>0.9999998588178967</v>
       </c>
       <c r="J8" t="n" s="25">
-        <v>0.9999999247156488</v>
+        <v>0.9999999314390757</v>
       </c>
       <c r="K8" t="n" s="25">
         <v>0.9675467946773469</v>
       </c>
       <c r="L8" t="n" s="25">
-        <v>0.9830768206113363</v>
+        <v>0.9830769189302629</v>
       </c>
       <c r="M8" t="n" s="25">
-        <v>0.025032081732726877</v>
-      </c>
-      <c r="N8" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.02691983496307844</v>
+      </c>
+      <c r="N8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -835,16 +823,16 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F9" t="n" s="25">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>0.9999999999610925</v>
+        <v>0.9999999999590474</v>
       </c>
       <c r="H9" t="n" s="25">
         <v>0.9999514165798032</v>
       </c>
       <c r="I9" t="n" s="25">
-        <v>0.9999999999999154</v>
+        <v>0.9999999999999201</v>
       </c>
       <c r="J9" t="n" s="25">
         <v>1.0</v>
@@ -853,14 +841,12 @@
         <v>0.9999984895868012</v>
       </c>
       <c r="L9" t="n" s="25">
-        <v>0.9999999999999942</v>
+        <v>0.9999999999999947</v>
       </c>
       <c r="M9" t="n" s="25">
-        <v>0.9999999999972089</v>
-      </c>
-      <c r="N9" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999974092</v>
+      </c>
+      <c r="N9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -870,32 +856,30 @@
         <v>0.9988024893306368</v>
       </c>
       <c r="F10" t="n" s="25">
-        <v>0.9999941251072504</v>
+        <v>0.9999937396794508</v>
       </c>
       <c r="G10" t="n" s="25">
-        <v>0.9999999969808784</v>
+        <v>0.9999999968221771</v>
       </c>
       <c r="H10" t="n" s="25">
         <v>0.9997328968678366</v>
       </c>
       <c r="I10" t="n" s="25">
-        <v>0.9999999996921799</v>
+        <v>0.9999999997086959</v>
       </c>
       <c r="J10" t="n" s="25">
-        <v>0.9999999999764267</v>
+        <v>0.9999999999796775</v>
       </c>
       <c r="K10" t="n" s="25">
         <v>0.9998846195948158</v>
       </c>
       <c r="L10" t="n" s="25">
-        <v>0.9999997894985063</v>
+        <v>0.9999998007319901</v>
       </c>
       <c r="M10" t="n" s="25">
-        <v>0.9999956163700148</v>
-      </c>
-      <c r="N10" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999959311907696</v>
+      </c>
+      <c r="N10" s="25"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -905,32 +889,30 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F11" t="n" s="25">
-        <v>0.9999859078529846</v>
+        <v>0.9999853029260136</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>0.9999980056431838</v>
+        <v>0.9999979361796903</v>
       </c>
       <c r="H11" t="n" s="25">
         <v>0.9999235655807238</v>
       </c>
       <c r="I11" t="n" s="25">
-        <v>0.9999999597229805</v>
+        <v>0.9999999611736491</v>
       </c>
       <c r="J11" t="n" s="25">
-        <v>0.9999997479295325</v>
+        <v>0.9999997681470912</v>
       </c>
       <c r="K11" t="n" s="25">
         <v>0.9994921860951327</v>
       </c>
       <c r="L11" t="n" s="25">
-        <v>0.9999583049155232</v>
+        <v>0.9999592333304703</v>
       </c>
       <c r="M11" t="n" s="25">
-        <v>0.9993300140815174</v>
-      </c>
-      <c r="N11" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9993627056932022</v>
+      </c>
+      <c r="N11" s="25"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -940,16 +922,16 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F12" t="n" s="25">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="G12" t="n" s="25">
-        <v>0.9999999999610925</v>
+        <v>0.9999999999590474</v>
       </c>
       <c r="H12" t="n" s="25">
         <v>0.9999514165798032</v>
       </c>
       <c r="I12" t="n" s="25">
-        <v>0.9999999999999154</v>
+        <v>0.9999999999999201</v>
       </c>
       <c r="J12" t="n" s="25">
         <v>1.0</v>
@@ -958,14 +940,12 @@
         <v>0.9999984895868012</v>
       </c>
       <c r="L12" t="n" s="25">
-        <v>0.9999999999999942</v>
+        <v>0.9999999999999947</v>
       </c>
       <c r="M12" t="n" s="25">
-        <v>0.9999999999972089</v>
-      </c>
-      <c r="N12" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999974092</v>
+      </c>
+      <c r="N12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -975,10 +955,10 @@
         <v>0.9988889442131283</v>
       </c>
       <c r="F13" t="n" s="25">
-        <v>0.9933722443075313</v>
+        <v>0.9939480439088754</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>0.4827434627012112</v>
+        <v>0.5282867593407796</v>
       </c>
       <c r="H13" t="n" s="25">
         <v>0.999678466735762</v>
@@ -987,7 +967,7 @@
         <v>0.9988512711928006</v>
       </c>
       <c r="J13" t="n" s="25">
-        <v>0.007423706780420047</v>
+        <v>0.008577595337267147</v>
       </c>
       <c r="K13" t="n" s="25">
         <v>0.9996360762503463</v>
@@ -998,9 +978,7 @@
       <c r="M13" t="n" s="25">
         <v>1.0576940616342382E-9</v>
       </c>
-      <c r="N13" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1033,9 +1011,7 @@
       <c r="M14" t="n" s="25">
         <v>1.633572306766296E-19</v>
       </c>
-      <c r="N14" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N14" s="25"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1045,32 +1021,30 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F15" t="n" s="25">
-        <v>0.9999717144785565</v>
+        <v>0.9999698712862735</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.9992654116326886</v>
+        <v>0.9991853636645733</v>
       </c>
       <c r="H15" t="n" s="25">
         <v>0.999384719134074</v>
       </c>
       <c r="I15" t="n" s="25">
-        <v>0.9971264881552716</v>
+        <v>0.9971346915142963</v>
       </c>
       <c r="J15" t="n" s="25">
-        <v>0.9455072894684409</v>
+        <v>0.9500550846536574</v>
       </c>
       <c r="K15" t="n" s="25">
         <v>0.9177213854837287</v>
       </c>
       <c r="L15" t="n" s="25">
-        <v>0.7953705108683573</v>
+        <v>0.7953705109820807</v>
       </c>
       <c r="M15" t="n" s="25">
-        <v>7.009110050289176E-10</v>
-      </c>
-      <c r="N15" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>7.974193418206918E-10</v>
+      </c>
+      <c r="N15" s="25"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1103,9 +1077,7 @@
       <c r="M16" t="n" s="25">
         <v>0.9726707646862737</v>
       </c>
-      <c r="N16" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1115,32 +1087,30 @@
         <v>0.9988024893306368</v>
       </c>
       <c r="F17" t="n" s="25">
-        <v>0.9999941251072504</v>
+        <v>0.9999937396794508</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>0.9999999969808784</v>
+        <v>0.9999999968221771</v>
       </c>
       <c r="H17" t="n" s="25">
         <v>0.9997246082774528</v>
       </c>
       <c r="I17" t="n" s="25">
-        <v>0.9999999996741713</v>
+        <v>0.9999999996916537</v>
       </c>
       <c r="J17" t="n" s="25">
-        <v>0.9999999999851569</v>
+        <v>0.9999999999872051</v>
       </c>
       <c r="K17" t="n" s="25">
         <v>0.9998762630796362</v>
       </c>
       <c r="L17" t="n" s="25">
-        <v>0.9999998661148413</v>
+        <v>0.9999998732741979</v>
       </c>
       <c r="M17" t="n" s="25">
-        <v>0.999997314746694</v>
-      </c>
-      <c r="N17" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999975075948146</v>
+      </c>
+      <c r="N17" s="25"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1150,16 +1120,16 @@
         <v>0.9990766231441008</v>
       </c>
       <c r="F18" t="n" s="25">
-        <v>0.9999976764745981</v>
+        <v>0.9999975240369777</v>
       </c>
       <c r="G18" t="n" s="25">
-        <v>0.9999999999940302</v>
+        <v>0.9999999999937164</v>
       </c>
       <c r="H18" t="n" s="25">
         <v>0.9999735524160116</v>
       </c>
       <c r="I18" t="n" s="25">
-        <v>0.9999999999999949</v>
+        <v>0.9999999999999951</v>
       </c>
       <c r="J18" t="n" s="25">
         <v>1.0</v>
@@ -1171,11 +1141,9 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="M18" t="n" s="25">
-        <v>0.9999999999998739</v>
-      </c>
-      <c r="N18" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.999999999999883</v>
+      </c>
+      <c r="N18" s="25"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1185,16 +1153,16 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F19" t="n" s="25">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>0.9999999999610925</v>
+        <v>0.9999999999590474</v>
       </c>
       <c r="H19" t="n" s="25">
         <v>0.9999260358356878</v>
       </c>
       <c r="I19" t="n" s="25">
-        <v>0.9999999999997267</v>
+        <v>0.9999999999997414</v>
       </c>
       <c r="J19" t="n" s="25">
         <v>1.0</v>
@@ -1203,14 +1171,12 @@
         <v>0.999989874084595</v>
       </c>
       <c r="L19" t="n" s="25">
-        <v>0.9999999999991527</v>
+        <v>0.9999999999991982</v>
       </c>
       <c r="M19" t="n" s="25">
-        <v>0.9999999999088022</v>
-      </c>
-      <c r="N19" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999153506</v>
+      </c>
+      <c r="N19" s="25"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1220,16 +1186,16 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F20" t="n" s="25">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="G20" t="n" s="25">
-        <v>0.9999999999610925</v>
+        <v>0.9999999999590474</v>
       </c>
       <c r="H20" t="n" s="25">
         <v>0.9998993539645364</v>
       </c>
       <c r="I20" t="n" s="25">
-        <v>0.9999999999992676</v>
+        <v>0.9999999999993069</v>
       </c>
       <c r="J20" t="n" s="25">
         <v>0.9999999999999994</v>
@@ -1238,14 +1204,12 @@
         <v>0.9999458540709291</v>
       </c>
       <c r="L20" t="n" s="25">
-        <v>0.9999999994287722</v>
+        <v>0.999999999459422</v>
       </c>
       <c r="M20" t="n" s="25">
-        <v>0.9999999853828552</v>
-      </c>
-      <c r="N20" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999864324247</v>
+      </c>
+      <c r="N20" s="25"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1255,16 +1219,16 @@
         <v>0.9990766231441008</v>
       </c>
       <c r="F21" t="n" s="25">
-        <v>0.9999976764745981</v>
+        <v>0.9999975240369777</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>0.9999999999940302</v>
+        <v>0.9999999999937164</v>
       </c>
       <c r="H21" t="n" s="25">
         <v>0.9999818912819994</v>
       </c>
       <c r="I21" t="n" s="25">
-        <v>0.9999999999999982</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="J21" t="n" s="25">
         <v>1.0</v>
@@ -1276,11 +1240,9 @@
         <v>1.0</v>
       </c>
       <c r="M21" t="n" s="25">
-        <v>0.9999999999999981</v>
-      </c>
-      <c r="N21" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999999982</v>
+      </c>
+      <c r="N21" s="25"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1290,16 +1252,16 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F22" t="n" s="25">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="G22" t="n" s="25">
-        <v>0.9999999999610925</v>
+        <v>0.9999999999590474</v>
       </c>
       <c r="H22" t="n" s="25">
         <v>0.9999303648009452</v>
       </c>
       <c r="I22" t="n" s="25">
-        <v>0.9999999999997539</v>
+        <v>0.999999999999767</v>
       </c>
       <c r="J22" t="n" s="25">
         <v>1.0</v>
@@ -1308,14 +1270,12 @@
         <v>0.9999910684559729</v>
       </c>
       <c r="L22" t="n" s="25">
-        <v>0.9999999999980453</v>
+        <v>0.9999999999981501</v>
       </c>
       <c r="M22" t="n" s="25">
-        <v>0.9999999997778517</v>
-      </c>
-      <c r="N22" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999997938028</v>
+      </c>
+      <c r="N22" s="25"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1325,16 +1285,16 @@
         <v>0.9990766231441008</v>
       </c>
       <c r="F23" t="n" s="25">
-        <v>0.9999976764745981</v>
+        <v>0.9999975240369777</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>0.9999999999940302</v>
+        <v>0.9999999999937164</v>
       </c>
       <c r="H23" t="n" s="25">
         <v>0.9999620685605709</v>
       </c>
       <c r="I23" t="n" s="25">
-        <v>0.9999999999999851</v>
+        <v>0.999999999999986</v>
       </c>
       <c r="J23" t="n" s="25">
         <v>1.0</v>
@@ -1343,14 +1303,12 @@
         <v>0.9999941445292149</v>
       </c>
       <c r="L23" t="n" s="25">
-        <v>0.9999999999999266</v>
+        <v>0.9999999999999305</v>
       </c>
       <c r="M23" t="n" s="25">
-        <v>0.999999999989973</v>
-      </c>
-      <c r="N23" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.999999999990693</v>
+      </c>
+      <c r="N23" s="25"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1360,16 +1318,16 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F24" t="n" s="25">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="G24" t="n" s="25">
-        <v>0.9999999999610925</v>
+        <v>0.9999999999590474</v>
       </c>
       <c r="H24" t="n" s="25">
         <v>0.9999303648009452</v>
       </c>
       <c r="I24" t="n" s="25">
-        <v>0.9999999999997539</v>
+        <v>0.999999999999767</v>
       </c>
       <c r="J24" t="n" s="25">
         <v>1.0</v>
@@ -1378,14 +1336,12 @@
         <v>0.9999910684559729</v>
       </c>
       <c r="L24" t="n" s="25">
-        <v>0.9999999999980453</v>
+        <v>0.9999999999981501</v>
       </c>
       <c r="M24" t="n" s="25">
-        <v>0.9999999997778517</v>
-      </c>
-      <c r="N24" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999997938028</v>
+      </c>
+      <c r="N24" s="25"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1395,32 +1351,30 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F25" t="n" s="25">
-        <v>0.999995302031617</v>
+        <v>0.9999949941346813</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>0.9999999991358914</v>
+        <v>0.9999999990904719</v>
       </c>
       <c r="H25" t="n" s="25">
         <v>0.9998993539645364</v>
       </c>
       <c r="I25" t="n" s="25">
-        <v>0.9999999999677743</v>
+        <v>0.9999999999695035</v>
       </c>
       <c r="J25" t="n" s="25">
-        <v>0.9999999999994664</v>
+        <v>0.9999999999995399</v>
       </c>
       <c r="K25" t="n" s="25">
         <v>0.9997844699485896</v>
       </c>
       <c r="L25" t="n" s="25">
-        <v>0.9999998991732796</v>
+        <v>0.9999999045738645</v>
       </c>
       <c r="M25" t="n" s="25">
-        <v>0.9999990548286821</v>
-      </c>
-      <c r="N25" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999991226973982</v>
+      </c>
+      <c r="N25" s="25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1430,10 +1384,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F26" t="n" s="25">
-        <v>0.9239198655947276</v>
+        <v>0.9318810752817296</v>
       </c>
       <c r="G26" t="n" s="25">
-        <v>0.47979312077340885</v>
+        <v>0.6144586310834483</v>
       </c>
       <c r="H26" t="n" s="25">
         <v>0.9731288644452671</v>
@@ -1442,7 +1396,7 @@
         <v>0.7764145530879089</v>
       </c>
       <c r="J26" t="n" s="25">
-        <v>3.0440735966317714E-4</v>
+        <v>5.074565556981075E-4</v>
       </c>
       <c r="K26" t="n" s="25">
         <v>0.8234804044545062</v>
@@ -1453,9 +1407,7 @@
       <c r="M26" t="n" s="25">
         <v>2.509341696279028E-20</v>
       </c>
-      <c r="N26" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N26" s="25"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1465,10 +1417,10 @@
         <v>0.9990041798783298</v>
       </c>
       <c r="F27" t="n" s="25">
-        <v>0.9986110169732494</v>
+        <v>0.9987752236500451</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>0.6743415239762514</v>
+        <v>0.7130429366581851</v>
       </c>
       <c r="H27" t="n" s="25">
         <v>0.9996122562457007</v>
@@ -1477,7 +1429,7 @@
         <v>0.9981987345090014</v>
       </c>
       <c r="J27" t="n" s="25">
-        <v>5.062837173915605E-4</v>
+        <v>5.690371117864381E-4</v>
       </c>
       <c r="K27" t="n" s="25">
         <v>0.9381161380382296</v>
@@ -1488,9 +1440,7 @@
       <c r="M27" t="n" s="25">
         <v>6.029800675723673E-24</v>
       </c>
-      <c r="N27" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N27" s="25"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1500,32 +1450,30 @@
         <v>0.9987626801665062</v>
       </c>
       <c r="F28" t="n" s="25">
-        <v>0.9999910670396569</v>
+        <v>0.9999904815911225</v>
       </c>
       <c r="G28" t="n" s="25">
-        <v>0.9999999520362184</v>
+        <v>0.999999949513826</v>
       </c>
       <c r="H28" t="n" s="25">
         <v>0.9996758804230857</v>
       </c>
       <c r="I28" t="n" s="25">
-        <v>0.9999999878565137</v>
+        <v>0.9999999885078118</v>
       </c>
       <c r="J28" t="n" s="25">
-        <v>0.9999999940046378</v>
+        <v>0.99999999480537</v>
       </c>
       <c r="K28" t="n" s="25">
         <v>0.9994349410231544</v>
       </c>
       <c r="L28" t="n" s="25">
-        <v>0.9999849562241168</v>
+        <v>0.9999856908642868</v>
       </c>
       <c r="M28" t="n" s="25">
-        <v>0.9998908779955921</v>
-      </c>
-      <c r="N28" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9998987244955024</v>
+      </c>
+      <c r="N28" s="25"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1535,32 +1483,30 @@
         <v>0.9984540813360937</v>
       </c>
       <c r="F29" t="n" s="25">
-        <v>0.9999853754217962</v>
+        <v>0.9999844159716955</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>0.999998566253841</v>
+        <v>0.9999984885153765</v>
       </c>
       <c r="H29" t="n" s="25">
         <v>0.997138249655535</v>
       </c>
       <c r="I29" t="n" s="25">
-        <v>0.9999782791101255</v>
+        <v>0.9999794122016807</v>
       </c>
       <c r="J29" t="n" s="25">
-        <v>0.9999825640500996</v>
+        <v>0.9999841213390174</v>
       </c>
       <c r="K29" t="n" s="25">
         <v>0.9826339176244163</v>
       </c>
       <c r="L29" t="n" s="25">
-        <v>0.9917103921974175</v>
+        <v>0.991710523341563</v>
       </c>
       <c r="M29" t="n" s="25">
-        <v>0.04570336537043305</v>
-      </c>
-      <c r="N29" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.04936686897923488</v>
+      </c>
+      <c r="N29" s="25"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1570,10 +1516,10 @@
         <v>0.9984540813360937</v>
       </c>
       <c r="F30" t="n" s="25">
-        <v>0.8786406450199926</v>
+        <v>0.8813861993924855</v>
       </c>
       <c r="G30" t="n" s="25">
-        <v>0.06914712839229646</v>
+        <v>0.11375967702681034</v>
       </c>
       <c r="H30" t="n" s="25">
         <v>0.9209095808729062</v>
@@ -1582,7 +1528,7 @@
         <v>0.23147873850371364</v>
       </c>
       <c r="J30" t="n" s="25">
-        <v>1.9795240235461263E-11</v>
+        <v>3.397616463214554E-11</v>
       </c>
       <c r="K30" t="n" s="25">
         <v>0.6279027180181203</v>
@@ -1593,9 +1539,7 @@
       <c r="M30" t="n" s="25">
         <v>2.7578074885712545E-37</v>
       </c>
-      <c r="N30" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N30" s="25"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1605,16 +1549,16 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F31" t="n" s="25">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.9999999999610925</v>
+        <v>0.9999999999590474</v>
       </c>
       <c r="H31" t="n" s="25">
         <v>0.99994835488775</v>
       </c>
       <c r="I31" t="n" s="25">
-        <v>0.9999999999999062</v>
+        <v>0.9999999999999112</v>
       </c>
       <c r="J31" t="n" s="25">
         <v>1.0</v>
@@ -1623,14 +1567,12 @@
         <v>0.999998287539329</v>
       </c>
       <c r="L31" t="n" s="25">
-        <v>0.9999999999999976</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="M31" t="n" s="25">
-        <v>0.9999999999988544</v>
-      </c>
-      <c r="N31" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999989366</v>
+      </c>
+      <c r="N31" s="25"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1640,10 +1582,10 @@
         <v>0.9984540813360937</v>
       </c>
       <c r="F32" t="n" s="25">
-        <v>0.8705736447029357</v>
+        <v>0.8714698457226718</v>
       </c>
       <c r="G32" t="n" s="25">
-        <v>0.016007631787006132</v>
+        <v>0.027342549794350194</v>
       </c>
       <c r="H32" t="n" s="25">
         <v>0.9173584456127691</v>
@@ -1652,7 +1594,7 @@
         <v>0.11936176394481535</v>
       </c>
       <c r="J32" t="n" s="25">
-        <v>3.853608430580677E-13</v>
+        <v>6.645617959324021E-13</v>
       </c>
       <c r="K32" t="n" s="25">
         <v>0.6279026950877656</v>
@@ -1663,9 +1605,7 @@
       <c r="M32" t="n" s="25">
         <v>9.881864396697516E-40</v>
       </c>
-      <c r="N32" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N32" s="25"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1675,10 +1615,10 @@
         <v>0.04738683253164222</v>
       </c>
       <c r="F33" t="n" s="25">
-        <v>3.30844979195777E-4</v>
+        <v>3.3084940469983964E-4</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>3.555851908234392E-8</v>
+        <v>6.144511938368497E-8</v>
       </c>
       <c r="H33" t="n" s="25">
         <v>3.3085047863058367E-4</v>
@@ -1687,7 +1627,7 @@
         <v>6.19387684496451E-11</v>
       </c>
       <c r="J33" t="n" s="25">
-        <v>1.4943806754892585E-24</v>
+        <v>2.5822811688828564E-24</v>
       </c>
       <c r="K33" t="n" s="25">
         <v>6.381741674669818E-8</v>
@@ -1698,9 +1638,7 @@
       <c r="M33" t="n" s="25">
         <v>1.010506497334636E-55</v>
       </c>
-      <c r="N33" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N33" s="25"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1710,10 +1648,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F34" t="n" s="25">
-        <v>0.9138689388043615</v>
+        <v>0.9168728452186032</v>
       </c>
       <c r="G34" t="n" s="25">
-        <v>0.05503127337840693</v>
+        <v>0.09143105917578345</v>
       </c>
       <c r="H34" t="n" s="25">
         <v>0.9741918699523779</v>
@@ -1722,7 +1660,7 @@
         <v>0.7763697439989857</v>
       </c>
       <c r="J34" t="n" s="25">
-        <v>3.30223901467975E-10</v>
+        <v>5.648063854847418E-10</v>
       </c>
       <c r="K34" t="n" s="25">
         <v>0.8260253885099672</v>
@@ -1733,9 +1671,7 @@
       <c r="M34" t="n" s="25">
         <v>1.975788930307482E-35</v>
       </c>
-      <c r="N34" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N34" s="25"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1745,10 +1681,10 @@
         <v>0.0063389906234352115</v>
       </c>
       <c r="F35" t="n" s="25">
-        <v>2.652173125152841E-6</v>
+        <v>2.652174040177612E-6</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>1.1549121025919699E-10</v>
+        <v>1.6630734276479258E-10</v>
       </c>
       <c r="H35" t="n" s="25">
         <v>2.6521713694314947E-6</v>
@@ -1757,7 +1693,7 @@
         <v>1.4518539938724925E-16</v>
       </c>
       <c r="J35" t="n" s="25">
-        <v>2.703295289703091E-32</v>
+        <v>3.8927448814129257E-32</v>
       </c>
       <c r="K35" t="n" s="25">
         <v>8.497062251456303E-12</v>
@@ -1768,9 +1704,7 @@
       <c r="M35" t="n" s="25">
         <v>2.3117000492367292E-67</v>
       </c>
-      <c r="N35" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N35" s="25"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1780,10 +1714,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F36" t="n" s="25">
-        <v>0.9138689388043615</v>
+        <v>0.9168728452186032</v>
       </c>
       <c r="G36" t="n" s="25">
-        <v>0.055031273109482616</v>
+        <v>0.09143105874619291</v>
       </c>
       <c r="H36" t="n" s="25">
         <v>0.9650587751889511</v>
@@ -1792,7 +1726,7 @@
         <v>0.7763696273114512</v>
       </c>
       <c r="J36" t="n" s="25">
-        <v>1.1557836553859963E-10</v>
+        <v>1.976822349922335E-10</v>
       </c>
       <c r="K36" t="n" s="25">
         <v>0.7003855584742733</v>
@@ -1803,9 +1737,7 @@
       <c r="M36" t="n" s="25">
         <v>2.5072752572951195E-38</v>
       </c>
-      <c r="N36" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N36" s="25"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1815,10 +1747,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F37" t="n" s="25">
-        <v>0.9138689388043615</v>
+        <v>0.9168728452186032</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>0.05503127337840693</v>
+        <v>0.09143105917578345</v>
       </c>
       <c r="H37" t="n" s="25">
         <v>0.9741918699523779</v>
@@ -1827,7 +1759,7 @@
         <v>0.7763697439989857</v>
       </c>
       <c r="J37" t="n" s="25">
-        <v>3.30223901467975E-10</v>
+        <v>5.648063854847418E-10</v>
       </c>
       <c r="K37" t="n" s="25">
         <v>0.8260253885099672</v>
@@ -1838,9 +1770,7 @@
       <c r="M37" t="n" s="25">
         <v>1.975788930307482E-35</v>
       </c>
-      <c r="N37" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N37" s="25"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1850,10 +1780,10 @@
         <v>0.9988426146034837</v>
       </c>
       <c r="F38" t="n" s="25">
-        <v>0.9604625088049538</v>
+        <v>0.9664584343654818</v>
       </c>
       <c r="G38" t="n" s="25">
-        <v>0.5088289409338639</v>
+        <v>0.6415928094139881</v>
       </c>
       <c r="H38" t="n" s="25">
         <v>0.994291035994942</v>
@@ -1862,7 +1792,7 @@
         <v>0.9395900849160412</v>
       </c>
       <c r="J38" t="n" s="25">
-        <v>0.010116065110367889</v>
+        <v>0.01642368845829133</v>
       </c>
       <c r="K38" t="n" s="25">
         <v>0.9597221497386069</v>
@@ -1873,9 +1803,7 @@
       <c r="M38" t="n" s="25">
         <v>1.7135456252655357E-15</v>
       </c>
-      <c r="N38" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N38" s="25"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1885,10 +1813,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F39" t="n" s="25">
-        <v>0.9138689388043615</v>
+        <v>0.9168728452186032</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>0.055031273326690715</v>
+        <v>0.09143105909316987</v>
       </c>
       <c r="H39" t="n" s="25">
         <v>0.9745094251624421</v>
@@ -1897,7 +1825,7 @@
         <v>0.776369729990725</v>
       </c>
       <c r="J39" t="n" s="25">
-        <v>2.8894591379640524E-10</v>
+        <v>4.942055873340402E-10</v>
       </c>
       <c r="K39" t="n" s="25">
         <v>0.8264803756350878</v>
@@ -1908,9 +1836,7 @@
       <c r="M39" t="n" s="25">
         <v>1.1940629154406975E-35</v>
       </c>
-      <c r="N39" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N39" s="25"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1920,10 +1846,10 @@
         <v>0.9986236715918837</v>
       </c>
       <c r="F40" t="n" s="25">
-        <v>0.8779180108599453</v>
+        <v>0.8790126121541704</v>
       </c>
       <c r="G40" t="n" s="25">
-        <v>0.014350096296126272</v>
+        <v>0.02454059400190363</v>
       </c>
       <c r="H40" t="n" s="25">
         <v>0.9562305269850724</v>
@@ -1932,7 +1858,7 @@
         <v>0.32873556514434976</v>
       </c>
       <c r="J40" t="n" s="25">
-        <v>7.198771244311359E-13</v>
+        <v>1.2407168712478003E-12</v>
       </c>
       <c r="K40" t="n" s="25">
         <v>0.8075730942909247</v>
@@ -1943,9 +1869,7 @@
       <c r="M40" t="n" s="25">
         <v>7.873044029974049E-39</v>
       </c>
-      <c r="N40" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N40" s="25"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1955,32 +1879,30 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F41" t="n" s="25">
-        <v>0.9999485712193302</v>
+        <v>0.9999452488352047</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>0.9999999532860384</v>
+        <v>0.9999999508305271</v>
       </c>
       <c r="H41" t="n" s="25">
         <v>0.9998932120370034</v>
       </c>
       <c r="I41" t="n" s="25">
-        <v>0.9999999999406745</v>
+        <v>0.9999999999438575</v>
       </c>
       <c r="J41" t="n" s="25">
-        <v>0.9999999999972954</v>
+        <v>0.9999999999976606</v>
       </c>
       <c r="K41" t="n" s="25">
         <v>0.9999925465523909</v>
       </c>
       <c r="L41" t="n" s="25">
-        <v>0.9999999987029065</v>
+        <v>0.9999999987724606</v>
       </c>
       <c r="M41" t="n" s="25">
-        <v>0.999999739684404</v>
-      </c>
-      <c r="N41" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999997583790241</v>
+      </c>
+      <c r="N41" s="25"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1990,10 +1912,10 @@
         <v>0.7428846044097607</v>
       </c>
       <c r="F42" t="n" s="25">
-        <v>0.08412504867907002</v>
+        <v>0.08418482417256361</v>
       </c>
       <c r="G42" t="n" s="25">
-        <v>3.413548727509122E-4</v>
+        <v>4.91477198781188E-4</v>
       </c>
       <c r="H42" t="n" s="25">
         <v>0.07200541293669065</v>
@@ -2002,7 +1924,7 @@
         <v>7.559685087682084E-7</v>
       </c>
       <c r="J42" t="n" s="25">
-        <v>5.528884887846695E-21</v>
+        <v>7.960048199480421E-21</v>
       </c>
       <c r="K42" t="n" s="25">
         <v>2.49400521539926E-5</v>
@@ -2013,9 +1935,7 @@
       <c r="M42" t="n" s="25">
         <v>1.8561492702554322E-54</v>
       </c>
-      <c r="N42" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N42" s="25"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2025,10 +1945,10 @@
         <v>0.9987237929506684</v>
       </c>
       <c r="F43" t="n" s="25">
-        <v>0.9319737001497843</v>
+        <v>0.9364325664131804</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>0.09885133434715776</v>
+        <v>0.1593478346082982</v>
       </c>
       <c r="H43" t="n" s="25">
         <v>0.986884132703757</v>
@@ -2037,7 +1957,7 @@
         <v>0.888102607536917</v>
       </c>
       <c r="J43" t="n" s="25">
-        <v>5.7048944540549724E-9</v>
+        <v>9.660997022640475E-9</v>
       </c>
       <c r="K43" t="n" s="25">
         <v>0.8514334284614669</v>
@@ -2048,9 +1968,7 @@
       <c r="M43" t="n" s="25">
         <v>2.1850284807679114E-35</v>
       </c>
-      <c r="N43" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N43" s="25"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2060,10 +1978,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F44" t="n" s="25">
-        <v>0.9154776277657815</v>
+        <v>0.9194302488785926</v>
       </c>
       <c r="G44" t="n" s="25">
-        <v>0.104103473242626</v>
+        <v>0.16721781061563026</v>
       </c>
       <c r="H44" t="n" s="25">
         <v>0.9741918699523779</v>
@@ -2072,7 +1990,7 @@
         <v>0.7763702875656608</v>
       </c>
       <c r="J44" t="n" s="25">
-        <v>1.3151882963444533E-8</v>
+        <v>2.240870354306656E-8</v>
       </c>
       <c r="K44" t="n" s="25">
         <v>0.8260258242350889</v>
@@ -2083,9 +2001,7 @@
       <c r="M44" t="n" s="25">
         <v>1.2893008474600438E-31</v>
       </c>
-      <c r="N44" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N44" s="25"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2095,10 +2011,10 @@
         <v>0.9988024893306368</v>
       </c>
       <c r="F45" t="n" s="25">
-        <v>0.9652100634835354</v>
+        <v>0.9677674534717405</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>0.18893338268698057</v>
+        <v>0.25118305111971123</v>
       </c>
       <c r="H45" t="n" s="25">
         <v>0.9905265371805991</v>
@@ -2107,7 +2023,7 @@
         <v>0.9546187021213274</v>
       </c>
       <c r="J45" t="n" s="25">
-        <v>8.128552211974683E-8</v>
+        <v>1.1431903034784293E-7</v>
       </c>
       <c r="K45" t="n" s="25">
         <v>0.8442907767012655</v>
@@ -2118,9 +2034,7 @@
       <c r="M45" t="n" s="25">
         <v>3.84498492215904E-32</v>
       </c>
-      <c r="N45" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N45" s="25"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2130,10 +2044,10 @@
         <v>0.5743563598392081</v>
       </c>
       <c r="F46" t="n" s="25">
-        <v>0.0010714789974375885</v>
+        <v>0.0010714789981183521</v>
       </c>
       <c r="G46" t="n" s="25">
-        <v>1.1958369259375086E-12</v>
+        <v>2.0664062080182176E-12</v>
       </c>
       <c r="H46" t="n" s="25">
         <v>6.407324854748146E-4</v>
@@ -2142,7 +2056,7 @@
         <v>4.449432883959748E-19</v>
       </c>
       <c r="J46" t="n" s="25">
-        <v>1.59463865381159E-49</v>
+        <v>2.7555355933482765E-49</v>
       </c>
       <c r="K46" t="n" s="25">
         <v>1.445776226150129E-10</v>
@@ -2153,9 +2067,7 @@
       <c r="M46" t="n" s="25">
         <v>2.764812584014E-95</v>
       </c>
-      <c r="N46" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N46" s="25"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2165,10 +2077,10 @@
         <v>0.834525872534576</v>
       </c>
       <c r="F47" t="n" s="25">
-        <v>0.15827777607815766</v>
+        <v>0.1583040118933702</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>2.2498414523905566E-4</v>
+        <v>3.2394510083912884E-4</v>
       </c>
       <c r="H47" t="n" s="25">
         <v>0.12560535994707384</v>
@@ -2177,7 +2089,7 @@
         <v>7.881006393577734E-8</v>
       </c>
       <c r="J47" t="n" s="25">
-        <v>2.0633765711419873E-24</v>
+        <v>2.971115935338468E-24</v>
       </c>
       <c r="K47" t="n" s="25">
         <v>1.2149433098930877E-4</v>
@@ -2188,9 +2100,7 @@
       <c r="M47" t="n" s="25">
         <v>2.1868731207460094E-57</v>
       </c>
-      <c r="N47" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N47" s="25"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2200,10 +2110,10 @@
         <v>0.6703538715548021</v>
       </c>
       <c r="F48" t="n" s="25">
-        <v>0.0387174161107925</v>
+        <v>0.03874589858504571</v>
       </c>
       <c r="G48" t="n" s="25">
-        <v>9.936006520064528E-5</v>
+        <v>1.7168177421537532E-4</v>
       </c>
       <c r="H48" t="n" s="25">
         <v>0.03868159978130373</v>
@@ -2212,7 +2122,7 @@
         <v>5.764686758880369E-8</v>
       </c>
       <c r="J48" t="n" s="25">
-        <v>4.1642918490064476E-22</v>
+        <v>7.194518733132986E-22</v>
       </c>
       <c r="K48" t="n" s="25">
         <v>2.9609157035347736E-6</v>
@@ -2223,9 +2133,7 @@
       <c r="M48" t="n" s="25">
         <v>8.713909463003155E-56</v>
       </c>
-      <c r="N48" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N48" s="25"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2235,10 +2143,10 @@
         <v>0.9984540813360937</v>
       </c>
       <c r="F49" t="n" s="25">
-        <v>0.8702291546722154</v>
+        <v>0.8708816613256075</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>0.008087116318086403</v>
+        <v>0.013892744565999496</v>
       </c>
       <c r="H49" t="n" s="25">
         <v>0.9173584456127691</v>
@@ -2247,7 +2155,7 @@
         <v>0.11936176111060826</v>
       </c>
       <c r="J49" t="n" s="25">
-        <v>9.630996743212197E-15</v>
+        <v>1.6618091210435663E-14</v>
       </c>
       <c r="K49" t="n" s="25">
         <v>0.6279026888706648</v>
@@ -2258,9 +2166,7 @@
       <c r="M49" t="n" s="25">
         <v>1.5143451474057516E-43</v>
       </c>
-      <c r="N49" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N49" s="25"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2270,10 +2176,10 @@
         <v>0.8353272186334045</v>
       </c>
       <c r="F50" t="n" s="25">
-        <v>0.16881725163126704</v>
+        <v>0.16882551323081274</v>
       </c>
       <c r="G50" t="n" s="25">
-        <v>1.6311255026393948E-5</v>
+        <v>2.8185513994082995E-5</v>
       </c>
       <c r="H50" t="n" s="25">
         <v>0.09965676468351936</v>
@@ -2282,7 +2188,7 @@
         <v>1.632215146131966E-6</v>
       </c>
       <c r="J50" t="n" s="25">
-        <v>3.317041559000409E-24</v>
+        <v>5.731763439742373E-24</v>
       </c>
       <c r="K50" t="n" s="25">
         <v>8.584721849915387E-4</v>
@@ -2293,9 +2199,7 @@
       <c r="M50" t="n" s="25">
         <v>1.733360601136717E-57</v>
       </c>
-      <c r="N50" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N50" s="25"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2305,10 +2209,10 @@
         <v>0.28201827225699266</v>
       </c>
       <c r="F51" t="n" s="25">
-        <v>4.5618120361561683E-4</v>
+        <v>4.561819502555274E-4</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>2.0082278105583464E-8</v>
+        <v>2.7911010852246125E-8</v>
       </c>
       <c r="H51" t="n" s="25">
         <v>4.561793814403069E-4</v>
@@ -2317,7 +2221,7 @@
         <v>4.719678224454052E-20</v>
       </c>
       <c r="J51" t="n" s="25">
-        <v>9.00584428632497E-43</v>
+        <v>1.3100777393053784E-42</v>
       </c>
       <c r="K51" t="n" s="25">
         <v>3.2829617051158864E-14</v>
@@ -2326,11 +2230,9 @@
         <v>6.2429110108720345E-49</v>
       </c>
       <c r="M51" t="n" s="25">
-        <v>8.884076327942722E-85</v>
-      </c>
-      <c r="N51" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>9.276476164724179E-85</v>
+      </c>
+      <c r="N51" s="25"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2340,10 +2242,10 @@
         <v>0.9987250006289774</v>
       </c>
       <c r="F52" t="n" s="25">
-        <v>0.9108378459675325</v>
+        <v>0.9136200564694071</v>
       </c>
       <c r="G52" t="n" s="25">
-        <v>0.04921763262665359</v>
+        <v>0.08210616928958255</v>
       </c>
       <c r="H52" t="n" s="25">
         <v>0.9647889418322178</v>
@@ -2352,7 +2254,7 @@
         <v>0.7598691020433107</v>
       </c>
       <c r="J52" t="n" s="25">
-        <v>7.706453698627562E-11</v>
+        <v>1.319568522439984E-10</v>
       </c>
       <c r="K52" t="n" s="25">
         <v>0.703824090141066</v>
@@ -2363,9 +2265,7 @@
       <c r="M52" t="n" s="25">
         <v>1.509501970732256E-38</v>
       </c>
-      <c r="N52" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N52" s="25"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2398,9 +2298,7 @@
       <c r="M53" t="n" s="25">
         <v>3.1092069441893995E-6</v>
       </c>
-      <c r="N53" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N53" s="25"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2410,32 +2308,30 @@
         <v>0.9990766231441008</v>
       </c>
       <c r="F54" t="n" s="25">
-        <v>0.999978181552425</v>
+        <v>0.9999777240265585</v>
       </c>
       <c r="G54" t="n" s="25">
-        <v>0.9999814688211498</v>
+        <v>0.9999811479286193</v>
       </c>
       <c r="H54" t="n" s="25">
         <v>0.9999626294333114</v>
       </c>
       <c r="I54" t="n" s="25">
-        <v>0.9999999564784785</v>
+        <v>0.9999999572672997</v>
       </c>
       <c r="J54" t="n" s="25">
-        <v>0.9999973173552216</v>
+        <v>0.9999973960208284</v>
       </c>
       <c r="K54" t="n" s="25">
         <v>0.9995910626384662</v>
       </c>
       <c r="L54" t="n" s="25">
-        <v>0.999909159166538</v>
+        <v>0.9999091748656936</v>
       </c>
       <c r="M54" t="n" s="25">
-        <v>0.8662586315749555</v>
-      </c>
-      <c r="N54" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.8691567170217571</v>
+      </c>
+      <c r="N54" s="25"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2468,9 +2364,7 @@
       <c r="M55" t="n" s="25">
         <v>1.7538907272211056E-15</v>
       </c>
-      <c r="N55" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N55" s="25"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2480,16 +2374,16 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F56" t="n" s="25">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="G56" t="n" s="25">
-        <v>0.9999999999610925</v>
+        <v>0.9999999999590474</v>
       </c>
       <c r="H56" t="n" s="25">
         <v>0.9999260358356878</v>
       </c>
       <c r="I56" t="n" s="25">
-        <v>0.9999999999997267</v>
+        <v>0.9999999999997414</v>
       </c>
       <c r="J56" t="n" s="25">
         <v>1.0</v>
@@ -2498,14 +2392,12 @@
         <v>0.999989874084595</v>
       </c>
       <c r="L56" t="n" s="25">
-        <v>0.9999999999991527</v>
+        <v>0.9999999999991982</v>
       </c>
       <c r="M56" t="n" s="25">
-        <v>0.9999999999088022</v>
-      </c>
-      <c r="N56" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999153506</v>
+      </c>
+      <c r="N56" s="25"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2515,10 +2407,10 @@
         <v>0.9990041798783298</v>
       </c>
       <c r="F57" t="n" s="25">
-        <v>0.9993397886914228</v>
+        <v>0.9994350710300753</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>0.9445782690689154</v>
+        <v>0.9533846402364173</v>
       </c>
       <c r="H57" t="n" s="25">
         <v>0.9994564549662047</v>
@@ -2527,7 +2419,7 @@
         <v>0.9982747206384762</v>
       </c>
       <c r="J57" t="n" s="25">
-        <v>0.8860540971380785</v>
+        <v>0.893269079756275</v>
       </c>
       <c r="K57" t="n" s="25">
         <v>0.8825500116567505</v>
@@ -2538,9 +2430,7 @@
       <c r="M57" t="n" s="25">
         <v>2.7151643358002017E-15</v>
       </c>
-      <c r="N57" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N57" s="25"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2550,32 +2440,30 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F58" t="n" s="25">
-        <v>0.9999922256613836</v>
+        <v>0.9999917156197048</v>
       </c>
       <c r="G58" t="n" s="25">
-        <v>0.9999999734167588</v>
+        <v>0.9999999720186754</v>
       </c>
       <c r="H58" t="n" s="25">
         <v>0.9988165983446476</v>
       </c>
       <c r="I58" t="n" s="25">
-        <v>0.9999998508171132</v>
+        <v>0.9999998588178967</v>
       </c>
       <c r="J58" t="n" s="25">
-        <v>0.9999999247156488</v>
+        <v>0.9999999314390757</v>
       </c>
       <c r="K58" t="n" s="25">
         <v>0.9675467946773469</v>
       </c>
       <c r="L58" t="n" s="25">
-        <v>0.9830768206113363</v>
+        <v>0.9830769189302629</v>
       </c>
       <c r="M58" t="n" s="25">
-        <v>0.025032081732726877</v>
-      </c>
-      <c r="N58" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.02691983496307844</v>
+      </c>
+      <c r="N58" s="25"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2585,10 +2473,10 @@
         <v>0.9988024893306368</v>
       </c>
       <c r="F59" t="n" s="25">
-        <v>0.9965313004184085</v>
+        <v>0.9974752320334536</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>0.9962414064580304</v>
+        <v>0.99738686451653</v>
       </c>
       <c r="H59" t="n" s="25">
         <v>0.9949284485654089</v>
@@ -2597,7 +2485,7 @@
         <v>0.9951148262678969</v>
       </c>
       <c r="J59" t="n" s="25">
-        <v>0.9996537093481339</v>
+        <v>0.9996969418624215</v>
       </c>
       <c r="K59" t="n" s="25">
         <v>0.859249585710112</v>
@@ -2608,9 +2496,7 @@
       <c r="M59" t="n" s="25">
         <v>4.6308519465295E-8</v>
       </c>
-      <c r="N59" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N59" s="25"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2620,32 +2506,30 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F60" t="n" s="25">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="G60" t="n" s="25">
-        <v>0.9999999999610925</v>
+        <v>0.9999999999590474</v>
       </c>
       <c r="H60" t="n" s="25">
         <v>0.9998062975446276</v>
       </c>
       <c r="I60" t="n" s="25">
-        <v>0.9999999999941577</v>
+        <v>0.9999999999944712</v>
       </c>
       <c r="J60" t="n" s="25">
-        <v>0.9999999999979409</v>
+        <v>0.9999999999982093</v>
       </c>
       <c r="K60" t="n" s="25">
         <v>0.9982378246205363</v>
       </c>
       <c r="L60" t="n" s="25">
-        <v>0.999907578612198</v>
+        <v>0.9999117380326346</v>
       </c>
       <c r="M60" t="n" s="25">
-        <v>0.9998536027172079</v>
-      </c>
-      <c r="N60" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9998641131993068</v>
+      </c>
+      <c r="N60" s="25"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2678,9 +2562,7 @@
       <c r="M61" t="n" s="25">
         <v>0.0040452265586101354</v>
       </c>
-      <c r="N61" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N61" s="25"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2690,32 +2572,30 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F62" t="n" s="25">
-        <v>0.9999810332769418</v>
+        <v>0.9999806318685662</v>
       </c>
       <c r="G62" t="n" s="25">
-        <v>0.999977832599829</v>
+        <v>0.9999774455224559</v>
       </c>
       <c r="H62" t="n" s="25">
         <v>0.9998993539645364</v>
       </c>
       <c r="I62" t="n" s="25">
-        <v>0.999998911834405</v>
+        <v>0.9999989314046571</v>
       </c>
       <c r="J62" t="n" s="25">
-        <v>0.9999916506443198</v>
+        <v>0.9999918996232836</v>
       </c>
       <c r="K62" t="n" s="25">
         <v>0.9950728474582342</v>
       </c>
       <c r="L62" t="n" s="25">
-        <v>0.9985690149605223</v>
+        <v>0.9985690155602728</v>
       </c>
       <c r="M62" t="n" s="25">
-        <v>0.005955730506568434</v>
-      </c>
-      <c r="N62" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.006110751035294289</v>
+      </c>
+      <c r="N62" s="25"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2725,32 +2605,30 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F63" t="n" s="25">
-        <v>0.9999295293926682</v>
+        <v>0.9999280524547035</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>0.9999960483586743</v>
+        <v>0.9999959801533387</v>
       </c>
       <c r="H63" t="n" s="25">
         <v>0.9996916364234476</v>
       </c>
       <c r="I63" t="n" s="25">
-        <v>0.9999992876795968</v>
+        <v>0.9999993006292128</v>
       </c>
       <c r="J63" t="n" s="25">
-        <v>0.9999996340201479</v>
+        <v>0.9999996446789775</v>
       </c>
       <c r="K63" t="n" s="25">
         <v>0.9816218327420864</v>
       </c>
       <c r="L63" t="n" s="25">
-        <v>0.9927836251195782</v>
+        <v>0.9927836446918813</v>
       </c>
       <c r="M63" t="n" s="25">
-        <v>0.03519228721478584</v>
-      </c>
-      <c r="N63" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.03605117517305201</v>
+      </c>
+      <c r="N63" s="25"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2760,32 +2638,30 @@
         <v>0.9988024893306368</v>
       </c>
       <c r="F64" t="n" s="25">
-        <v>0.9999941251072504</v>
+        <v>0.9999937396794508</v>
       </c>
       <c r="G64" t="n" s="25">
-        <v>0.9999999969808784</v>
+        <v>0.9999999968221771</v>
       </c>
       <c r="H64" t="n" s="25">
         <v>0.9996183567965429</v>
       </c>
       <c r="I64" t="n" s="25">
-        <v>0.9999999990878167</v>
+        <v>0.99999999913676</v>
       </c>
       <c r="J64" t="n" s="25">
-        <v>0.9999999991147885</v>
+        <v>0.9999999992281263</v>
       </c>
       <c r="K64" t="n" s="25">
         <v>0.9993037358816126</v>
       </c>
       <c r="L64" t="n" s="25">
-        <v>0.999949951970038</v>
+        <v>0.9999520804602353</v>
       </c>
       <c r="M64" t="n" s="25">
-        <v>0.9997064378809413</v>
-      </c>
-      <c r="N64" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9997275150797932</v>
+      </c>
+      <c r="N64" s="25"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2795,32 +2671,30 @@
         <v>0.9988765507028821</v>
       </c>
       <c r="F65" t="n" s="25">
-        <v>0.9998347161873221</v>
+        <v>0.999827796948822</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>0.9999354915532783</v>
+        <v>0.9999332146486907</v>
       </c>
       <c r="H65" t="n" s="25">
         <v>0.9997894942637214</v>
       </c>
       <c r="I65" t="n" s="25">
-        <v>0.9999851985382222</v>
+        <v>0.9999857251795143</v>
       </c>
       <c r="J65" t="n" s="25">
-        <v>0.9999924173279517</v>
+        <v>0.9999928412409311</v>
       </c>
       <c r="K65" t="n" s="25">
         <v>0.9930907697043937</v>
       </c>
       <c r="L65" t="n" s="25">
-        <v>0.9940272769267517</v>
+        <v>0.9940273543946786</v>
       </c>
       <c r="M65" t="n" s="25">
-        <v>0.04711292441853163</v>
-      </c>
-      <c r="N65" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.04950216678227233</v>
+      </c>
+      <c r="N65" s="25"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2830,10 +2704,10 @@
         <v>0.9852287292977128</v>
       </c>
       <c r="F66" t="n" s="25">
-        <v>0.623062245226035</v>
+        <v>0.6235785899456472</v>
       </c>
       <c r="G66" t="n" s="25">
-        <v>0.0031227648565544906</v>
+        <v>0.005383898064624234</v>
       </c>
       <c r="H66" t="n" s="25">
         <v>0.48162719550222344</v>
@@ -2842,7 +2716,7 @@
         <v>0.0051935826661157255</v>
       </c>
       <c r="J66" t="n" s="25">
-        <v>9.524009179365563E-16</v>
+        <v>1.6448414166994185E-15</v>
       </c>
       <c r="K66" t="n" s="25">
         <v>0.09128266080738145</v>
@@ -2853,9 +2727,7 @@
       <c r="M66" t="n" s="25">
         <v>1.5216933357826885E-43</v>
       </c>
-      <c r="N66" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N66" s="25"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2888,9 +2760,7 @@
       <c r="M67" t="n" s="25">
         <v>6.908440092514735E-17</v>
       </c>
-      <c r="N67" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N67" s="25"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2900,10 +2770,10 @@
         <v>0.9988017943098251</v>
       </c>
       <c r="F68" t="n" s="25">
-        <v>0.9964143245241214</v>
+        <v>0.996914785779294</v>
       </c>
       <c r="G68" t="n" s="25">
-        <v>0.987026754183205</v>
+        <v>0.9891655354573701</v>
       </c>
       <c r="H68" t="n" s="25">
         <v>0.9984111929208171</v>
@@ -2912,7 +2782,7 @@
         <v>0.9956980581710327</v>
       </c>
       <c r="J68" t="n" s="25">
-        <v>0.9988633694978665</v>
+        <v>0.998953743774091</v>
       </c>
       <c r="K68" t="n" s="25">
         <v>0.9651142789960027</v>
@@ -2923,9 +2793,7 @@
       <c r="M68" t="n" s="25">
         <v>1.5049974300120867E-6</v>
       </c>
-      <c r="N68" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N68" s="25"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2935,19 +2803,19 @@
         <v>0.8393400692058324</v>
       </c>
       <c r="F69" t="n" s="25">
-        <v>0.1759764139219725</v>
+        <v>0.17612545139860267</v>
       </c>
       <c r="G69" t="n" s="25">
-        <v>0.0015362373416670627</v>
+        <v>0.002133835316488317</v>
       </c>
       <c r="H69" t="n" s="25">
         <v>0.13535966985936004</v>
       </c>
       <c r="I69" t="n" s="25">
-        <v>2.9352618704024226E-7</v>
+        <v>2.935261870402423E-7</v>
       </c>
       <c r="J69" t="n" s="25">
-        <v>6.851268567264324E-23</v>
+        <v>9.963960498382977E-23</v>
       </c>
       <c r="K69" t="n" s="25">
         <v>1.229790812626971E-5</v>
@@ -2956,11 +2824,9 @@
         <v>1.246050990916028E-24</v>
       </c>
       <c r="M69" t="n" s="25">
-        <v>5.53634026689597E-56</v>
-      </c>
-      <c r="N69" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>5.780874300249972E-56</v>
+      </c>
+      <c r="N69" s="25"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2970,10 +2836,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F70" t="n" s="25">
-        <v>0.9176035494786698</v>
+        <v>0.9227148228966326</v>
       </c>
       <c r="G70" t="n" s="25">
-        <v>0.18807231043383965</v>
+        <v>0.2858511701079184</v>
       </c>
       <c r="H70" t="n" s="25">
         <v>0.9815335342203776</v>
@@ -2982,7 +2848,7 @@
         <v>0.7763964023159632</v>
       </c>
       <c r="J70" t="n" s="25">
-        <v>1.389574646441715E-6</v>
+        <v>2.3553390976322038E-6</v>
       </c>
       <c r="K70" t="n" s="25">
         <v>0.9063292126507646</v>
@@ -2993,9 +2859,7 @@
       <c r="M70" t="n" s="25">
         <v>5.166397745033202E-25</v>
       </c>
-      <c r="N70" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N70" s="25"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3028,9 +2892,7 @@
       <c r="M71" t="n" s="25">
         <v>2.5359148318370736E-40</v>
       </c>
-      <c r="N71" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N71" s="25"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3040,10 +2902,10 @@
         <v>0.9864134810558989</v>
       </c>
       <c r="F72" t="n" s="25">
-        <v>0.6309955864313644</v>
+        <v>0.6356674606235017</v>
       </c>
       <c r="G72" t="n" s="25">
-        <v>0.11183084785394534</v>
+        <v>0.1786955867948837</v>
       </c>
       <c r="H72" t="n" s="25">
         <v>0.564240199331764</v>
@@ -3052,7 +2914,7 @@
         <v>0.025083233993470292</v>
       </c>
       <c r="J72" t="n" s="25">
-        <v>3.723669886503748E-7</v>
+        <v>6.401282653868761E-7</v>
       </c>
       <c r="K72" t="n" s="25">
         <v>0.1997153003594432</v>
@@ -3063,9 +2925,7 @@
       <c r="M72" t="n" s="25">
         <v>7.336798748936418E-24</v>
       </c>
-      <c r="N72" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N72" s="25"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3075,10 +2935,10 @@
         <v>0.9885609250215225</v>
       </c>
       <c r="F73" t="n" s="25">
-        <v>0.6327261791550085</v>
+        <v>0.6384207060965638</v>
       </c>
       <c r="G73" t="n" s="25">
-        <v>0.024505458595369855</v>
+        <v>0.04160323188361091</v>
       </c>
       <c r="H73" t="n" s="25">
         <v>0.5605913063526525</v>
@@ -3087,7 +2947,7 @@
         <v>0.040029342786162006</v>
       </c>
       <c r="J73" t="n" s="25">
-        <v>2.7097947477854814E-15</v>
+        <v>4.652810338337447E-15</v>
       </c>
       <c r="K73" t="n" s="25">
         <v>0.017757012887395396</v>
@@ -3098,9 +2958,7 @@
       <c r="M73" t="n" s="25">
         <v>2.8471626825845265E-47</v>
       </c>
-      <c r="N73" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N73" s="25"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3110,32 +2968,30 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F74" t="n" s="25">
-        <v>0.9999922256613836</v>
+        <v>0.9999917156197048</v>
       </c>
       <c r="G74" t="n" s="25">
-        <v>0.9999999734167588</v>
+        <v>0.9999999720186754</v>
       </c>
       <c r="H74" t="n" s="25">
         <v>0.9991447677582072</v>
       </c>
       <c r="I74" t="n" s="25">
-        <v>0.9999999471622083</v>
+        <v>0.9999999499959367</v>
       </c>
       <c r="J74" t="n" s="25">
-        <v>0.9999999250799776</v>
+        <v>0.9999999317895819</v>
       </c>
       <c r="K74" t="n" s="25">
         <v>0.9942033484144366</v>
       </c>
       <c r="L74" t="n" s="25">
-        <v>0.997481956502075</v>
+        <v>0.997482660278456</v>
       </c>
       <c r="M74" t="n" s="25">
-        <v>0.6732435320986974</v>
-      </c>
-      <c r="N74" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.6894469850877728</v>
+      </c>
+      <c r="N74" s="25"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3168,9 +3024,7 @@
       <c r="M75" t="n" s="25">
         <v>0.006883937842667006</v>
       </c>
-      <c r="N75" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N75" s="25"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3180,10 +3034,10 @@
         <v>0.9988024893306368</v>
       </c>
       <c r="F76" t="n" s="25">
-        <v>0.9673312168015141</v>
+        <v>0.9703370063249338</v>
       </c>
       <c r="G76" t="n" s="25">
-        <v>0.3155727545597389</v>
+        <v>0.3990200322564089</v>
       </c>
       <c r="H76" t="n" s="25">
         <v>0.9927689424315335</v>
@@ -3192,7 +3046,7 @@
         <v>0.9546215046350779</v>
       </c>
       <c r="J76" t="n" s="25">
-        <v>4.16081614772279E-6</v>
+        <v>5.8064503563978574E-6</v>
       </c>
       <c r="K76" t="n" s="25">
         <v>0.9147708021929902</v>
@@ -3203,9 +3057,7 @@
       <c r="M76" t="n" s="25">
         <v>4.318779468916009E-25</v>
       </c>
-      <c r="N76" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N76" s="25"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3215,10 +3067,10 @@
         <v>0.9867618522360835</v>
       </c>
       <c r="F77" t="n" s="25">
-        <v>0.6226872047794724</v>
+        <v>0.6232578923786197</v>
       </c>
       <c r="G77" t="n" s="25">
-        <v>0.0023105380637928772</v>
+        <v>0.003985905195863633</v>
       </c>
       <c r="H77" t="n" s="25">
         <v>0.488482029383375</v>
@@ -3227,7 +3079,7 @@
         <v>0.00255199761401136</v>
       </c>
       <c r="J77" t="n" s="25">
-        <v>2.3701857169725516E-19</v>
+        <v>4.0931853157040307E-19</v>
       </c>
       <c r="K77" t="n" s="25">
         <v>0.031274128143945194</v>
@@ -3238,9 +3090,7 @@
       <c r="M77" t="n" s="25">
         <v>1.3218350299926233E-52</v>
       </c>
-      <c r="N77" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N77" s="25"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3250,32 +3100,30 @@
         <v>0.9984540813360937</v>
       </c>
       <c r="F78" t="n" s="25">
-        <v>0.9993110131394257</v>
+        <v>0.9993979930910645</v>
       </c>
       <c r="G78" t="n" s="25">
-        <v>0.9967141026317727</v>
+        <v>0.9970596296801573</v>
       </c>
       <c r="H78" t="n" s="25">
         <v>0.9888956903558358</v>
       </c>
       <c r="I78" t="n" s="25">
-        <v>0.9601607014143744</v>
+        <v>0.9601625552134979</v>
       </c>
       <c r="J78" t="n" s="25">
-        <v>0.11637231434980945</v>
+        <v>0.12487952879358917</v>
       </c>
       <c r="K78" t="n" s="25">
         <v>0.6295072759368852</v>
       </c>
       <c r="L78" t="n" s="25">
-        <v>0.014919379438919075</v>
+        <v>0.014919379438919229</v>
       </c>
       <c r="M78" t="n" s="25">
-        <v>6.308806363248298E-18</v>
-      </c>
-      <c r="N78" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>6.878346019393254E-18</v>
+      </c>
+      <c r="N78" s="25"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3285,32 +3133,30 @@
         <v>0.9989262997466999</v>
       </c>
       <c r="F79" t="n" s="25">
-        <v>0.9862766297425449</v>
+        <v>0.9894197868052834</v>
       </c>
       <c r="G79" t="n" s="25">
-        <v>0.9454796263657579</v>
+        <v>0.9601648062836918</v>
       </c>
       <c r="H79" t="n" s="25">
         <v>0.9729066534544152</v>
       </c>
       <c r="I79" t="n" s="25">
-        <v>0.9456505105615061</v>
+        <v>0.9456532213140841</v>
       </c>
       <c r="J79" t="n" s="25">
-        <v>0.21674589581370765</v>
+        <v>0.2563381116758332</v>
       </c>
       <c r="K79" t="n" s="25">
         <v>0.49163254891674985</v>
       </c>
       <c r="L79" t="n" s="25">
-        <v>1.98935353440972E-4</v>
+        <v>1.9893535344097272E-4</v>
       </c>
       <c r="M79" t="n" s="25">
-        <v>4.678196750452624E-19</v>
-      </c>
-      <c r="N79" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>4.884770150360085E-19</v>
+      </c>
+      <c r="N79" s="25"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3320,10 +3166,10 @@
         <v>0.994060945465872</v>
       </c>
       <c r="F80" t="n" s="25">
-        <v>0.7901870579364598</v>
+        <v>0.7961711847880201</v>
       </c>
       <c r="G80" t="n" s="25">
-        <v>0.06847970589696706</v>
+        <v>0.09572643647638686</v>
       </c>
       <c r="H80" t="n" s="25">
         <v>0.8561484908002142</v>
@@ -3332,7 +3178,7 @@
         <v>0.7107144023122066</v>
       </c>
       <c r="J80" t="n" s="25">
-        <v>1.5681474540654403E-9</v>
+        <v>2.235959411343695E-9</v>
       </c>
       <c r="K80" t="n" s="25">
         <v>0.47451412961514655</v>
@@ -3343,9 +3189,7 @@
       <c r="M80" t="n" s="25">
         <v>4.5240312470359353E-35</v>
       </c>
-      <c r="N80" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N80" s="25"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3355,19 +3199,19 @@
         <v>0.0782552763619761</v>
       </c>
       <c r="F81" t="n" s="25">
-        <v>0.0034893742981569704</v>
+        <v>0.003490414500124677</v>
       </c>
       <c r="G81" t="n" s="25">
-        <v>1.531639429114768E-4</v>
+        <v>1.7738927825028015E-4</v>
       </c>
       <c r="H81" t="n" s="25">
         <v>0.003490117563865086</v>
       </c>
       <c r="I81" t="n" s="25">
-        <v>1.278114339338414E-7</v>
+        <v>1.2781143556326714E-7</v>
       </c>
       <c r="J81" t="n" s="25">
-        <v>5.954011603759667E-12</v>
+        <v>7.217199689297241E-12</v>
       </c>
       <c r="K81" t="n" s="25">
         <v>3.821018353052388E-5</v>
@@ -3376,11 +3220,9 @@
         <v>1.8414396459626717E-15</v>
       </c>
       <c r="M81" t="n" s="25">
-        <v>1.1593352637532862E-29</v>
-      </c>
-      <c r="N81" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>1.2105418181558939E-29</v>
+      </c>
+      <c r="N81" s="25"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3390,10 +3232,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F82" t="n" s="25">
-        <v>0.9153813422940253</v>
+        <v>0.9192789535577499</v>
       </c>
       <c r="G82" t="n" s="25">
-        <v>0.10335505290155332</v>
+        <v>0.16609977282611235</v>
       </c>
       <c r="H82" t="n" s="25">
         <v>0.9650587751889511</v>
@@ -3402,7 +3244,7 @@
         <v>0.7763697248304354</v>
       </c>
       <c r="J82" t="n" s="25">
-        <v>6.001329145169084E-9</v>
+        <v>1.0227672710363387E-8</v>
       </c>
       <c r="K82" t="n" s="25">
         <v>0.7003856667965955</v>
@@ -3413,9 +3255,7 @@
       <c r="M82" t="n" s="25">
         <v>4.91805446153247E-34</v>
       </c>
-      <c r="N82" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N82" s="25"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3425,10 +3265,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F83" t="n" s="25">
-        <v>0.9138689388043615</v>
+        <v>0.9168728452186032</v>
       </c>
       <c r="G83" t="n" s="25">
-        <v>0.055031273109482616</v>
+        <v>0.09143105874619291</v>
       </c>
       <c r="H83" t="n" s="25">
         <v>0.9650587751889511</v>
@@ -3437,7 +3277,7 @@
         <v>0.7763696273114512</v>
       </c>
       <c r="J83" t="n" s="25">
-        <v>1.1557836553859963E-10</v>
+        <v>1.976822349922335E-10</v>
       </c>
       <c r="K83" t="n" s="25">
         <v>0.7003855584742733</v>
@@ -3448,9 +3288,7 @@
       <c r="M83" t="n" s="25">
         <v>2.5072752572951195E-38</v>
       </c>
-      <c r="N83" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N83" s="25"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3460,32 +3298,30 @@
         <v>0.9990766231441008</v>
       </c>
       <c r="F84" t="n" s="25">
-        <v>0.9999903772870422</v>
+        <v>0.9999899641388307</v>
       </c>
       <c r="G84" t="n" s="25">
-        <v>0.999998782639589</v>
+        <v>0.9999987402803653</v>
       </c>
       <c r="H84" t="n" s="25">
         <v>0.9999287684726809</v>
       </c>
       <c r="I84" t="n" s="25">
-        <v>0.9999998361573075</v>
+        <v>0.9999998420636774</v>
       </c>
       <c r="J84" t="n" s="25">
-        <v>0.9999997880140341</v>
+        <v>0.9999998005873513</v>
       </c>
       <c r="K84" t="n" s="25">
         <v>0.9788620584865807</v>
       </c>
       <c r="L84" t="n" s="25">
-        <v>0.9907700268821302</v>
+        <v>0.9907702906843432</v>
       </c>
       <c r="M84" t="n" s="25">
-        <v>0.12878120276459648</v>
-      </c>
-      <c r="N84" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.13448561432493508</v>
+      </c>
+      <c r="N84" s="25"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3495,32 +3331,30 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F85" t="n" s="25">
-        <v>0.9999922256613836</v>
+        <v>0.9999917156197048</v>
       </c>
       <c r="G85" t="n" s="25">
-        <v>0.9999999734167588</v>
+        <v>0.9999999720186754</v>
       </c>
       <c r="H85" t="n" s="25">
         <v>0.999384719134074</v>
       </c>
       <c r="I85" t="n" s="25">
-        <v>0.99999998152072</v>
+        <v>0.9999999825117769</v>
       </c>
       <c r="J85" t="n" s="25">
-        <v>0.9999999413226388</v>
+        <v>0.9999999472229868</v>
       </c>
       <c r="K85" t="n" s="25">
         <v>0.9989970627283152</v>
       </c>
       <c r="L85" t="n" s="25">
-        <v>0.9996993369961962</v>
+        <v>0.999703051373055</v>
       </c>
       <c r="M85" t="n" s="25">
-        <v>0.9943809334060114</v>
-      </c>
-      <c r="N85" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9947829787422025</v>
+      </c>
+      <c r="N85" s="25"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3530,32 +3364,30 @@
         <v>0.9988889442131283</v>
       </c>
       <c r="F86" t="n" s="25">
-        <v>0.9998577847314508</v>
+        <v>0.9998548418866896</v>
       </c>
       <c r="G86" t="n" s="25">
-        <v>0.9996915051510824</v>
+        <v>0.9996857551132794</v>
       </c>
       <c r="H86" t="n" s="25">
         <v>0.9992968531416008</v>
       </c>
       <c r="I86" t="n" s="25">
-        <v>0.9998797989072935</v>
+        <v>0.9998818232082186</v>
       </c>
       <c r="J86" t="n" s="25">
-        <v>0.999941954147341</v>
+        <v>0.9999435951428077</v>
       </c>
       <c r="K86" t="n" s="25">
         <v>0.9032719563059898</v>
       </c>
       <c r="L86" t="n" s="25">
-        <v>0.898679142254797</v>
+        <v>0.898679142316724</v>
       </c>
       <c r="M86" t="n" s="25">
-        <v>6.590492479057479E-7</v>
-      </c>
-      <c r="N86" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>6.789874794802542E-7</v>
+      </c>
+      <c r="N86" s="25"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3565,32 +3397,30 @@
         <v>0.9985952471986091</v>
       </c>
       <c r="F87" t="n" s="25">
-        <v>0.999809733786342</v>
+        <v>0.999834264618784</v>
       </c>
       <c r="G87" t="n" s="25">
-        <v>0.9999744897299762</v>
+        <v>0.9999779532551157</v>
       </c>
       <c r="H87" t="n" s="25">
         <v>0.9953883547026549</v>
       </c>
       <c r="I87" t="n" s="25">
-        <v>0.9995898296671394</v>
+        <v>0.9996037405324492</v>
       </c>
       <c r="J87" t="n" s="25">
-        <v>0.999971004060976</v>
+        <v>0.9999729562729112</v>
       </c>
       <c r="K87" t="n" s="25">
         <v>0.9310386732863163</v>
       </c>
       <c r="L87" t="n" s="25">
-        <v>0.9423612880923626</v>
+        <v>0.9423613129249901</v>
       </c>
       <c r="M87" t="n" s="25">
-        <v>9.562969967223623E-4</v>
-      </c>
-      <c r="N87" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.0010133597450261314</v>
+      </c>
+      <c r="N87" s="25"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3600,10 +3430,10 @@
         <v>0.021576176013797486</v>
       </c>
       <c r="F88" t="n" s="25">
-        <v>1.1136536562058114E-4</v>
+        <v>1.1136855498243125E-4</v>
       </c>
       <c r="G88" t="n" s="25">
-        <v>1.1539826829210648E-6</v>
+        <v>1.3847788999031036E-6</v>
       </c>
       <c r="H88" t="n" s="25">
         <v>1.1135219845870326E-4</v>
@@ -3612,7 +3442,7 @@
         <v>4.293546352202243E-11</v>
       </c>
       <c r="J88" t="n" s="25">
-        <v>2.8718195690100027E-16</v>
+        <v>3.4461588040163874E-16</v>
       </c>
       <c r="K88" t="n" s="25">
         <v>2.218118850519949E-8</v>
@@ -3623,9 +3453,7 @@
       <c r="M88" t="n" s="25">
         <v>2.8167411744826825E-38</v>
       </c>
-      <c r="N88" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N88" s="25"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3635,10 +3463,10 @@
         <v>0.9988889442131283</v>
       </c>
       <c r="F89" t="n" s="25">
-        <v>0.9956955638512698</v>
+        <v>0.9963340403620725</v>
       </c>
       <c r="G89" t="n" s="25">
-        <v>0.9925214296328839</v>
+        <v>0.9937600804144523</v>
       </c>
       <c r="H89" t="n" s="25">
         <v>0.99054969980164</v>
@@ -3647,7 +3475,7 @@
         <v>0.9874297389678615</v>
       </c>
       <c r="J89" t="n" s="25">
-        <v>0.9982104703906812</v>
+        <v>0.9983190073181158</v>
       </c>
       <c r="K89" t="n" s="25">
         <v>0.850857190960456</v>
@@ -3658,9 +3486,7 @@
       <c r="M89" t="n" s="25">
         <v>4.9709142452658534E-8</v>
       </c>
-      <c r="N89" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N89" s="25"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3693,9 +3519,7 @@
       <c r="M90" t="n" s="25">
         <v>2.889837635830081E-6</v>
       </c>
-      <c r="N90" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N90" s="25"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3705,10 +3529,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F91" t="n" s="25">
-        <v>0.8892111011458897</v>
+        <v>0.8944691540319655</v>
       </c>
       <c r="G91" t="n" s="25">
-        <v>0.10577253625128756</v>
+        <v>0.16970708844997706</v>
       </c>
       <c r="H91" t="n" s="25">
         <v>0.9059659710446537</v>
@@ -3717,7 +3541,7 @@
         <v>0.43146429013846094</v>
       </c>
       <c r="J91" t="n" s="25">
-        <v>2.129030741221423E-11</v>
+        <v>3.6250736259466094E-11</v>
       </c>
       <c r="K91" t="n" s="25">
         <v>0.44999580078500856</v>
@@ -3728,9 +3552,7 @@
       <c r="M91" t="n" s="25">
         <v>3.279934098996405E-39</v>
       </c>
-      <c r="N91" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N91" s="25"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3740,32 +3562,30 @@
         <v>0.987395175638213</v>
       </c>
       <c r="F92" t="n" s="25">
-        <v>0.981285121367328</v>
+        <v>0.9835440201624351</v>
       </c>
       <c r="G92" t="n" s="25">
-        <v>0.9980365164556827</v>
+        <v>0.9982779785291244</v>
       </c>
       <c r="H92" t="n" s="25">
         <v>0.7723632246462275</v>
       </c>
       <c r="I92" t="n" s="25">
-        <v>0.8858908986794274</v>
+        <v>0.8879031692772176</v>
       </c>
       <c r="J92" t="n" s="25">
-        <v>0.998536730136875</v>
+        <v>0.9986661524924156</v>
       </c>
       <c r="K92" t="n" s="25">
         <v>0.2342898178072376</v>
       </c>
       <c r="L92" t="n" s="25">
-        <v>0.014945289130335606</v>
+        <v>0.014945289185661731</v>
       </c>
       <c r="M92" t="n" s="25">
-        <v>3.861380735630969E-8</v>
-      </c>
-      <c r="N92" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>4.1775405218087375E-8</v>
+      </c>
+      <c r="N92" s="25"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3775,19 +3595,19 @@
         <v>0.9990041798783298</v>
       </c>
       <c r="F93" t="n" s="25">
-        <v>0.9968440674006563</v>
+        <v>0.9972310855026775</v>
       </c>
       <c r="G93" t="n" s="25">
-        <v>0.895666725349598</v>
+        <v>0.9086150322717135</v>
       </c>
       <c r="H93" t="n" s="25">
         <v>0.993119403403634</v>
       </c>
       <c r="I93" t="n" s="25">
-        <v>0.9905562434793311</v>
+        <v>0.9905562479429336</v>
       </c>
       <c r="J93" t="n" s="25">
-        <v>8.002829909411093E-4</v>
+        <v>8.915951208170715E-4</v>
       </c>
       <c r="K93" t="n" s="25">
         <v>0.5254109707965239</v>
@@ -3796,11 +3616,9 @@
         <v>2.9005133018936914E-5</v>
       </c>
       <c r="M93" t="n" s="25">
-        <v>9.974898797896028E-27</v>
-      </c>
-      <c r="N93" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>1.0415477953669157E-26</v>
+      </c>
+      <c r="N93" s="25"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3810,32 +3628,30 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F94" t="n" s="25">
-        <v>0.9999922256613836</v>
+        <v>0.9999917156197048</v>
       </c>
       <c r="G94" t="n" s="25">
-        <v>0.9999999734167588</v>
+        <v>0.9999999720186754</v>
       </c>
       <c r="H94" t="n" s="25">
         <v>0.9991447677582072</v>
       </c>
       <c r="I94" t="n" s="25">
-        <v>0.9999999471622083</v>
+        <v>0.9999999499959367</v>
       </c>
       <c r="J94" t="n" s="25">
-        <v>0.9999999250799776</v>
+        <v>0.9999999317895819</v>
       </c>
       <c r="K94" t="n" s="25">
         <v>0.9942033484144366</v>
       </c>
       <c r="L94" t="n" s="25">
-        <v>0.997481956502075</v>
+        <v>0.997482660278456</v>
       </c>
       <c r="M94" t="n" s="25">
-        <v>0.6732435320986974</v>
-      </c>
-      <c r="N94" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.6894469850877728</v>
+      </c>
+      <c r="N94" s="25"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3868,9 +3684,7 @@
       <c r="M95" t="n" s="25">
         <v>1.0789307780179214E-23</v>
       </c>
-      <c r="N95" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N95" s="25"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3880,32 +3694,30 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F96" t="n" s="25">
-        <v>0.9994410784929397</v>
+        <v>0.9994170244354664</v>
       </c>
       <c r="G96" t="n" s="25">
-        <v>0.9996171425786989</v>
+        <v>0.9995903014102688</v>
       </c>
       <c r="H96" t="n" s="25">
         <v>0.9289176392060162</v>
       </c>
       <c r="I96" t="n" s="25">
-        <v>0.8860452241626232</v>
+        <v>0.8863611999123252</v>
       </c>
       <c r="J96" t="n" s="25">
-        <v>0.9442552075811658</v>
+        <v>0.9474091402484521</v>
       </c>
       <c r="K96" t="n" s="25">
         <v>0.31935580330178276</v>
       </c>
       <c r="L96" t="n" s="25">
-        <v>0.00873798188613765</v>
+        <v>0.008737983882487964</v>
       </c>
       <c r="M96" t="n" s="25">
-        <v>7.469343307299001E-8</v>
-      </c>
-      <c r="N96" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>8.13766988707339E-8</v>
+      </c>
+      <c r="N96" s="25"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3915,32 +3727,30 @@
         <v>0.9984540813360937</v>
       </c>
       <c r="F97" t="n" s="25">
-        <v>0.9999853754217962</v>
+        <v>0.9999844159716955</v>
       </c>
       <c r="G97" t="n" s="25">
-        <v>0.999998566253841</v>
+        <v>0.9999984885153765</v>
       </c>
       <c r="H97" t="n" s="25">
         <v>0.9971782994970283</v>
       </c>
       <c r="I97" t="n" s="25">
-        <v>0.9999789100356192</v>
+        <v>0.9999800102149843</v>
       </c>
       <c r="J97" t="n" s="25">
-        <v>0.9999825627431054</v>
+        <v>0.9999841200812813</v>
       </c>
       <c r="K97" t="n" s="25">
         <v>0.9832628479422613</v>
       </c>
       <c r="L97" t="n" s="25">
-        <v>0.9918193301657977</v>
+        <v>0.9918194251251145</v>
       </c>
       <c r="M97" t="n" s="25">
-        <v>0.03375604650942815</v>
-      </c>
-      <c r="N97" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.036498501244875026</v>
+      </c>
+      <c r="N97" s="25"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3950,32 +3760,30 @@
         <v>0.9990766231441008</v>
       </c>
       <c r="F98" t="n" s="25">
-        <v>0.9987934002373395</v>
+        <v>0.9987426610181627</v>
       </c>
       <c r="G98" t="n" s="25">
-        <v>0.9932022987272733</v>
+        <v>0.9927063971784706</v>
       </c>
       <c r="H98" t="n" s="25">
         <v>0.967560793740566</v>
       </c>
       <c r="I98" t="n" s="25">
-        <v>0.9632843137926933</v>
+        <v>0.9632845475493499</v>
       </c>
       <c r="J98" t="n" s="25">
-        <v>0.006957969754484562</v>
+        <v>0.007372359470774495</v>
       </c>
       <c r="K98" t="n" s="25">
         <v>0.2118879258497844</v>
       </c>
       <c r="L98" t="n" s="25">
-        <v>1.8763541999447778E-5</v>
+        <v>1.8763541999447788E-5</v>
       </c>
       <c r="M98" t="n" s="25">
-        <v>1.871555871111767E-22</v>
-      </c>
-      <c r="N98" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>2.0405331862238664E-22</v>
+      </c>
+      <c r="N98" s="25"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3985,32 +3793,30 @@
         <v>0.9986669336899349</v>
       </c>
       <c r="F99" t="n" s="25">
-        <v>0.9999138878475622</v>
+        <v>0.9999082519352853</v>
       </c>
       <c r="G99" t="n" s="25">
-        <v>0.9998421408513138</v>
+        <v>0.9998262790555187</v>
       </c>
       <c r="H99" t="n" s="25">
         <v>0.9861319866381631</v>
       </c>
       <c r="I99" t="n" s="25">
-        <v>0.9790295902764925</v>
+        <v>0.9792464348949651</v>
       </c>
       <c r="J99" t="n" s="25">
-        <v>0.9922714986136909</v>
+        <v>0.992952904258582</v>
       </c>
       <c r="K99" t="n" s="25">
         <v>0.6692167499497924</v>
       </c>
       <c r="L99" t="n" s="25">
-        <v>0.43866661151542014</v>
+        <v>0.4386666443885385</v>
       </c>
       <c r="M99" t="n" s="25">
-        <v>6.317763910844854E-7</v>
-      </c>
-      <c r="N99" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>7.172501567160984E-7</v>
+      </c>
+      <c r="N99" s="25"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4020,19 +3826,19 @@
         <v>0.960424993065954</v>
       </c>
       <c r="F100" t="n" s="25">
-        <v>0.4163113388966747</v>
+        <v>0.41778697282949856</v>
       </c>
       <c r="G100" t="n" s="25">
-        <v>0.010083232990466762</v>
+        <v>0.013959138826329778</v>
       </c>
       <c r="H100" t="n" s="25">
         <v>0.3508338775206189</v>
       </c>
       <c r="I100" t="n" s="25">
-        <v>0.003468276980634322</v>
+        <v>0.0034682769806384213</v>
       </c>
       <c r="J100" t="n" s="25">
-        <v>4.305232073479183E-15</v>
+        <v>6.253187360464504E-15</v>
       </c>
       <c r="K100" t="n" s="25">
         <v>0.017009176546976625</v>
@@ -4041,11 +3847,9 @@
         <v>8.920127818507448E-14</v>
       </c>
       <c r="M100" t="n" s="25">
-        <v>4.4566687975859415E-43</v>
-      </c>
-      <c r="N100" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>4.653514934899114E-43</v>
+      </c>
+      <c r="N100" s="25"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4078,9 +3882,7 @@
       <c r="M101" t="n" s="25">
         <v>0.0040452265586101354</v>
       </c>
-      <c r="N101" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N101" s="25"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4090,10 +3892,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F102" t="n" s="25">
-        <v>0.9153813422940253</v>
+        <v>0.9192789535577499</v>
       </c>
       <c r="G102" t="n" s="25">
-        <v>0.10335505961092879</v>
+        <v>0.1660997828540819</v>
       </c>
       <c r="H102" t="n" s="25">
         <v>0.9745094251624421</v>
@@ -4102,7 +3904,7 @@
         <v>0.7763704170918422</v>
       </c>
       <c r="J102" t="n" s="25">
-        <v>1.5003322727862898E-8</v>
+        <v>2.5569181383638652E-8</v>
       </c>
       <c r="K102" t="n" s="25">
         <v>0.8264809268768548</v>
@@ -4113,9 +3915,7 @@
       <c r="M102" t="n" s="25">
         <v>2.3421688544201695E-31</v>
       </c>
-      <c r="N102" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N102" s="25"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4125,10 +3925,10 @@
         <v>0.9988024893306368</v>
       </c>
       <c r="F103" t="n" s="25">
-        <v>0.9652100634835354</v>
+        <v>0.9677674534717405</v>
       </c>
       <c r="G103" t="n" s="25">
-        <v>0.18893336797156227</v>
+        <v>0.25118303305739736</v>
       </c>
       <c r="H103" t="n" s="25">
         <v>0.9872194802846268</v>
@@ -4137,7 +3937,7 @@
         <v>0.9546185498086213</v>
       </c>
       <c r="J103" t="n" s="25">
-        <v>2.438565802346471E-8</v>
+        <v>3.4295711848809654E-8</v>
       </c>
       <c r="K103" t="n" s="25">
         <v>0.7284192107965604</v>
@@ -4148,9 +3948,7 @@
       <c r="M103" t="n" s="25">
         <v>2.7318009720492876E-35</v>
       </c>
-      <c r="N103" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N103" s="25"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4160,10 +3958,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F104" t="n" s="25">
-        <v>0.9153813422940253</v>
+        <v>0.9192789535577499</v>
       </c>
       <c r="G104" t="n" s="25">
-        <v>0.10335505290155332</v>
+        <v>0.16609977282611235</v>
       </c>
       <c r="H104" t="n" s="25">
         <v>0.9650587751889511</v>
@@ -4172,7 +3970,7 @@
         <v>0.7763697248304354</v>
       </c>
       <c r="J104" t="n" s="25">
-        <v>6.001329145169084E-9</v>
+        <v>1.0227672710363387E-8</v>
       </c>
       <c r="K104" t="n" s="25">
         <v>0.7003856667965955</v>
@@ -4183,9 +3981,7 @@
       <c r="M104" t="n" s="25">
         <v>4.91805446153247E-34</v>
       </c>
-      <c r="N104" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N104" s="25"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4195,19 +3991,19 @@
         <v>0.9990041798783298</v>
       </c>
       <c r="F105" t="n" s="25">
-        <v>0.9920504695386109</v>
+        <v>0.9931228217559948</v>
       </c>
       <c r="G105" t="n" s="25">
-        <v>0.9727427027515837</v>
+        <v>0.97637774866627</v>
       </c>
       <c r="H105" t="n" s="25">
         <v>0.9336247824434447</v>
       </c>
       <c r="I105" t="n" s="25">
-        <v>0.8774595407439799</v>
+        <v>0.877459553198555</v>
       </c>
       <c r="J105" t="n" s="25">
-        <v>7.806233460908408E-5</v>
+        <v>8.443873520515733E-5</v>
       </c>
       <c r="K105" t="n" s="25">
         <v>0.1661620992956086</v>
@@ -4216,11 +4012,9 @@
         <v>1.5951448263827057E-7</v>
       </c>
       <c r="M105" t="n" s="25">
-        <v>1.5734451022707178E-28</v>
-      </c>
-      <c r="N105" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>1.6429423918954173E-28</v>
+      </c>
+      <c r="N105" s="25"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4230,10 +4024,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F106" t="n" s="25">
-        <v>0.9138689388043615</v>
+        <v>0.9168728452186032</v>
       </c>
       <c r="G106" t="n" s="25">
-        <v>0.055031273326690715</v>
+        <v>0.09143105909316987</v>
       </c>
       <c r="H106" t="n" s="25">
         <v>0.9745094251624421</v>
@@ -4242,7 +4036,7 @@
         <v>0.776369729990725</v>
       </c>
       <c r="J106" t="n" s="25">
-        <v>2.8894591379640524E-10</v>
+        <v>4.942055873340402E-10</v>
       </c>
       <c r="K106" t="n" s="25">
         <v>0.8264803756350878</v>
@@ -4253,9 +4047,7 @@
       <c r="M106" t="n" s="25">
         <v>1.1940629154406975E-35</v>
       </c>
-      <c r="N106" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N106" s="25"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4288,9 +4080,7 @@
       <c r="M107" t="n" s="25">
         <v>7.116007016298052E-25</v>
       </c>
-      <c r="N107" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N107" s="25"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4300,32 +4090,30 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="F108" t="n" s="25">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="G108" t="n" s="25">
-        <v>0.9999999999610925</v>
+        <v>0.9999999999590474</v>
       </c>
       <c r="H108" t="n" s="25">
         <v>0.9998596938912766</v>
       </c>
       <c r="I108" t="n" s="25">
-        <v>0.999999999997926</v>
+        <v>0.9999999999980372</v>
       </c>
       <c r="J108" t="n" s="25">
-        <v>0.9999999999999643</v>
+        <v>0.9999999999999692</v>
       </c>
       <c r="K108" t="n" s="25">
         <v>0.9996901051293803</v>
       </c>
       <c r="L108" t="n" s="25">
-        <v>0.9999997517948314</v>
+        <v>0.9999997650761684</v>
       </c>
       <c r="M108" t="n" s="25">
-        <v>0.999998553662166</v>
-      </c>
-      <c r="N108" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999986575148688</v>
+      </c>
+      <c r="N108" s="25"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4335,10 +4123,10 @@
         <v>0.9908161152792774</v>
       </c>
       <c r="F109" t="n" s="25">
-        <v>0.6826235075103717</v>
+        <v>0.6830798084728363</v>
       </c>
       <c r="G109" t="n" s="25">
-        <v>0.002242302972350548</v>
+        <v>0.003868384798169482</v>
       </c>
       <c r="H109" t="n" s="25">
         <v>0.5961703735263811</v>
@@ -4347,7 +4135,7 @@
         <v>0.011119188632614402</v>
       </c>
       <c r="J109" t="n" s="25">
-        <v>7.148943738888402E-17</v>
+        <v>1.2346850071812881E-16</v>
       </c>
       <c r="K109" t="n" s="25">
         <v>0.16884565986862615</v>
@@ -4358,9 +4146,7 @@
       <c r="M109" t="n" s="25">
         <v>7.216811278499144E-47</v>
       </c>
-      <c r="N109" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N109" s="25"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4370,10 +4156,10 @@
         <v>0.9988024893306368</v>
       </c>
       <c r="F110" t="n" s="25">
-        <v>0.9731751641048376</v>
+        <v>0.9769132338872304</v>
       </c>
       <c r="G110" t="n" s="25">
-        <v>0.648994432609321</v>
+        <v>0.7269623850790388</v>
       </c>
       <c r="H110" t="n" s="25">
         <v>0.9872194802846268</v>
@@ -4382,7 +4168,7 @@
         <v>0.9546254442127134</v>
       </c>
       <c r="J110" t="n" s="25">
-        <v>0.0015258428338783105</v>
+        <v>0.0020755008294650766</v>
       </c>
       <c r="K110" t="n" s="25">
         <v>0.7284297842608821</v>
@@ -4393,9 +4179,7 @@
       <c r="M110" t="n" s="25">
         <v>9.787788463355423E-24</v>
       </c>
-      <c r="N110" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N110" s="25"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4405,10 +4189,10 @@
         <v>0.9987096606479622</v>
       </c>
       <c r="F111" t="n" s="25">
-        <v>0.9138689388043615</v>
+        <v>0.9168728452186032</v>
       </c>
       <c r="G111" t="n" s="25">
-        <v>0.055031273109482616</v>
+        <v>0.09143105874619291</v>
       </c>
       <c r="H111" t="n" s="25">
         <v>0.9650587751889511</v>
@@ -4417,7 +4201,7 @@
         <v>0.7763696273114512</v>
       </c>
       <c r="J111" t="n" s="25">
-        <v>1.1557836553859963E-10</v>
+        <v>1.976822349922335E-10</v>
       </c>
       <c r="K111" t="n" s="25">
         <v>0.7003855584742733</v>
@@ -4428,9 +4212,7 @@
       <c r="M111" t="n" s="25">
         <v>2.5072752572951195E-38</v>
       </c>
-      <c r="N111" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N111" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
